--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5543,6 +5543,114 @@
       <c r="D286" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>352.9542857142857</v>
+      </c>
+      <c r="C287" t="n">
+        <v>348.665</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>360.5342857142857</v>
+      </c>
+      <c r="C288" t="n">
+        <v>356.07</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>369.1571428571429</v>
+      </c>
+      <c r="C289" t="n">
+        <v>360.455</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>355.9</v>
+      </c>
+      <c r="C290" t="n">
+        <v>346.575</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>356.8428571428572</v>
+      </c>
+      <c r="C291" t="n">
+        <v>348.81</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>355.64</v>
+      </c>
+      <c r="C292" t="n">
+        <v>355.25</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5557,7 +5665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B336"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8925,6 +9033,76 @@
       </c>
       <c r="B336" t="n">
         <v>0.46</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.28</v>
       </c>
     </row>
   </sheetData>
@@ -9093,28 +9271,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04887480699167679</v>
+        <v>0.08405302206111617</v>
       </c>
       <c r="J2" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K2" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001976713760861726</v>
+        <v>0.005948064983403945</v>
       </c>
       <c r="M2" t="n">
-        <v>5.899417450602617</v>
+        <v>5.92375039134867</v>
       </c>
       <c r="N2" t="n">
-        <v>60.57049261768655</v>
+        <v>61.0692796447036</v>
       </c>
       <c r="O2" t="n">
-        <v>7.782704710939928</v>
+        <v>7.814683592104264</v>
       </c>
       <c r="P2" t="n">
-        <v>349.5136866869495</v>
+        <v>349.1692594002581</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -9170,28 +9348,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03967038822788279</v>
+        <v>0.07721370431495848</v>
       </c>
       <c r="J3" t="n">
+        <v>291</v>
+      </c>
+      <c r="K3" t="n">
         <v>285</v>
       </c>
-      <c r="K3" t="n">
-        <v>279</v>
-      </c>
       <c r="L3" t="n">
-        <v>0.001259913039934113</v>
+        <v>0.004850711297994414</v>
       </c>
       <c r="M3" t="n">
-        <v>5.843381148095031</v>
+        <v>5.882061555205034</v>
       </c>
       <c r="N3" t="n">
-        <v>61.95730066676497</v>
+        <v>62.5553700827996</v>
       </c>
       <c r="O3" t="n">
-        <v>7.8712959966428</v>
+        <v>7.909195286677375</v>
       </c>
       <c r="P3" t="n">
-        <v>343.2163748234603</v>
+        <v>342.847378487683</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -9228,7 +9406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15444,6 +15622,138 @@
         </is>
       </c>
     </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:11:36+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>-35.121679893299394,174.01207512915832</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>-35.12149155976476,174.01294499558654</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>-35.121614984023545,174.0120490920807</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>-35.121428149182286,174.012919559253</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>-35.121541144514666,174.012019472871</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>-35.12139059949593,174.01290449670321</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>-35.121654668474214,174.01206501071113</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>-35.121509456875955,174.01295217478864</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>-35.12164659457261,174.01206177202423</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>-35.121490318099134,174.01294449750807</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:11:33+00:00</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>-35.121656894913734,174.0120659038037</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>-35.12143517101618,174.01292237596854</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -9116,7 +9116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9207,35 +9207,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -9294,27 +9299,28 @@
       <c r="P2" t="n">
         <v>349.1692594002581</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.01328756380877 -35.12470231394584, 174.01010651112483 -35.116771897834845)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.0132875638088</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.12470231394584</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.0101065111248</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.11677189783484</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.0116970374668</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.12073710589034</v>
       </c>
     </row>
@@ -9371,27 +9377,28 @@
       <c r="P3" t="n">
         <v>342.847378487683</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.0141427132155 -35.12447724442202, 174.01096161333027 -35.11654683588478)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.0141427132155</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.12447724442202</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.0109616133303</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.11654683588478</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.0125521632729</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.1205120401534</v>
       </c>
     </row>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5649,6 +5649,96 @@
         <v>355.25</v>
       </c>
       <c r="D292" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>358.3857142857143</v>
+      </c>
+      <c r="C293" t="n">
+        <v>353.46</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>352.7285714285715</v>
+      </c>
+      <c r="C294" t="n">
+        <v>349.855</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>356.3314285714285</v>
+      </c>
+      <c r="C295" t="n">
+        <v>352.34</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>336.8642857142857</v>
+      </c>
+      <c r="C296" t="n">
+        <v>333.24</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>336.9771428571428</v>
+      </c>
+      <c r="C297" t="n">
+        <v>325.755</v>
+      </c>
+      <c r="D297" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5665,7 +5755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B343"/>
+  <dimension ref="A1:B348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9103,6 +9193,56 @@
       </c>
       <c r="B343" t="n">
         <v>-0.28</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -9276,28 +9416,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08405302206111617</v>
+        <v>0.07275171857917775</v>
       </c>
       <c r="J2" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K2" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005948064983403945</v>
+        <v>0.004517764189519879</v>
       </c>
       <c r="M2" t="n">
-        <v>5.92375039134867</v>
+        <v>5.97340420977396</v>
       </c>
       <c r="N2" t="n">
-        <v>61.0692796447036</v>
+        <v>61.72423146237437</v>
       </c>
       <c r="O2" t="n">
-        <v>7.814683592104264</v>
+        <v>7.856477038875273</v>
       </c>
       <c r="P2" t="n">
-        <v>349.1692594002581</v>
+        <v>349.2817422122039</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9354,28 +9494,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07721370431495848</v>
+        <v>0.07025375360888451</v>
       </c>
       <c r="J3" t="n">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K3" t="n">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004850711297994414</v>
+        <v>0.004036485216512342</v>
       </c>
       <c r="M3" t="n">
-        <v>5.882061555205034</v>
+        <v>5.960864181807765</v>
       </c>
       <c r="N3" t="n">
-        <v>62.5553700827996</v>
+        <v>63.73055155772705</v>
       </c>
       <c r="O3" t="n">
-        <v>7.909195286677375</v>
+        <v>7.983141709736026</v>
       </c>
       <c r="P3" t="n">
-        <v>342.847378487683</v>
+        <v>342.9172943545062</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9413,7 +9553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D292"/>
+  <dimension ref="A1:D297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15761,6 +15901,116 @@
         </is>
       </c>
     </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>-35.12163338273343,174.01205647235622</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>-35.12145049916552,174.01292852465423</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:11:06+00:00</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>-35.1216818261424,174.01207590448092</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>-35.121481369543304,174.01294090790833</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>-35.12165097405259,174.01206352876642</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>-35.121460089962675,174.01293237187778</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-19 22:10:53+00:00</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>-35.121817675630936,174.01213039797705</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>-35.1216236472835,174.012997980922</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-27 22:11:32+00:00</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>-35.12181670920965,174.0121300103144</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>-35.12168774290211,174.0130236921838</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5741,6 +5741,42 @@
       <c r="D297" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>349.4285714285714</v>
+      </c>
+      <c r="C298" t="n">
+        <v>342.6</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>354.3642857142857</v>
+      </c>
+      <c r="C299" t="n">
+        <v>343.265</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B348"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9243,6 +9279,36 @@
       </c>
       <c r="B348" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.51</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -9416,28 +9482,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07275171857917775</v>
+        <v>0.0738246305610637</v>
       </c>
       <c r="J2" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K2" t="n">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004517764189519879</v>
+        <v>0.004721880170265758</v>
       </c>
       <c r="M2" t="n">
-        <v>5.97340420977396</v>
+        <v>5.948150219420766</v>
       </c>
       <c r="N2" t="n">
-        <v>61.72423146237437</v>
+        <v>61.33484518609833</v>
       </c>
       <c r="O2" t="n">
-        <v>7.856477038875273</v>
+        <v>7.831656605476157</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2817422122039</v>
+        <v>349.2710571977804</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9494,28 +9560,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.07025375360888451</v>
+        <v>0.06771723900302667</v>
       </c>
       <c r="J3" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K3" t="n">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004036485216512342</v>
+        <v>0.003809058368905549</v>
       </c>
       <c r="M3" t="n">
-        <v>5.960864181807765</v>
+        <v>5.932856239415051</v>
       </c>
       <c r="N3" t="n">
-        <v>63.73055155772705</v>
+        <v>63.31630079152251</v>
       </c>
       <c r="O3" t="n">
-        <v>7.983141709736026</v>
+        <v>7.957154063578416</v>
       </c>
       <c r="P3" t="n">
-        <v>342.9172943545062</v>
+        <v>342.942592594165</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9553,7 +9619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D297"/>
+  <dimension ref="A1:D299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16011,6 +16077,50 @@
         </is>
       </c>
     </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>-35.12171008479584,174.0120872398979</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>-35.12154349563862,174.01296582902162</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>-35.12166781914701,174.01207028584645</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>-35.12153780110362,174.0129635447277</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5775,6 +5775,24 @@
         <v>343.265</v>
       </c>
       <c r="D299" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>349.8428571428572</v>
+      </c>
+      <c r="C300" t="n">
+        <v>337.065</v>
+      </c>
+      <c r="D300" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -5791,7 +5809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B351"/>
+  <dimension ref="A1:B352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9309,6 +9327,16 @@
       </c>
       <c r="B351" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -9482,28 +9510,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0738246305610637</v>
+        <v>0.07287283125152495</v>
       </c>
       <c r="J2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K2" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004721880170265758</v>
+        <v>0.004637055880060359</v>
       </c>
       <c r="M2" t="n">
-        <v>5.948150219420766</v>
+        <v>5.932259765237295</v>
       </c>
       <c r="N2" t="n">
-        <v>61.33484518609833</v>
+        <v>61.12504822358891</v>
       </c>
       <c r="O2" t="n">
-        <v>7.831656605476157</v>
+        <v>7.818250969596007</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2710571977804</v>
+        <v>349.2805439114913</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9560,28 +9588,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06771723900302667</v>
+        <v>0.06235427917396762</v>
       </c>
       <c r="J3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" t="n">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003809058368905549</v>
+        <v>0.003246479161498006</v>
       </c>
       <c r="M3" t="n">
-        <v>5.932856239415051</v>
+        <v>5.940029037566457</v>
       </c>
       <c r="N3" t="n">
-        <v>63.31630079152251</v>
+        <v>63.29634675750825</v>
       </c>
       <c r="O3" t="n">
-        <v>7.957154063578416</v>
+        <v>7.955900122393961</v>
       </c>
       <c r="P3" t="n">
-        <v>342.942592594165</v>
+        <v>342.9962151047785</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9619,7 +9647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D299"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16121,6 +16149,28 @@
         </is>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:54+00:00</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>-35.12170653717276,174.01208581683647</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>-35.121590893006825,174.01298484191642</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5793,6 +5793,24 @@
         <v>337.065</v>
       </c>
       <c r="D300" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>349.35</v>
+      </c>
+      <c r="C301" t="n">
+        <v>331.195</v>
+      </c>
+      <c r="D301" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -5809,7 +5827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B352"/>
+  <dimension ref="A1:B353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9337,6 +9355,16 @@
       </c>
       <c r="B352" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -9510,28 +9538,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07287283125152495</v>
+        <v>0.07158657238846143</v>
       </c>
       <c r="J2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004637055880060359</v>
+        <v>0.004509525955199378</v>
       </c>
       <c r="M2" t="n">
-        <v>5.932259765237295</v>
+        <v>5.918224092216501</v>
       </c>
       <c r="N2" t="n">
-        <v>61.12504822358891</v>
+        <v>60.92197002970392</v>
       </c>
       <c r="O2" t="n">
-        <v>7.818250969596007</v>
+        <v>7.805252720425131</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2805439114913</v>
+        <v>349.2933896176508</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9588,28 +9616,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06235427917396762</v>
+        <v>0.05298619036875739</v>
       </c>
       <c r="J3" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K3" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003246479161498006</v>
+        <v>0.002342046064160552</v>
       </c>
       <c r="M3" t="n">
-        <v>5.940029037566457</v>
+        <v>5.967705504337396</v>
       </c>
       <c r="N3" t="n">
-        <v>63.29634675750825</v>
+        <v>63.68608802953925</v>
       </c>
       <c r="O3" t="n">
-        <v>7.955900122393961</v>
+        <v>7.980356384870243</v>
       </c>
       <c r="P3" t="n">
-        <v>342.9962151047785</v>
+        <v>343.0900650449254</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9647,7 +9675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16171,6 +16199,28 @@
         </is>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:07+00:00</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>-35.12171075762092,174.0120875097889</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>-35.12164115904638,174.01300500557124</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5811,6 +5811,38 @@
         <v>331.195</v>
       </c>
       <c r="D301" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="n">
+        <v>337.485</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="n">
+        <v>332.56</v>
+      </c>
+      <c r="D303" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -5827,7 +5859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B353"/>
+  <dimension ref="A1:B355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9365,6 +9397,26 @@
       </c>
       <c r="B353" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -9541,7 +9593,7 @@
         <v>0.07158657238846143</v>
       </c>
       <c r="J2" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K2" t="n">
         <v>285</v>
@@ -9616,28 +9668,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05298619036875739</v>
+        <v>0.03993882221028684</v>
       </c>
       <c r="J3" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002342046064160552</v>
+        <v>0.001339294781179223</v>
       </c>
       <c r="M3" t="n">
-        <v>5.967705504337396</v>
+        <v>5.994795736764122</v>
       </c>
       <c r="N3" t="n">
-        <v>63.68608802953925</v>
+        <v>63.88595803921059</v>
       </c>
       <c r="O3" t="n">
-        <v>7.980356384870243</v>
+        <v>7.992869199430864</v>
       </c>
       <c r="P3" t="n">
-        <v>343.0900650449254</v>
+        <v>343.2214829934608</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9675,7 +9727,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D301"/>
+  <dimension ref="A1:D303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16221,6 +16273,42 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>-35.12158729645869,174.01298339920274</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:25+00:00</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>-35.12162947026584,174.01300031674634</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5845,6 +5845,42 @@
       <c r="D303" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>348.51</v>
+      </c>
+      <c r="C304" t="n">
+        <v>339.55</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>348.0557142857143</v>
+      </c>
+      <c r="C305" t="n">
+        <v>337.89</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B355"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9417,6 +9453,26 @@
       </c>
       <c r="B355" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -9590,28 +9646,28 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07158657238846143</v>
+        <v>0.06751730357749781</v>
       </c>
       <c r="J2" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K2" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004509525955199378</v>
+        <v>0.004073479562054616</v>
       </c>
       <c r="M2" t="n">
-        <v>5.918224092216501</v>
+        <v>5.89786762152499</v>
       </c>
       <c r="N2" t="n">
-        <v>60.92197002970392</v>
+        <v>60.5540831996263</v>
       </c>
       <c r="O2" t="n">
-        <v>7.805252720425131</v>
+        <v>7.781650416179482</v>
       </c>
       <c r="P2" t="n">
-        <v>349.2933896176508</v>
+        <v>349.334428620951</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9668,28 +9724,28 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03993882221028684</v>
+        <v>0.03238019064389995</v>
       </c>
       <c r="J3" t="n">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K3" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001339294781179223</v>
+        <v>0.0008913365031896214</v>
       </c>
       <c r="M3" t="n">
-        <v>5.994795736764122</v>
+        <v>5.993378163172335</v>
       </c>
       <c r="N3" t="n">
-        <v>63.88595803921059</v>
+        <v>63.66345026670654</v>
       </c>
       <c r="O3" t="n">
-        <v>7.992869199430864</v>
+        <v>7.978937915957646</v>
       </c>
       <c r="P3" t="n">
-        <v>343.2214829934608</v>
+        <v>343.2979466821383</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9727,7 +9783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D303"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16309,6 +16365,50 @@
         </is>
       </c>
     </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>-35.12171795073248,174.0120903951691</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>-35.12156961343005,174.01297630586237</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:11:37+00:00</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>-35.12172184088462,174.01209195563007</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>-35.12158382835869,174.01298200801466</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.3314285714285</v>
+        <v>342.33</v>
       </c>
       <c r="C2" t="n">
-        <v>339.245</v>
+        <v>339.25</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.0728571428572</v>
+        <v>356.07</v>
       </c>
       <c r="C4" t="n">
         <v>334.17</v>
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.1714285714286</v>
+        <v>345.17</v>
       </c>
       <c r="C5" t="n">
         <v>343.58</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.8785714285714</v>
+        <v>345.88</v>
       </c>
       <c r="C6" t="n">
-        <v>336.355</v>
+        <v>336.36</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.1428571428572</v>
+        <v>351.14</v>
       </c>
       <c r="C7" t="n">
-        <v>342.275</v>
+        <v>342.27</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.6542857142857</v>
+        <v>363.65</v>
       </c>
       <c r="C8" t="n">
-        <v>354.925</v>
+        <v>354.93</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6214285714286</v>
+        <v>359.62</v>
       </c>
       <c r="C10" t="n">
         <v>356.5</v>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.8557142857143</v>
+        <v>344.86</v>
       </c>
       <c r="C11" t="n">
-        <v>342.445</v>
+        <v>342.44</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>354.2271428571428</v>
+        <v>354.23</v>
       </c>
       <c r="C12" t="n">
-        <v>351.405</v>
+        <v>351.4</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344.4842857142857</v>
+        <v>344.48</v>
       </c>
       <c r="C13" t="n">
         <v>336.94</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.0557142857143</v>
+        <v>335.06</v>
       </c>
       <c r="C14" t="n">
-        <v>322.735</v>
+        <v>322.74</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.7842857142857</v>
+        <v>350.78</v>
       </c>
       <c r="C15" t="n">
         <v>340.45</v>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.9014285714285</v>
+        <v>355.9</v>
       </c>
       <c r="C16" t="n">
-        <v>349.225</v>
+        <v>349.23</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.3442857142857</v>
+        <v>346.34</v>
       </c>
       <c r="C17" t="n">
-        <v>341.195</v>
+        <v>341.19</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>359.8014285714286</v>
+        <v>359.8</v>
       </c>
       <c r="C18" t="n">
         <v>356.06</v>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>354.3528571428571</v>
+        <v>354.35</v>
       </c>
       <c r="C19" t="n">
-        <v>343.685</v>
+        <v>343.69</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.4557142857143</v>
+        <v>347.46</v>
       </c>
       <c r="C20" t="n">
         <v>344.82</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>349.9314285714286</v>
+        <v>349.93</v>
       </c>
       <c r="C21" t="n">
         <v>347.65</v>
@@ -825,7 +825,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>334.3457142857143</v>
+        <v>334.35</v>
       </c>
       <c r="C22" t="n">
         <v>336.53</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340.1071428571428</v>
+        <v>340.11</v>
       </c>
       <c r="C23" t="n">
-        <v>343.885</v>
+        <v>343.88</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>367.4585714285714</v>
+        <v>367.46</v>
       </c>
       <c r="C24" t="n">
-        <v>357.025</v>
+        <v>357.02</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>347.2928571428571</v>
+        <v>347.29</v>
       </c>
       <c r="C25" t="n">
         <v>341.77</v>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>349.0942857142857</v>
+        <v>349.09</v>
       </c>
       <c r="C26" t="n">
-        <v>339.075</v>
+        <v>339.07</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>350.5728571428572</v>
+        <v>350.57</v>
       </c>
       <c r="C27" t="n">
-        <v>351.555</v>
+        <v>351.56</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.2485714285714</v>
+        <v>355.25</v>
       </c>
       <c r="C28" t="n">
         <v>352.07</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>324.3342857142857</v>
+        <v>324.33</v>
       </c>
       <c r="C29" t="n">
-        <v>323.825</v>
+        <v>323.82</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.9228571428571</v>
+        <v>360.92</v>
       </c>
       <c r="C30" t="n">
-        <v>352.675</v>
+        <v>352.68</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>342.0542857142857</v>
+        <v>342.05</v>
       </c>
       <c r="C31" t="n">
         <v>334.68</v>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>349.9614285714285</v>
+        <v>349.96</v>
       </c>
       <c r="C32" t="n">
-        <v>349.065</v>
+        <v>349.06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.5228571428572</v>
+        <v>340.52</v>
       </c>
       <c r="C33" t="n">
-        <v>333.165</v>
+        <v>333.17</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>341.425</v>
+        <v>341.43</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1060,7 +1060,7 @@
         <v>366.15</v>
       </c>
       <c r="C35" t="n">
-        <v>342.945</v>
+        <v>342.94</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>348.5871428571429</v>
+        <v>348.59</v>
       </c>
       <c r="C36" t="n">
-        <v>343.735</v>
+        <v>343.74</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>332.1357142857143</v>
+        <v>332.14</v>
       </c>
       <c r="C37" t="n">
         <v>328.52</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>354.1328571428572</v>
+        <v>354.13</v>
       </c>
       <c r="C38" t="n">
         <v>342.5</v>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>355.7214285714285</v>
+        <v>355.72</v>
       </c>
       <c r="C39" t="n">
-        <v>341.595</v>
+        <v>341.6</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>354.6771428571428</v>
+        <v>354.68</v>
       </c>
       <c r="C40" t="n">
-        <v>346.415</v>
+        <v>346.42</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.3028571428572</v>
+        <v>346.3</v>
       </c>
       <c r="C41" t="n">
         <v>337.72</v>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356.9685714285715</v>
+        <v>356.97</v>
       </c>
       <c r="C42" t="n">
-        <v>351.935</v>
+        <v>351.94</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.0114285714285</v>
+        <v>348.01</v>
       </c>
       <c r="C43" t="n">
         <v>347.76</v>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.1128571428572</v>
+        <v>354.11</v>
       </c>
       <c r="C44" t="n">
         <v>351.24</v>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.5242857142857</v>
+        <v>353.52</v>
       </c>
       <c r="C45" t="n">
-        <v>346.235</v>
+        <v>346.24</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>358.3228571428572</v>
+        <v>358.32</v>
       </c>
       <c r="C46" t="n">
-        <v>354.635</v>
+        <v>354.63</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>355.7957142857143</v>
+        <v>355.8</v>
       </c>
       <c r="C47" t="n">
         <v>350.61</v>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>359.5685714285714</v>
+        <v>359.57</v>
       </c>
       <c r="C48" t="n">
         <v>349.72</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>357.9714285714285</v>
+        <v>357.97</v>
       </c>
       <c r="C49" t="n">
-        <v>353.265</v>
+        <v>353.26</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>349.6271428571428</v>
+        <v>349.63</v>
       </c>
       <c r="C50" t="n">
         <v>339.28</v>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>357.1257142857143</v>
+        <v>357.13</v>
       </c>
       <c r="C51" t="n">
-        <v>350.615</v>
+        <v>350.62</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>344.9985714285714</v>
+        <v>345</v>
       </c>
       <c r="C52" t="n">
-        <v>337.415</v>
+        <v>337.42</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>347.4671428571428</v>
+        <v>347.47</v>
       </c>
       <c r="C53" t="n">
         <v>338.88</v>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>350.3442857142857</v>
+        <v>350.34</v>
       </c>
       <c r="C54" t="n">
         <v>342.67</v>
@@ -1420,7 +1420,7 @@
         <v>349.69</v>
       </c>
       <c r="C55" t="n">
-        <v>349.165</v>
+        <v>349.17</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>353.2642857142857</v>
+        <v>353.26</v>
       </c>
       <c r="C58" t="n">
-        <v>345.065</v>
+        <v>345.06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>361.7757142857143</v>
+        <v>361.78</v>
       </c>
       <c r="C59" t="n">
         <v>349.53</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>351.2628571428572</v>
+        <v>351.26</v>
       </c>
       <c r="C60" t="n">
         <v>351.68</v>
@@ -1523,7 +1523,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>343.5757142857143</v>
+        <v>343.58</v>
       </c>
       <c r="C61" t="n">
         <v>348.13</v>
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>366.2871428571429</v>
+        <v>366.29</v>
       </c>
       <c r="C62" t="n">
         <v>358.74</v>
@@ -1559,7 +1559,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>353.0528571428572</v>
+        <v>353.05</v>
       </c>
       <c r="C63" t="n">
         <v>347.54</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>351.6914285714286</v>
+        <v>351.69</v>
       </c>
       <c r="C64" t="n">
         <v>346.21</v>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>349.9371428571428</v>
+        <v>349.94</v>
       </c>
       <c r="C65" t="n">
-        <v>346.165</v>
+        <v>346.17</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>376.1328571428572</v>
+        <v>376.13</v>
       </c>
       <c r="C66" t="n">
         <v>385.23</v>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>350.9785714285715</v>
+        <v>350.98</v>
       </c>
       <c r="C67" t="n">
-        <v>344.035</v>
+        <v>344.04</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>351.6314285714286</v>
+        <v>351.63</v>
       </c>
       <c r="C68" t="n">
         <v>349.74</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>353.1257142857143</v>
+        <v>353.13</v>
       </c>
       <c r="C69" t="n">
         <v>344.76</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>348.1971428571428</v>
+        <v>348.2</v>
       </c>
       <c r="C70" t="n">
         <v>342.7</v>
@@ -1703,7 +1703,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>338.5385714285715</v>
+        <v>338.54</v>
       </c>
       <c r="C71" t="n">
         <v>335.89</v>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>349.3871428571428</v>
+        <v>349.39</v>
       </c>
       <c r="C72" t="n">
-        <v>339.975</v>
+        <v>339.98</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>357.2057142857143</v>
+        <v>357.21</v>
       </c>
       <c r="C73" t="n">
-        <v>344.345</v>
+        <v>344.35</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>350.9228571428571</v>
+        <v>350.92</v>
       </c>
       <c r="C74" t="n">
-        <v>349.675</v>
+        <v>349.68</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>328.015</v>
+        <v>328.01</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>354.5414285714286</v>
+        <v>354.54</v>
       </c>
       <c r="C76" t="n">
         <v>355.05</v>
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>340.8385714285715</v>
+        <v>340.84</v>
       </c>
       <c r="C77" t="n">
-        <v>333.115</v>
+        <v>333.12</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>367.3985714285715</v>
+        <v>367.4</v>
       </c>
       <c r="C78" t="n">
-        <v>343.815</v>
+        <v>343.81</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>356.2971428571428</v>
+        <v>356.3</v>
       </c>
       <c r="C79" t="n">
-        <v>346.185</v>
+        <v>346.19</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>347.5857142857143</v>
+        <v>347.59</v>
       </c>
       <c r="C80" t="n">
-        <v>342.675</v>
+        <v>342.68</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>345.4128571428571</v>
+        <v>345.41</v>
       </c>
       <c r="C81" t="n">
-        <v>335.995</v>
+        <v>336</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>350.4642857142857</v>
+        <v>350.46</v>
       </c>
       <c r="C82" t="n">
-        <v>338.515</v>
+        <v>338.51</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>336.1257142857143</v>
+        <v>336.13</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>346.6985714285714</v>
+        <v>346.7</v>
       </c>
       <c r="C85" t="n">
         <v>341.94</v>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>352.5142857142857</v>
+        <v>352.51</v>
       </c>
       <c r="C87" t="n">
         <v>336.28</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>349.8271428571429</v>
+        <v>349.83</v>
       </c>
       <c r="C88" t="n">
         <v>343.09</v>
@@ -2023,7 +2023,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>348.6657142857143</v>
+        <v>348.67</v>
       </c>
       <c r="C89" t="n">
         <v>336.8</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>347.0014285714286</v>
+        <v>347</v>
       </c>
       <c r="C91" t="n">
-        <v>338.695</v>
+        <v>338.69</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>342.8142857142857</v>
+        <v>342.81</v>
       </c>
       <c r="C92" t="n">
-        <v>341.375</v>
+        <v>341.38</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>354.1285714285714</v>
+        <v>354.13</v>
       </c>
       <c r="C93" t="n">
-        <v>347.285</v>
+        <v>347.29</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>355.4742857142857</v>
+        <v>355.47</v>
       </c>
       <c r="C94" t="n">
-        <v>368.465</v>
+        <v>368.46</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2145,7 +2145,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>351.1814285714286</v>
+        <v>351.18</v>
       </c>
       <c r="C96" t="n">
         <v>332.04</v>
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>339.4214285714286</v>
+        <v>339.42</v>
       </c>
       <c r="C97" t="n">
         <v>333.05</v>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>352.9057142857143</v>
+        <v>352.91</v>
       </c>
       <c r="C98" t="n">
         <v>345.3</v>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>359.9757142857143</v>
+        <v>359.98</v>
       </c>
       <c r="C99" t="n">
-        <v>355.095</v>
+        <v>355.1</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>339.6842857142857</v>
+        <v>339.68</v>
       </c>
       <c r="C101" t="n">
-        <v>340.685</v>
+        <v>340.69</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>333.9471428571428</v>
+        <v>333.95</v>
       </c>
       <c r="C102" t="n">
         <v>339.03</v>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>348.2871428571428</v>
+        <v>348.29</v>
       </c>
       <c r="C103" t="n">
-        <v>345.295</v>
+        <v>345.3</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>349.2571428571428</v>
+        <v>349.26</v>
       </c>
       <c r="C104" t="n">
-        <v>349.095</v>
+        <v>349.1</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>352.9742857142857</v>
+        <v>352.97</v>
       </c>
       <c r="C105" t="n">
         <v>346.98</v>
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>350.4142857142857</v>
+        <v>350.41</v>
       </c>
       <c r="C106" t="n">
         <v>341.03</v>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>342.5142857142857</v>
+        <v>342.51</v>
       </c>
       <c r="C107" t="n">
-        <v>339.625</v>
+        <v>339.62</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>344.7885714285715</v>
+        <v>344.79</v>
       </c>
       <c r="C108" t="n">
         <v>343.69</v>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>328.9057142857143</v>
+        <v>328.91</v>
       </c>
       <c r="C109" t="n">
-        <v>323.225</v>
+        <v>323.23</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>360.2914285714286</v>
+        <v>360.29</v>
       </c>
       <c r="C110" t="n">
-        <v>354.595</v>
+        <v>354.6</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>345.9442857142857</v>
+        <v>345.94</v>
       </c>
       <c r="C111" t="n">
-        <v>339.235</v>
+        <v>339.24</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>349.7185714285715</v>
+        <v>349.72</v>
       </c>
       <c r="C112" t="n">
         <v>345.21</v>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>349.5242857142857</v>
+        <v>349.52</v>
       </c>
       <c r="C113" t="n">
         <v>342.71</v>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>355.9885714285714</v>
+        <v>355.99</v>
       </c>
       <c r="C114" t="n">
         <v>347.43</v>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>352.7128571428572</v>
+        <v>352.71</v>
       </c>
       <c r="C115" t="n">
         <v>337.11</v>
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>347.2785714285715</v>
+        <v>347.28</v>
       </c>
       <c r="C116" t="n">
         <v>337.06</v>
@@ -2523,7 +2523,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>350.5171428571429</v>
+        <v>350.52</v>
       </c>
       <c r="C117" t="n">
         <v>344.53</v>
@@ -2541,7 +2541,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>339.1785714285714</v>
+        <v>339.18</v>
       </c>
       <c r="C118" t="n">
         <v>339.07</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>336.1057142857143</v>
+        <v>336.11</v>
       </c>
       <c r="C119" t="n">
         <v>336.78</v>
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>350.4785714285715</v>
+        <v>350.48</v>
       </c>
       <c r="C120" t="n">
-        <v>342.735</v>
+        <v>342.74</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>355.7471428571428</v>
+        <v>355.75</v>
       </c>
       <c r="C122" t="n">
-        <v>348.665</v>
+        <v>348.67</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>358.5585714285714</v>
+        <v>358.56</v>
       </c>
       <c r="C123" t="n">
-        <v>350.455</v>
+        <v>350.45</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>345.5371428571428</v>
+        <v>345.54</v>
       </c>
       <c r="C124" t="n">
         <v>344.78</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>345.4928571428572</v>
+        <v>345.49</v>
       </c>
       <c r="C125" t="n">
         <v>344.96</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>357.0585714285714</v>
+        <v>357.06</v>
       </c>
       <c r="C127" t="n">
-        <v>343.665</v>
+        <v>343.67</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>342.3357142857143</v>
+        <v>342.34</v>
       </c>
       <c r="C128" t="n">
-        <v>340.035</v>
+        <v>340.04</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>344.5928571428572</v>
+        <v>344.59</v>
       </c>
       <c r="C129" t="n">
         <v>339.56</v>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>353.9614285714285</v>
+        <v>353.96</v>
       </c>
       <c r="C130" t="n">
         <v>373.11</v>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>369.8028571428572</v>
+        <v>369.8</v>
       </c>
       <c r="C131" t="n">
-        <v>345.275</v>
+        <v>345.27</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>333.8985714285715</v>
+        <v>333.9</v>
       </c>
       <c r="C133" t="n">
         <v>331.71</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>336.4928571428572</v>
+        <v>336.49</v>
       </c>
       <c r="C134" t="n">
         <v>330.96</v>
@@ -2848,7 +2848,7 @@
         <v>341.72</v>
       </c>
       <c r="C135" t="n">
-        <v>327.635</v>
+        <v>327.63</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         <v>343</v>
       </c>
       <c r="C136" t="n">
-        <v>333.815</v>
+        <v>333.81</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>342.3342857142857</v>
+        <v>342.33</v>
       </c>
       <c r="C137" t="n">
-        <v>339.865</v>
+        <v>339.87</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>348.4171428571428</v>
+        <v>348.42</v>
       </c>
       <c r="C138" t="n">
-        <v>346.845</v>
+        <v>346.85</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>361.5257142857143</v>
+        <v>361.53</v>
       </c>
       <c r="C139" t="n">
-        <v>354.875</v>
+        <v>354.88</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>349.5585714285714</v>
+        <v>349.56</v>
       </c>
       <c r="C140" t="n">
         <v>342.32</v>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>335.8928571428572</v>
+        <v>335.89</v>
       </c>
       <c r="C141" t="n">
         <v>322.14</v>
@@ -2989,7 +2989,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>342.5757142857143</v>
+        <v>342.58</v>
       </c>
       <c r="C143" t="n">
         <v>337.52</v>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>341.0957142857143</v>
+        <v>341.1</v>
       </c>
       <c r="C144" t="n">
         <v>334.2</v>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>352.6428571428572</v>
+        <v>352.64</v>
       </c>
       <c r="C145" t="n">
-        <v>342.205</v>
+        <v>342.2</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>349.2671428571429</v>
+        <v>349.27</v>
       </c>
       <c r="C146" t="n">
-        <v>337.295</v>
+        <v>337.3</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
         <v>351.8</v>
       </c>
       <c r="C147" t="n">
-        <v>337.985</v>
+        <v>337.99</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>350.3685714285714</v>
+        <v>350.37</v>
       </c>
       <c r="C148" t="n">
-        <v>344.965</v>
+        <v>344.96</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>353.2542857142857</v>
+        <v>353.25</v>
       </c>
       <c r="C149" t="n">
         <v>335.9</v>
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>347.0628571428572</v>
+        <v>347.06</v>
       </c>
       <c r="C151" t="n">
-        <v>341.695</v>
+        <v>341.69</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>346.5314285714285</v>
+        <v>346.53</v>
       </c>
       <c r="C152" t="n">
         <v>343.82</v>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>357.7142857142857</v>
+        <v>357.71</v>
       </c>
       <c r="C153" t="n">
-        <v>352.085</v>
+        <v>352.08</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3185,7 +3185,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>340.8814285714286</v>
+        <v>340.88</v>
       </c>
       <c r="C154" t="n">
         <v>334.08</v>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>352.8442857142857</v>
+        <v>352.84</v>
       </c>
       <c r="C155" t="n">
-        <v>346.245</v>
+        <v>346.25</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>345.1685714285715</v>
+        <v>345.17</v>
       </c>
       <c r="C156" t="n">
         <v>342.32</v>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>350.2257142857143</v>
+        <v>350.23</v>
       </c>
       <c r="C157" t="n">
-        <v>337.835</v>
+        <v>337.83</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>346.7228571428572</v>
+        <v>346.72</v>
       </c>
       <c r="C158" t="n">
-        <v>337.725</v>
+        <v>337.73</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>352.2057142857143</v>
+        <v>352.21</v>
       </c>
       <c r="C159" t="n">
-        <v>353.385</v>
+        <v>353.38</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>352.7542857142857</v>
+        <v>352.75</v>
       </c>
       <c r="C160" t="n">
-        <v>345.125</v>
+        <v>345.12</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>334.0042857142857</v>
+        <v>334</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>339.0671428571428</v>
+        <v>339.07</v>
       </c>
       <c r="C162" t="n">
-        <v>340.975</v>
+        <v>340.98</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>354.5385714285715</v>
+        <v>354.54</v>
       </c>
       <c r="C163" t="n">
-        <v>348.315</v>
+        <v>348.31</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>339.775</v>
+        <v>339.77</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>333.0257142857143</v>
+        <v>333.03</v>
       </c>
       <c r="C166" t="n">
         <v>334.24</v>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>354.5914285714285</v>
+        <v>354.59</v>
       </c>
       <c r="C168" t="n">
-        <v>340.285</v>
+        <v>340.29</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>342.3685714285714</v>
+        <v>342.37</v>
       </c>
       <c r="C169" t="n">
-        <v>351.435</v>
+        <v>351.44</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>361.6142857142857</v>
+        <v>361.61</v>
       </c>
       <c r="C170" t="n">
         <v>348.21</v>
@@ -3487,7 +3487,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>353.8414285714285</v>
+        <v>353.84</v>
       </c>
       <c r="C171" t="n">
         <v>353.62</v>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>352.7414285714286</v>
+        <v>352.74</v>
       </c>
       <c r="C172" t="n">
         <v>351.45</v>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>341.3171428571428</v>
+        <v>341.32</v>
       </c>
       <c r="C173" t="n">
-        <v>336.445</v>
+        <v>336.44</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>342.7214285714285</v>
+        <v>342.72</v>
       </c>
       <c r="C174" t="n">
         <v>343.37</v>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>344.8185714285714</v>
+        <v>344.82</v>
       </c>
       <c r="C175" t="n">
-        <v>345.245</v>
+        <v>345.25</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>355.5071428571428</v>
+        <v>355.51</v>
       </c>
       <c r="C176" t="n">
-        <v>348.265</v>
+        <v>348.26</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>356.5657142857143</v>
+        <v>356.57</v>
       </c>
       <c r="C178" t="n">
-        <v>348.095</v>
+        <v>348.1</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>352.5057142857143</v>
+        <v>352.51</v>
       </c>
       <c r="C180" t="n">
-        <v>340.665</v>
+        <v>340.67</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3668,7 +3668,7 @@
         <v>352.31</v>
       </c>
       <c r="C181" t="n">
-        <v>345.505</v>
+        <v>345.5</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>346.56</v>
       </c>
       <c r="C182" t="n">
-        <v>348.635</v>
+        <v>348.63</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>344.5114285714285</v>
+        <v>344.51</v>
       </c>
       <c r="C183" t="n">
-        <v>333.985</v>
+        <v>333.99</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>348.8114285714286</v>
+        <v>348.81</v>
       </c>
       <c r="C184" t="n">
-        <v>338.955</v>
+        <v>338.95</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>352.6471428571429</v>
+        <v>352.65</v>
       </c>
       <c r="C185" t="n">
         <v>334.54</v>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>350.1214285714286</v>
+        <v>350.12</v>
       </c>
       <c r="C186" t="n">
-        <v>340.955</v>
+        <v>340.95</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>353.6414285714285</v>
+        <v>353.64</v>
       </c>
       <c r="C187" t="n">
         <v>343.27</v>
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>348.5014285714286</v>
+        <v>348.5</v>
       </c>
       <c r="C188" t="n">
-        <v>347.125</v>
+        <v>347.12</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>327.6771428571428</v>
+        <v>327.68</v>
       </c>
       <c r="C189" t="n">
         <v>328.04</v>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>343.9757142857143</v>
+        <v>343.98</v>
       </c>
       <c r="C190" t="n">
         <v>327.77</v>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>350.4871428571428</v>
+        <v>350.49</v>
       </c>
       <c r="C191" t="n">
-        <v>342.205</v>
+        <v>342.2</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>348.4871428571428</v>
+        <v>348.49</v>
       </c>
       <c r="C193" t="n">
-        <v>349.435</v>
+        <v>349.44</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>345.2171428571428</v>
+        <v>345.22</v>
       </c>
       <c r="C194" t="n">
-        <v>334.455</v>
+        <v>334.45</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>353.9285714285714</v>
+        <v>353.93</v>
       </c>
       <c r="C195" t="n">
-        <v>344.705</v>
+        <v>344.7</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3935,10 +3935,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>350.8257142857143</v>
+        <v>350.83</v>
       </c>
       <c r="C196" t="n">
-        <v>337.655</v>
+        <v>337.65</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>354.6842857142857</v>
+        <v>354.68</v>
       </c>
       <c r="C198" t="n">
-        <v>347.645</v>
+        <v>347.64</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>351.4057142857143</v>
+        <v>351.41</v>
       </c>
       <c r="C199" t="n">
-        <v>349.005</v>
+        <v>349</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>356.4042857142857</v>
+        <v>356.4</v>
       </c>
       <c r="C200" t="n">
         <v>347.11</v>
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>357.9342857142857</v>
+        <v>357.93</v>
       </c>
       <c r="C201" t="n">
-        <v>346.955</v>
+        <v>346.95</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>372.1414285714285</v>
+        <v>372.14</v>
       </c>
       <c r="C202" t="n">
-        <v>365.205</v>
+        <v>365.2</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>348.8671428571428</v>
+        <v>348.87</v>
       </c>
       <c r="C203" t="n">
-        <v>343.645</v>
+        <v>343.64</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>368.8657142857143</v>
+        <v>368.87</v>
       </c>
       <c r="C204" t="n">
-        <v>357.375</v>
+        <v>357.38</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>338.475</v>
+        <v>338.48</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>351.0528571428572</v>
+        <v>351.05</v>
       </c>
       <c r="C206" t="n">
-        <v>347.485</v>
+        <v>347.49</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>333.2228571428572</v>
+        <v>333.22</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
@@ -4147,7 +4147,7 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>351.1671428571428</v>
+        <v>351.17</v>
       </c>
       <c r="C208" t="n">
         <v>344.46</v>
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>347.4885714285714</v>
+        <v>347.49</v>
       </c>
       <c r="C209" t="n">
         <v>342.39</v>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>349.1742857142857</v>
+        <v>349.17</v>
       </c>
       <c r="C210" t="n">
         <v>344.13</v>
@@ -4201,7 +4201,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>361.7914285714286</v>
+        <v>361.79</v>
       </c>
       <c r="C211" t="n">
         <v>350.8</v>
@@ -4219,7 +4219,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>350.9014285714285</v>
+        <v>350.9</v>
       </c>
       <c r="C212" t="n">
         <v>351.05</v>
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>357.1757142857143</v>
+        <v>357.18</v>
       </c>
       <c r="C213" t="n">
-        <v>346.745</v>
+        <v>346.75</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>365.6342857142857</v>
+        <v>365.63</v>
       </c>
       <c r="C214" t="n">
         <v>359.33</v>
@@ -4273,7 +4273,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>359.8028571428572</v>
+        <v>359.8</v>
       </c>
       <c r="C215" t="n">
         <v>360.47</v>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>348.485</v>
+        <v>348.49</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4323,7 +4323,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>352.9028571428572</v>
+        <v>352.9</v>
       </c>
       <c r="C218" t="n">
         <v>345.53</v>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>360.0671428571428</v>
+        <v>360.07</v>
       </c>
       <c r="C220" t="n">
         <v>350.88</v>
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>345.7614285714285</v>
+        <v>345.76</v>
       </c>
       <c r="C221" t="n">
-        <v>345.515</v>
+        <v>345.51</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4395,7 +4395,7 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>361.1728571428571</v>
+        <v>361.17</v>
       </c>
       <c r="C222" t="n">
         <v>355.19</v>
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>366.1214285714286</v>
+        <v>366.12</v>
       </c>
       <c r="C223" t="n">
-        <v>346.905</v>
+        <v>346.9</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>357.8557142857143</v>
+        <v>357.86</v>
       </c>
       <c r="C224" t="n">
-        <v>347.435</v>
+        <v>347.44</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4449,10 +4449,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>342.5385714285715</v>
+        <v>342.54</v>
       </c>
       <c r="C225" t="n">
-        <v>341.075</v>
+        <v>341.07</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4467,10 +4467,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>349.1014285714285</v>
+        <v>349.1</v>
       </c>
       <c r="C226" t="n">
-        <v>340.935</v>
+        <v>340.94</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4485,7 +4485,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>342.8557142857143</v>
+        <v>342.86</v>
       </c>
       <c r="C227" t="n">
         <v>342.11</v>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>346.9528571428572</v>
+        <v>346.95</v>
       </c>
       <c r="C228" t="n">
-        <v>337.135</v>
+        <v>337.13</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>350.0128571428572</v>
+        <v>350.01</v>
       </c>
       <c r="C229" t="n">
-        <v>345.535</v>
+        <v>345.54</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4539,10 +4539,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>356.3628571428572</v>
+        <v>356.36</v>
       </c>
       <c r="C230" t="n">
-        <v>350.455</v>
+        <v>350.45</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>355.0957142857143</v>
+        <v>355.1</v>
       </c>
       <c r="C231" t="n">
         <v>350.97</v>
@@ -4578,7 +4578,7 @@
         <v>350.95</v>
       </c>
       <c r="C232" t="n">
-        <v>346.595</v>
+        <v>346.6</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>347.5385714285715</v>
+        <v>347.54</v>
       </c>
       <c r="C233" t="n">
         <v>339.81</v>
@@ -4611,7 +4611,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>355.5842857142857</v>
+        <v>355.58</v>
       </c>
       <c r="C234" t="n">
         <v>346.57</v>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>361.8471428571429</v>
+        <v>361.85</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>337.4985714285714</v>
+        <v>337.5</v>
       </c>
       <c r="C236" t="n">
         <v>336.57</v>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>351.6942857142857</v>
+        <v>351.69</v>
       </c>
       <c r="C237" t="n">
-        <v>343.065</v>
+        <v>343.06</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>351.6042857142857</v>
+        <v>351.6</v>
       </c>
       <c r="C238" t="n">
-        <v>336.705</v>
+        <v>336.7</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4715,7 +4715,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>354.9242857142857</v>
+        <v>354.92</v>
       </c>
       <c r="C240" t="n">
         <v>352.3</v>
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>355.5142857142857</v>
+        <v>355.51</v>
       </c>
       <c r="C241" t="n">
         <v>352.53</v>
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>351.0485714285714</v>
+        <v>351.05</v>
       </c>
       <c r="C242" t="n">
         <v>343.34</v>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>361.1457142857143</v>
+        <v>361.15</v>
       </c>
       <c r="C244" t="n">
-        <v>356.215</v>
+        <v>356.21</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>348.2114285714285</v>
+        <v>348.21</v>
       </c>
       <c r="C245" t="n">
-        <v>344.455</v>
+        <v>344.45</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>352.0271428571428</v>
+        <v>352.03</v>
       </c>
       <c r="C246" t="n">
         <v>349.21</v>
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>347.8228571428572</v>
+        <v>347.82</v>
       </c>
       <c r="C248" t="n">
         <v>342.23</v>
@@ -4877,7 +4877,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>355.8085714285714</v>
+        <v>355.81</v>
       </c>
       <c r="C249" t="n">
         <v>350.93</v>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>354.7528571428572</v>
+        <v>354.75</v>
       </c>
       <c r="C250" t="n">
-        <v>343.485</v>
+        <v>343.49</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>348.8542857142857</v>
+        <v>348.85</v>
       </c>
       <c r="C251" t="n">
         <v>344.55</v>
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>355.0928571428572</v>
+        <v>355.09</v>
       </c>
       <c r="C252" t="n">
-        <v>345.335</v>
+        <v>345.33</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4949,7 +4949,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>352.1628571428571</v>
+        <v>352.16</v>
       </c>
       <c r="C253" t="n">
         <v>342.94</v>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>343.5314285714285</v>
+        <v>343.53</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
@@ -5004,7 +5004,7 @@
         <v>350.09</v>
       </c>
       <c r="C256" t="n">
-        <v>343.615</v>
+        <v>343.62</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5022,7 +5022,7 @@
         <v>346.44</v>
       </c>
       <c r="C257" t="n">
-        <v>342.435</v>
+        <v>342.44</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5037,10 +5037,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>347.2014285714285</v>
+        <v>347.2</v>
       </c>
       <c r="C258" t="n">
-        <v>344.545</v>
+        <v>344.55</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5055,10 +5055,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>339.0957142857143</v>
+        <v>339.1</v>
       </c>
       <c r="C259" t="n">
-        <v>332.835</v>
+        <v>332.83</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>348.5428571428571</v>
+        <v>348.54</v>
       </c>
       <c r="C260" t="n">
-        <v>346.965</v>
+        <v>346.96</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>346.3514285714285</v>
+        <v>346.35</v>
       </c>
       <c r="C262" t="n">
         <v>345.56</v>
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>355.1971428571428</v>
+        <v>355.2</v>
       </c>
       <c r="C263" t="n">
-        <v>345.005</v>
+        <v>345</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>345.9185714285715</v>
+        <v>345.92</v>
       </c>
       <c r="C264" t="n">
         <v>337.84</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
-        <v>342.905</v>
+        <v>342.9</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>344.8571428571428</v>
+        <v>344.86</v>
       </c>
       <c r="C267" t="n">
-        <v>337.325</v>
+        <v>337.32</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5218,7 +5218,7 @@
         <v>339.33</v>
       </c>
       <c r="C268" t="n">
-        <v>336.875</v>
+        <v>336.88</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>352.1842857142857</v>
+        <v>352.18</v>
       </c>
       <c r="C269" t="n">
-        <v>343.785</v>
+        <v>343.79</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5251,7 +5251,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>346.1542857142857</v>
+        <v>346.15</v>
       </c>
       <c r="C270" t="n">
         <v>334.14</v>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
-        <v>340.735</v>
+        <v>340.74</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>351.4885714285714</v>
+        <v>351.49</v>
       </c>
       <c r="C273" t="n">
-        <v>339.665</v>
+        <v>339.67</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>337.7971428571428</v>
+        <v>337.8</v>
       </c>
       <c r="C274" t="n">
-        <v>337.345</v>
+        <v>337.35</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>350.8671428571428</v>
+        <v>350.87</v>
       </c>
       <c r="C275" t="n">
         <v>344.31</v>
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>359.0814285714285</v>
+        <v>359.08</v>
       </c>
       <c r="C277" t="n">
         <v>351.88</v>
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>354.5685714285714</v>
+        <v>354.57</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>340.4428571428572</v>
+        <v>340.44</v>
       </c>
       <c r="C279" t="n">
-        <v>338.485</v>
+        <v>338.49</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5445,7 +5445,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>360.9742857142857</v>
+        <v>360.97</v>
       </c>
       <c r="C281" t="n">
         <v>350.31</v>
@@ -5463,7 +5463,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>355.0328571428572</v>
+        <v>355.03</v>
       </c>
       <c r="C282" t="n">
         <v>344.99</v>
@@ -5481,7 +5481,7 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>363.8442857142857</v>
+        <v>363.84</v>
       </c>
       <c r="C283" t="n">
         <v>352.49</v>
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>356.3542857142857</v>
+        <v>356.35</v>
       </c>
       <c r="C284" t="n">
-        <v>352.055</v>
+        <v>352.06</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>351.5057142857143</v>
+        <v>351.51</v>
       </c>
       <c r="C285" t="n">
-        <v>346.645</v>
+        <v>346.64</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>347.1814285714286</v>
+        <v>347.18</v>
       </c>
       <c r="C286" t="n">
         <v>348.89</v>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>352.9542857142857</v>
+        <v>352.95</v>
       </c>
       <c r="C287" t="n">
-        <v>348.665</v>
+        <v>348.67</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>360.5342857142857</v>
+        <v>360.53</v>
       </c>
       <c r="C288" t="n">
         <v>356.07</v>
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>369.1571428571429</v>
+        <v>369.16</v>
       </c>
       <c r="C289" t="n">
-        <v>360.455</v>
+        <v>360.45</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>355.9</v>
       </c>
       <c r="C290" t="n">
-        <v>346.575</v>
+        <v>346.57</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>356.8428571428572</v>
+        <v>356.84</v>
       </c>
       <c r="C291" t="n">
         <v>348.81</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>358.3857142857143</v>
+        <v>358.39</v>
       </c>
       <c r="C293" t="n">
         <v>353.46</v>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>352.7285714285715</v>
+        <v>352.73</v>
       </c>
       <c r="C294" t="n">
-        <v>349.855</v>
+        <v>349.86</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>356.3314285714285</v>
+        <v>356.33</v>
       </c>
       <c r="C295" t="n">
         <v>352.34</v>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>336.8642857142857</v>
+        <v>336.86</v>
       </c>
       <c r="C296" t="n">
         <v>333.24</v>
@@ -5733,10 +5733,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>336.9771428571428</v>
+        <v>336.98</v>
       </c>
       <c r="C297" t="n">
-        <v>325.755</v>
+        <v>325.75</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5751,7 +5751,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>349.4285714285714</v>
+        <v>349.43</v>
       </c>
       <c r="C298" t="n">
         <v>342.6</v>
@@ -5769,10 +5769,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>354.3642857142857</v>
+        <v>354.36</v>
       </c>
       <c r="C299" t="n">
-        <v>343.265</v>
+        <v>343.26</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>349.8428571428572</v>
+        <v>349.84</v>
       </c>
       <c r="C300" t="n">
-        <v>337.065</v>
+        <v>337.06</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>349.35</v>
       </c>
       <c r="C301" t="n">
-        <v>331.195</v>
+        <v>331.19</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
-        <v>337.485</v>
+        <v>337.49</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5873,7 +5873,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>348.0557142857143</v>
+        <v>348.06</v>
       </c>
       <c r="C305" t="n">
         <v>337.89</v>
@@ -9646,7 +9646,7 @@
         <v>0.0818</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06751730357749781</v>
+        <v>0.06750971270200153</v>
       </c>
       <c r="J2" t="n">
         <v>304</v>
@@ -9655,19 +9655,19 @@
         <v>287</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004073479562054616</v>
+        <v>0.004072909818273573</v>
       </c>
       <c r="M2" t="n">
-        <v>5.89786762152499</v>
+        <v>5.897444647873202</v>
       </c>
       <c r="N2" t="n">
-        <v>60.5540831996263</v>
+        <v>60.54897135725479</v>
       </c>
       <c r="O2" t="n">
-        <v>7.781650416179482</v>
+        <v>7.781321954350353</v>
       </c>
       <c r="P2" t="n">
-        <v>349.334428620951</v>
+        <v>349.3343932186791</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9724,7 +9724,7 @@
         <v>0.09039999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03238019064389995</v>
+        <v>0.03232991210903446</v>
       </c>
       <c r="J3" t="n">
         <v>304</v>
@@ -9733,19 +9733,19 @@
         <v>298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008913365031896214</v>
+        <v>0.0008885713537658546</v>
       </c>
       <c r="M3" t="n">
-        <v>5.993378163172335</v>
+        <v>5.993388966328167</v>
       </c>
       <c r="N3" t="n">
-        <v>63.66345026670654</v>
+        <v>63.66357217559987</v>
       </c>
       <c r="O3" t="n">
-        <v>7.978937915957646</v>
+        <v>7.978945555372581</v>
       </c>
       <c r="P3" t="n">
-        <v>343.2979466821383</v>
+        <v>343.2988369247517</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9821,12 +9821,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-35.12177085924605,174.0121116184324</t>
+          <t>-35.12177087147922,174.01211162333956</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-35.12157222520913,174.01297735354683</t>
+          <t>-35.121572182393095,174.01297733637168</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.121653188258925,174.0120644169518</t>
+          <t>-35.12165321272529,174.01206442676602</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -9887,7 +9887,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.12174653968015,174.01210186308847</t>
+          <t>-35.12174655191334,174.0121018679956</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -9909,12 +9909,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.12174048425489,174.0120994340676</t>
+          <t>-35.1217404720217,174.01209942916051</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.121596972885776,174.01298728078984</t>
+          <t>-35.12159693006972,174.01298726361466</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9931,12 +9931,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.121695404976045,174.0120813513686</t>
+          <t>-35.12169542944241,174.01208136118282</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.12154627868203,174.01296694540594</t>
+          <t>-35.12154632149808,174.0129669625811</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9953,12 +9953,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.12158826674701,174.01203837498454</t>
+          <t>-35.12158830344657,174.01203838970585</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.12143795406009,174.01292349234987</t>
+          <t>-35.12143791124403,174.01292347517477</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9997,7 +9997,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.12162280102867,174.01205222771594</t>
+          <t>-35.12162281326185,174.01205223262303</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -10019,12 +10019,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.121749243213436,174.0121029475605</t>
+          <t>-35.121749206513876,174.01210293283916</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.12154482293626,174.01296636145105</t>
+          <t>-35.1215448657523,174.0129663786262</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10041,12 +10041,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.12166899353269,174.0120707569284</t>
+          <t>-35.121668969066306,174.0120707471142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.12146809656554,174.01293558362315</t>
+          <t>-35.1214681393816,174.01293560079827</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10063,7 +10063,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.1217524238408,174.01210422341006</t>
+          <t>-35.12175246054034,174.01210423813143</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -10085,12 +10085,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.12183316283769,174.0121366103946</t>
+          <t>-35.12183312613815,174.01213659567324</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.121713603791065,174.01303406601124</t>
+          <t>-35.12171356097503,174.01303404883603</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10107,7 +10107,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.12169847550505,174.01208258305246</t>
+          <t>-35.121698512204595,174.0120825977738</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10129,12 +10129,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.121654656241034,174.012065005804</t>
+          <t>-35.121654668474214,174.01206501071113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.12148676436645,174.01294307197313</t>
+          <t>-35.1214867215504,174.01294305479803</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10151,12 +10151,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.121736496237425,174.01209783434908</t>
+          <t>-35.121736532936964,174.01209784907041</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.121555526949244,174.01297065523758</t>
+          <t>-35.12155556976529,174.01297067241273</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.12162125964739,174.0120516094216</t>
+          <t>-35.12162127188057,174.01205161432873</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10195,12 +10195,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.121667917012495,174.01207032510328</t>
+          <t>-35.12166794147886,174.0120703349175</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.12153420455516,174.012962102016</t>
+          <t>-35.12153416173911,174.01296208484084</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.121726978821364,174.01209401661643</t>
+          <t>-35.12172694212182,174.0120940018951</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.121705778715416,174.01208551259577</t>
+          <t>-35.121705790948596,174.01208551750287</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.12183924272837,174.01213904923537</t>
+          <t>-35.12183920602884,174.01213903451398</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10283,12 +10283,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.12178990630978,174.01211925881412</t>
+          <t>-35.12178988184343,174.01211924899988</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.12153249191304,174.0129614150104</t>
+          <t>-35.1215325347291,174.01296143218556</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10305,12 +10305,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.12155568977319,174.0120253073995</t>
+          <t>-35.12155567753998,174.01202530249245</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.121419971314644,174.0129162788105</t>
+          <t>-35.121420014130706,174.01291629598558</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.1217283734042,174.01209457602707</t>
+          <t>-35.121728397870555,174.0120945858413</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -10349,12 +10349,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-35.121712947360656,174.01208838816137</t>
+          <t>-35.12171298406022,174.0120884028827</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.12157368095485,174.01297793750214</t>
+          <t>-35.121573723770894,174.0129779546773</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10371,12 +10371,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.12170028601617,174.01208330930436</t>
+          <t>-35.12170031048253,174.01208331911857</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.1214668120838,174.01293506836984</t>
+          <t>-35.12146676926775,174.01293505119475</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10393,7 +10393,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.12166024680615,174.01206724834972</t>
+          <t>-35.12166023457298,174.0120672434426</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -10415,12 +10415,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.121924972850564,174.0121734384016</t>
+          <t>-35.121925009550104,174.01217345312298</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.12170426989418,174.01303032181445</t>
+          <t>-35.121704312710236,174.0130303389897</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10437,12 +10437,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.12161165659721,174.01204775735036</t>
+          <t>-35.1216116810636,174.01204776716457</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.12145722128675,174.01293122114564</t>
+          <t>-35.12145717847069,174.01293120397054</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10459,7 +10459,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.12177323248329,174.012112570413</t>
+          <t>-35.121773269182846,174.01211258513433</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -10481,12 +10481,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.121705521818555,174.0120854095465</t>
+          <t>-35.12170553405174,174.0120854144536</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.121488134480245,174.01294362157694</t>
+          <t>-35.12148817729631,174.01294363875206</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10503,12 +10503,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.12178634645399,174.0121178308427</t>
+          <t>-35.12178637092035,174.0121178406569</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.121624289524206,174.01299823854964</t>
+          <t>-35.121624246708144,174.0129982213745</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10526,7 +10526,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.12155355741086,174.01296986518076</t>
+          <t>-35.121553514594815,174.0129698480056</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.121540541330994,174.01296464393678</t>
+          <t>-35.12154058414705,174.0129646611119</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10565,12 +10565,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.121717290140595,174.01209013018521</t>
+          <t>-35.121717265674235,174.01209012037097</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.121533776394635,174.01296193026457</t>
+          <t>-35.12153373357859,174.01296191308947</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10587,7 +10587,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.121858167458164,174.01214664055894</t>
+          <t>-35.12185813075863,174.01214662583754</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.12166980092282,174.01207108079726</t>
+          <t>-35.12166982538918,174.01207109061144</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10631,12 +10631,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.12165619762222,174.01206562409885</t>
+          <t>-35.12165620985542,174.01206562900597</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.12155210166511,174.01296928122576</t>
+          <t>-35.121552058849055,174.0129692640506</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10653,12 +10653,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.121665140079756,174.01206921119083</t>
+          <t>-35.12166511561339,174.01206920137665</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.12151082698971,174.01295272439276</t>
+          <t>-35.12151078417365,174.01295270721764</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10675,7 +10675,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.12173685099971,174.0120979766553</t>
+          <t>-35.12173687546608,174.01209798646954</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10697,12 +10697,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.121645518052404,174.01206134019938</t>
+          <t>-35.121645505819224,174.01206133529226</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.12146355806339,174.01293376306154</t>
+          <t>-35.12146351524732,174.01293374588641</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.12172222011328,174.01209210775048</t>
+          <t>-35.121722232346464,174.01209211265757</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.12166997218738,174.0120711494967</t>
+          <t>-35.12166999665375,174.01207115931092</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.1216750122591,174.01207317122356</t>
+          <t>-35.12167504895865,174.01207318594487</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.12151236836769,174.01295334269741</t>
+          <t>-35.12151232555163,174.0129533255223</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10785,12 +10785,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.12163392099354,174.0120566882686</t>
+          <t>-35.12163394545992,174.01205669808277</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.12144043739156,174.01292448850555</t>
+          <t>-35.12144048020762,174.01292450568064</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10807,7 +10807,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.12165556149667,174.01206536892954</t>
+          <t>-35.12165552479711,174.01206535420826</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.1216232536565,174.01205240927857</t>
+          <t>-35.12162324142333,174.01205240437147</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10851,12 +10851,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.12163693035695,174.01205789541504</t>
+          <t>-35.12163694259013,174.01205790032213</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.121452168991816,174.0129291944833</t>
+          <t>-35.12145221180788,174.0129292116584</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.121708384383396,174.01208655780982</t>
+          <t>-35.12170835991704,174.01208654799564</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10895,12 +10895,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.12164417240212,174.0120608004183</t>
+          <t>-35.121644135702574,174.012060785697</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.121474861502634,174.01293829729084</t>
+          <t>-35.12147481868657,174.01293828011575</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -10917,12 +10917,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.12174801989521,174.01210245684916</t>
+          <t>-35.12174800766202,174.01210245194204</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.12158789588338,174.012983639655</t>
+          <t>-35.121587853067325,174.01298362247985</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.1217268809559,174.01209397735954</t>
+          <t>-35.12172685648954,174.01209396754535</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.12170224332549,174.01208409444158</t>
+          <t>-35.12170228002503,174.0120841091629</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10988,7 +10988,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.12148727815912,174.01294327807457</t>
+          <t>-35.12148723534307,174.01294326089945</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11045,12 +11045,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.12167723869854,174.01207406431658</t>
+          <t>-35.12167727539809,174.0120740790379</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.1215223873244,174.01295736167827</t>
+          <t>-35.121522430140445,174.0129573788534</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.12160435338571,174.012044827814</t>
+          <t>-35.121604316686174,174.01204481309273</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.12169437738864,174.01208093917163</t>
+          <t>-35.12169440185502,174.01208094898584</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -11111,7 +11111,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.121760204144614,174.01210734433482</t>
+          <t>-35.12176016744506,174.01210732961349</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.121565720985735,174.0120293312135</t>
+          <t>-35.12156569651937,174.01202932139935</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.121679049209725,174.01207479056808</t>
+          <t>-35.12167907367609,174.0120748003823</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11177,7 +11177,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.12169070743363,174.01207946703968</t>
+          <t>-35.121690719666816,174.01207947194678</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11199,12 +11199,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.121705729782676,174.01208549296734</t>
+          <t>-35.1217057053163,174.01208548315313</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.12151296779245,174.01295358314923</t>
+          <t>-35.121512924976386,174.0129535659741</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11221,7 +11221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.1214814098623,174.01199551157907</t>
+          <t>-35.12148143432866,174.01199552139323</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11243,12 +11243,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.12169681179213,174.01208191568588</t>
+          <t>-35.12169679955893,174.01208191077882</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.121531207431445,174.01296089975628</t>
+          <t>-35.121531164615384,174.01296088258115</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.12169122122733,174.01207967313815</t>
+          <t>-35.12169123346051,174.01207967804524</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11287,7 +11287,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.12167842531735,174.01207454030572</t>
+          <t>-35.1216783886178,174.0120745255844</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.121720629799526,174.01209146982615</t>
+          <t>-35.12172060533316,174.01209146001193</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.12180333834282,174.01212464683115</t>
+          <t>-35.12180332610964,174.01212464192403</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -11353,12 +11353,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.12171043955815,174.01208738220407</t>
+          <t>-35.12171041509178,174.01208737238986</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.12156597406575,174.0129748459743</t>
+          <t>-35.1215659312497,174.01297482879917</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11375,12 +11375,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.121643487343796,174.01206052562068</t>
+          <t>-35.12164345064425,174.01206051089937</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.12152855283613,174.01295983489777</t>
+          <t>-35.12152851002008,174.01295981772262</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -11397,12 +11397,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.12169728888627,174.01208210706307</t>
+          <t>-35.12169731335264,174.0120821168773</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.12148291092136,174.01294152621253</t>
+          <t>-35.1214828681053,174.0129415090374</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11420,7 +11420,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.121668390050715,174.01301592899284</t>
+          <t>-35.121668432866755,174.01301594616803</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -11437,7 +11437,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.12166630223223,174.01206967736567</t>
+          <t>-35.12166631446541,174.01206968227274</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -11459,12 +11459,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.12178364292088,174.01211674636963</t>
+          <t>-35.12178363068769,174.01211674146253</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.12162471768467,174.01299841030144</t>
+          <t>-35.12162467486862,174.01299839312625</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -11481,12 +11481,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.121556203566996,174.0120255134973</t>
+          <t>-35.121556191333816,174.0120255085902</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.12153309133779,174.01296165546236</t>
+          <t>-35.121533134153836,174.01296167263752</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -11503,12 +11503,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.121651267649014,174.0120636465369</t>
+          <t>-35.12165124318263,174.01206363672264</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.12151279652822,174.0129535144487</t>
+          <t>-35.121512753712175,174.01295349727357</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11525,12 +11525,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.121725865601746,174.01209357006937</t>
+          <t>-35.121725828902186,174.01209355534803</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.12154285339783,174.01296557139446</t>
+          <t>-35.121542810581786,174.01296555421933</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11547,12 +11547,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.12174447227235,174.01210103378634</t>
+          <t>-35.12174449673871,174.0121010436006</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.12160005564127,174.01298851740185</t>
+          <t>-35.121600012825226,174.0129885002267</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11569,12 +11569,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.1217012157381,174.01208368224454</t>
+          <t>-35.12170125243764,174.01208369696585</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.12157847635247,174.01297986111976</t>
+          <t>-35.121578519168516,174.01297987829489</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.12182400018539,174.01213293495928</t>
+          <t>-35.12182396348586,174.01213292023792</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -11631,7 +11631,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.121733462408145,174.01209661738534</t>
+          <t>-35.121733450174965,174.01209661247822</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.12168366111994,174.01207664054672</t>
+          <t>-35.12168369781949,174.01207665526803</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.12170667173777,174.01208587081467</t>
+          <t>-35.12170664727141,174.01208586100043</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -11719,7 +11719,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.121716617315556,174.01208986029417</t>
+          <t>-35.12171658061599,174.01208984557283</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -11759,12 +11759,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.121730868973444,174.01209557707773</t>
+          <t>-35.12173088120662,174.01209558198485</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.12157693497466,174.01297924281405</t>
+          <t>-35.12157697779072,174.0129792599892</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11781,12 +11781,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.12176672443058,174.01210995982723</t>
+          <t>-35.12176676113013,174.01210997454857</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.12155398557139,174.01297003693224</t>
+          <t>-35.121553942755334,174.0129700197571</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11803,12 +11803,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.12166983762236,174.01207109551856</t>
+          <t>-35.12166982538918,174.01207109061144</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.121503376996145,174.01294973592059</t>
+          <t>-35.12150333418008,174.01294971874546</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -11825,12 +11825,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.12165831396307,174.01206647302752</t>
+          <t>-35.12165835066262,174.01206648774885</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.12132200815862,174.0128769822533</t>
+          <t>-35.1213220509747,174.01287699942833</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.1216950746801,174.01208121887672</t>
+          <t>-35.12169508691327,174.01208122378384</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-35.121795778236844,174.0121216142312</t>
+          <t>-35.12179579047002,174.0121216191383</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.12168030922764,174.01207529599986</t>
+          <t>-35.12168027252808,174.01207528127856</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -11931,12 +11931,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.12161976719883,174.0120510107557</t>
+          <t>-35.12161973049928,174.01205099603442</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.12143649831403,174.01292290839655</t>
+          <t>-35.12143645549799,174.01292289122145</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11975,12 +11975,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.12179352733148,174.01212071132127</t>
+          <t>-35.12179356403101,174.0121207260426</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.12155989418648,174.01297240710278</t>
+          <t>-35.121559851370435,174.01297238992765</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.12184265578569,174.01214041832318</t>
+          <t>-35.121842631319346,174.0121404085089</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -12019,12 +12019,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.121719859109,174.01209116067824</t>
+          <t>-35.12171983464264,174.012091150864</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.12152041778591,174.01295657162214</t>
+          <t>-35.12152037496984,174.012956554447</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12041,12 +12041,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.12171155277781,174.01208782875096</t>
+          <t>-35.121711528311444,174.01208781893675</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.121487877583924,174.01294351852624</t>
+          <t>-35.12148783476786,174.01294350135112</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.12167972203481,174.01207506045884</t>
+          <t>-35.12167975873437,174.01207507518018</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -12085,7 +12085,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.12170164389949,174.0120838539933</t>
+          <t>-35.12170168059905,174.01208386871463</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -12107,12 +12107,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.12176929339878,174.01211099032156</t>
+          <t>-35.121769330098324,174.01211100504293</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.1215689711893,174.01297604823506</t>
+          <t>-35.12156901400535,174.01297606541021</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.121749818172994,174.01210317819485</t>
+          <t>-35.12174980593981,174.01210317328773</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -12151,12 +12151,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.121885826677556,174.01215773557678</t>
+          <t>-35.121885789978016,174.01215772085538</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.12170940781908,174.0130323828401</t>
+          <t>-35.12170936500305,174.0130323656649</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.121617063664985,174.01204992628718</t>
+          <t>-35.12161707589816,174.0120499311943</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-35.121440779920036,174.01292462590635</t>
+          <t>-35.121440737103974,174.01292460873125</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12195,12 +12195,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.121739921528494,174.0120992083405</t>
+          <t>-35.12173995822805,174.01209922306182</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.12157231084124,174.01297738789714</t>
+          <t>-35.12157226802519,174.012977370722</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12217,7 +12217,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.12170760145969,174.0120862437549</t>
+          <t>-35.1217075892265,174.0120862388478</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -12239,7 +12239,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.12170926517258,174.01208691112163</t>
+          <t>-35.12170930187214,174.01208692584297</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.121653910016796,174.01206470647082</t>
+          <t>-35.12165389778361,174.0120647015637</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.12168196070742,174.01207595845906</t>
+          <t>-35.12168198517379,174.01207596827328</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.121728495736015,174.01209462509817</t>
+          <t>-35.121728483502835,174.01209462019108</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -12327,7 +12327,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.12170076311031,174.01208350068154</t>
+          <t>-35.12170073864395,174.01208349086733</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.12179785787765,174.0121224484415</t>
+          <t>-35.12179784564447,174.01212244353437</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.12182417144992,174.012133003659</t>
+          <t>-35.12182413475039,174.01213298893762</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -12393,12 +12393,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.121701093406266,174.01208363317346</t>
+          <t>-35.12170108117308,174.01208362826634</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.121542339605206,174.01296536529276</t>
+          <t>-35.121542296789144,174.0129653481176</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12437,12 +12437,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.12165597742492,174.012065535771</t>
+          <t>-35.12165595295855,174.0120655259568</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.12149155976476,174.01294499558654</t>
+          <t>-35.1214915169487,174.0129449784114</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12459,12 +12459,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.12163190251809,174.0120558785972</t>
+          <t>-35.12163189028491,174.0120558736901</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.12147623161646,174.01293884689449</t>
+          <t>-35.12147627443252,174.0129388640696</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.12174340798548,174.01210060686753</t>
+          <t>-35.12174338351912,174.01210059705332</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.12174378721414,174.01210075898805</t>
+          <t>-35.121743811680496,174.01210076880227</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -12547,12 +12547,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.12164474736178,174.01206103105204</t>
+          <t>-35.121644735128605,174.01206102614492</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.12153437581937,174.01296217071652</t>
+          <t>-35.12153433300332,174.0129621535414</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12569,12 +12569,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.12177082254649,174.01211160371108</t>
+          <t>-35.12177078584695,174.0121115889897</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.12156546027313,174.01297463987248</t>
+          <t>-35.12156541745707,174.01297462269733</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.12175149411896,174.01210385046943</t>
+          <t>-35.12175151858533,174.01210386028364</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.12167126890486,174.01207166964969</t>
+          <t>-35.121671281138056,174.0120716745568</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -12635,12 +12635,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.12153561511436,174.01201725486746</t>
+          <t>-35.12153563958074,174.01201726468165</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.12152058905012,174.01295664032264</t>
+          <t>-35.12152063186617,174.0129566574978</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.12184307171383,174.01214058516544</t>
+          <t>-35.12184305948065,174.01214058025832</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -12697,7 +12697,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.121820856257955,174.0121316738288</t>
+          <t>-35.121820880724314,174.01213168364305</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.12167164407002,174.01301723430785</t>
+          <t>-35.12167168688607,174.01301725148306</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.1216187234381,174.01299600577667</t>
+          <t>-35.12161876625415,174.01299602295185</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12763,12 +12763,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.121770834779674,174.0121116086182</t>
+          <t>-35.12177087147922,174.01211162333956</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.121566916018864,174.01297522382768</t>
+          <t>-35.121566873202816,174.01297520665256</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12785,12 +12785,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.12171874588936,174.01209071413126</t>
+          <t>-35.121718721422994,174.01209070431702</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.12150714480899,174.01295124733173</t>
+          <t>-35.12150710199293,174.0129512301566</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -12807,12 +12807,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.121606494193124,174.01204568655575</t>
+          <t>-35.12160645749356,174.01204567183447</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.12143838222068,174.01292366410084</t>
+          <t>-35.121438339404634,174.01292364692574</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12829,7 +12829,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.1217089715762,174.01208679335105</t>
+          <t>-35.12170895934301,174.01208678844392</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -12851,7 +12851,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.12182599419385,174.01213373482028</t>
+          <t>-35.121826018660215,174.01213374463455</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -12895,7 +12895,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.12176876737195,174.01211077931558</t>
+          <t>-35.121768730672414,174.01211076459424</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.1217814409482,174.01211586308847</t>
+          <t>-35.12178140424865,174.01211584836713</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -12939,12 +12939,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.12168256013341,174.01207619890724</t>
+          <t>-35.121682584599796,174.01207620872142</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.121546878106756,174.01296718585797</t>
+          <t>-35.12154692092282,174.01296720303313</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -12961,12 +12961,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.12171146714552,174.01208779440122</t>
+          <t>-35.12171144267915,174.01208778458698</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.12158892346857,174.0129840518589</t>
+          <t>-35.12158888065252,174.01298403468374</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.12158301485375,174.01298168168663</t>
+          <t>-35.12158297203769,174.01298166451144</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13005,12 +13005,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-35.12170203536136,174.01208401102073</t>
+          <t>-35.12170202312818,174.01208400611364</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.12152324364546,174.01295770518095</t>
+          <t>-35.12152328646152,174.0129577223561</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13027,7 +13027,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.121677324330825,174.0120740986663</t>
+          <t>-35.12167736103037,174.0120741133876</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -13067,12 +13067,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.12173034294659,174.01209536607195</t>
+          <t>-35.12173036741296,174.01209537588616</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.12155124534406,174.01296893772283</t>
+          <t>-35.12155128816011,174.01296895489799</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.12173489369051,174.01209719151743</t>
+          <t>-35.12173490592368,174.01209719642452</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -13111,12 +13111,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.12163913233014,174.012058778693</t>
+          <t>-35.121639169029706,174.0120587934143</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.121462273581656,174.01293324780826</t>
+          <t>-35.1214623163977,174.0129332649834</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13133,7 +13133,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.121783275925424,174.01211659915612</t>
+          <t>-35.12178328815861,174.0121166040632</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -13155,12 +13155,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.12168083525453,174.0120755070054</t>
+          <t>-35.12168087195408,174.01207552172673</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.12151228273557,174.01295330834716</t>
+          <t>-35.121512239919525,174.01295329117204</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13177,7 +13177,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.12174656414651,174.0121018729027</t>
+          <t>-35.12174655191334,174.0121018679956</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -13199,12 +13199,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.121703258679695,174.01208450173152</t>
+          <t>-35.12170322198013,174.0120844870102</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.121584299335225,174.01298219694144</t>
+          <t>-35.12158434215127,174.0129822141166</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13221,12 +13221,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.121733254444045,174.01209653396447</t>
+          <t>-35.121733278910405,174.01209654377868</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.12158524128833,174.012982574795</t>
+          <t>-35.121585198472275,174.0129825576198</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13243,12 +13243,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.121686303487586,174.0120777004815</t>
+          <t>-35.121686266788025,174.0120776857602</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.12145114140641,174.0129287822808</t>
+          <t>-35.121451184222465,174.0129287994559</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13265,12 +13265,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.121681605945085,174.01207581615304</t>
+          <t>-35.121681642644646,174.01207583087435</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.12152187353174,174.01295715557666</t>
+          <t>-35.12152191634779,174.0129571727518</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13287,7 +13287,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.12184216645848,174.0121402220382</t>
+          <t>-35.12184220315802,174.01214023675956</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -13305,12 +13305,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.12179881206579,174.01212283119682</t>
+          <t>-35.12179878759943,174.01212282138255</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.1215574108555,174.01297141094412</t>
+          <t>-35.12155736803947,174.01297139376896</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13327,12 +13327,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.12166632669858,174.01206968717986</t>
+          <t>-35.12166631446541,174.01206968227274</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.121494556888685,174.01294619784505</t>
+          <t>-35.12149459970473,174.01294621502015</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13350,7 +13350,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.12156768670778,174.01297553298045</t>
+          <t>-35.12156772952382,174.0129755501556</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.12185054618696,174.01214358341915</t>
+          <t>-35.12185050948743,174.01214356869775</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -13433,12 +13433,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.12166587407078,174.01206950561703</t>
+          <t>-35.121665886303965,174.01206951052416</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.12156331947059,174.01297378111488</t>
+          <t>-35.12156327665454,174.01297376393973</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13455,12 +13455,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.12177054118332,174.01211149084742</t>
+          <t>-35.12177052895014,174.01211148594027</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.12146783966919,174.01293548057248</t>
+          <t>-35.12146779685313,174.01293546339738</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13477,7 +13477,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.12160573573565,174.01204538231585</t>
+          <t>-35.1216057724352,174.01204539703713</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -13499,7 +13499,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-35.1216722964923,174.0120720818464</t>
+          <t>-35.12167230872549,174.01207208675353</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.12168171604375,174.01207586031697</t>
+          <t>-35.12168172827693,174.0120758652241</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -13543,12 +13543,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.12177954480505,174.0121151024853</t>
+          <t>-35.12177952033869,174.01211509267105</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.12159620219689,174.01298697163685</t>
+          <t>-35.12159624501293,174.01298698881203</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13565,7 +13565,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.12176751958741,174.01211027878975</t>
+          <t>-35.12176753182059,174.0121102836969</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -13587,12 +13587,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.12174956127616,174.01210307514546</t>
+          <t>-35.12174954904298,174.01210307023834</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.12152084594645,174.01295674337345</t>
+          <t>-35.121520803130394,174.01295672619833</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13609,12 +13609,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.12165803259984,174.01206636016417</t>
+          <t>-35.12165800813347,174.01206635034998</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.12149498504924,174.01294636959628</t>
+          <t>-35.12149502786529,174.01294638677138</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13653,12 +13653,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.12164896781038,174.01206272400182</t>
+          <t>-35.12164893111082,174.0120627092805</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.12149644079513,174.01294695355043</t>
+          <t>-35.12149639797908,174.0129469363753</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13693,12 +13693,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.12168373451905,174.01207666998934</t>
+          <t>-35.12168369781949,174.01207665526803</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.121560065450694,174.01297247580342</t>
+          <t>-35.12156002263464,174.01297245862824</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.12151861951163,174.01295585026656</t>
+          <t>-35.12151866232768,174.0129558674417</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -13742,7 +13742,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.12149181666109,174.0129450986373</t>
+          <t>-35.12149185947715,174.01294511581239</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13759,12 +13759,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.12175219141034,174.0121041301749</t>
+          <t>-35.121752203643524,174.012104135082</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.12161726769249,174.0129954218207</t>
+          <t>-35.121617224876445,174.01299540464552</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -13781,12 +13781,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.12171536953089,174.01208935976902</t>
+          <t>-35.121715381764076,174.01208936467611</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.12157470854006,174.0129783497059</t>
+          <t>-35.1215747513561,174.01297836688104</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.12168252343387,174.0120761841859</t>
+          <t>-35.12168249896751,174.0120761743717</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -13825,12 +13825,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-35.12170415170204,174.0120848599504</t>
+          <t>-35.12170416393525,174.0120848648575</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.12155758211971,174.0129714796447</t>
+          <t>-35.12155762493576,174.01297149681986</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -13847,7 +13847,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.12167400913803,174.01207276884102</t>
+          <t>-35.12167402137122,174.01207277374812</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -13869,12 +13869,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.121718024131575,174.01209042461176</t>
+          <t>-35.12171803636475,174.01209042951888</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.1215047471099,174.0129502855246</t>
+          <t>-35.12150478992596,174.01295030269975</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -13891,7 +13891,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.1218963472118,174.01216195570942</t>
+          <t>-35.12189632274544,174.01216194589517</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.12175677885363,174.01210597034273</t>
+          <t>-35.12175674215409,174.01210595562137</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -13935,12 +13935,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.12170102000716,174.01208360373082</t>
+          <t>-35.1217009955408,174.0120835939166</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.121546878106756,174.01296718585797</t>
+          <t>-35.12154692092282,174.01296720303313</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -13979,12 +13979,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.121718146463415,174.01209047368286</t>
+          <t>-35.12171812199704,174.01209046386865</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.121484966092076,174.01294235061815</t>
+          <t>-35.12148492327602,174.01294233344305</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14001,12 +14001,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.12174614821832,174.01210170606086</t>
+          <t>-35.121746123751954,174.01210169624662</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.12161324298404,174.01299380735432</t>
+          <t>-35.12161328580009,174.0129938245295</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14023,12 +14023,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.12167155026809,174.0120717825131</t>
+          <t>-35.12167153803492,174.012071777606</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.121525470080265,174.01295859828795</t>
+          <t>-35.12152551289631,174.0129586154631</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14045,12 +14045,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.121698120742735,174.01208244074635</t>
+          <t>-35.12169808404318,174.01208242602505</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.12158584071302,174.01298281524723</t>
+          <t>-35.121585883529065,174.0129828324224</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14089,12 +14089,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.12166507891383,174.01206918665534</t>
+          <t>-35.12166511561339,174.01206920137665</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.12150029424014,174.01294849931156</t>
+          <t>-35.12150033705621,174.0129485164867</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14111,12 +14111,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.12169315407031,174.01208044846098</t>
+          <t>-35.12169311737076,174.01208043373964</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.12148864827294,174.01294382767838</t>
+          <t>-35.121488691089,174.01294384485348</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.121650350160195,174.01206327850426</t>
+          <t>-35.12165038685975,174.01206329322557</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -14155,12 +14155,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.12163724841973,174.0120580229996</t>
+          <t>-35.121637285119284,174.01205803772092</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.121506202855784,174.0129508694789</t>
+          <t>-35.12150624567183,174.01295088665404</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14177,12 +14177,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.12151558938764,174.01200922196782</t>
+          <t>-35.12151560162082,174.01200922687488</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.12134992423444,174.01288818038822</t>
+          <t>-35.12134996705049,174.01288819756329</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14199,12 +14199,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.12171489243675,174.01208916839175</t>
+          <t>-35.12171486797039,174.01208915857754</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.12153454708359,174.01296223941708</t>
+          <t>-35.12153458989965,174.01296225659223</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14221,12 +14221,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.121543640084695,174.01202047391695</t>
+          <t>-35.12154360338514,174.0120204591957</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.12141697419035,174.01291507655424</t>
+          <t>-35.121416931374284,174.01291505937917</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14244,7 +14244,7 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.121578818880856,174.01297999852102</t>
+          <t>-35.12157877606481,174.01297998134586</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14261,12 +14261,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.1216961756666,174.01208166051634</t>
+          <t>-35.12169620013296,174.01208167033056</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.12150166435393,174.01294904891554</t>
+          <t>-35.12150162153787,174.01294903174042</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.12184885800811,174.01214290623577</t>
+          <t>-35.12184888247447,174.01214291605</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.121695197011924,174.0120812679478</t>
+          <t>-35.12169517254556,174.01208125813358</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -14323,7 +14323,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.121726697458165,174.0120939037529</t>
+          <t>-35.12172668522498,174.0120938988458</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -14345,7 +14345,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.12171226230242,174.0120881133633</t>
+          <t>-35.12171229900198,174.01208812808463</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.121604218820686,174.01204477383595</t>
+          <t>-35.12160423105386,174.01204477874307</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -14389,7 +14389,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.12169747238402,174.0120821806697</t>
+          <t>-35.12169748461721,174.0120821855768</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -14411,12 +14411,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.121643744240664,174.0120606286698</t>
+          <t>-35.121643707541125,174.01206061394848</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.121508001130096,174.01295159083426</t>
+          <t>-35.12150795831403,174.01295157365914</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.12157131155168,174.0120315737542</t>
+          <t>-35.121571348251244,174.0120315884755</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -14455,7 +14455,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.12162124741419,174.01205160451454</t>
+          <t>-35.12162127188057,174.01205161432873</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -14478,7 +14478,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.121493101142775,174.0129456138909</t>
+          <t>-35.12149305832671,174.01294559671578</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14513,7 +14513,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.12168033369401,174.0120753058141</t>
+          <t>-35.121680358160376,174.0120753156283</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.12161898427501,174.01205069670146</t>
+          <t>-35.12161895980863,174.01205068688728</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -14579,12 +14579,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.121741487375836,174.01209983645086</t>
+          <t>-35.12174149960903,174.01209984135798</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.12151853387952,174.01295581591629</t>
+          <t>-35.12151857669558,174.0129558330914</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14601,7 +14601,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.121609515789835,174.0120468986085</t>
+          <t>-35.12160954025621,174.0120469084227</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -14623,12 +14623,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.1215671400353,174.01202990043606</t>
+          <t>-35.12156715226849,174.01202990534316</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.121506631016324,174.0129510412302</t>
+          <t>-35.12150667383239,174.01295105840532</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14645,12 +14645,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.12163792124488,174.01205829289012</t>
+          <t>-35.12163788454533,174.0120582781688</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.121502092514476,174.0129492206668</t>
+          <t>-35.12150204969843,174.01294920349167</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14667,12 +14667,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.12176908543468,174.0121109069006</t>
+          <t>-35.1217690732015,174.01211090199348</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.12155655453448,174.01297106744113</t>
+          <t>-35.12155659735053,174.01297108461628</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14689,12 +14689,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.12171288619475,174.01208836362585</t>
+          <t>-35.12171289842793,174.01208836853297</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.121557753383925,174.01297154834532</t>
+          <t>-35.12155771056787,174.01297153117014</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.1217663696683,174.01210981752087</t>
+          <t>-35.12176633296876,174.01210980279953</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -14733,12 +14733,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.12173128490166,174.01209574391953</t>
+          <t>-35.12173130936801,174.01209575373372</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.12159029358214,174.01298460146413</t>
+          <t>-35.121590336398185,174.01298461863928</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -14755,12 +14755,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.121705081423976,174.0120852328906</t>
+          <t>-35.12170510589034,174.0120852427048</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.1215183626153,174.01295574721576</t>
+          <t>-35.12151831979924,174.01295573004063</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -14777,12 +14777,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.12165070492253,174.0120634208102</t>
+          <t>-35.12165072938891,174.0120634306244</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.12147623161646,174.01293884689449</t>
+          <t>-35.12147627443252,174.0129388640696</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -14799,7 +14799,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.12166155575685,174.0120677734097</t>
+          <t>-35.12166151905729,174.0120677586884</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.12150928561174,174.01295210608814</t>
+          <t>-35.12150924279568,174.012952088913</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -14843,7 +14843,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.12172626929677,174.01209373200402</t>
+          <t>-35.121726257063585,174.0120937270969</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -14865,7 +14865,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-35.12165737200791,174.01206609518067</t>
+          <t>-35.121657408707456,174.01206610990198</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -14887,7 +14887,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-35.12160374172647,174.01204458245923</t>
+          <t>-35.1216037172601,174.01204457264504</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.12181224409863,174.01212821921504</t>
+          <t>-35.12181223186544,174.01212821430792</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -14927,12 +14927,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.121690682967255,174.01207945722547</t>
+          <t>-35.121690719666816,174.01207947194678</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.12153951374573,174.01296423173338</t>
+          <t>-35.121539556561785,174.0129642489085</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -14949,12 +14949,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.12169145365781,174.01207976637318</t>
+          <t>-35.12169149035737,174.01207978109449</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.12159397576236,174.01298607852823</t>
+          <t>-35.121594018578406,174.0129860957034</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -14989,7 +14989,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.121663023738925,174.01206836226203</t>
+          <t>-35.121663060438486,174.01206837698334</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.12165797143392,174.01206633562867</t>
+          <t>-35.12165800813347,174.01206635034998</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.121696212366146,174.01208167523765</t>
+          <t>-35.12169620013296,174.01208167033056</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -15077,12 +15077,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.121609748220365,174.01204699184333</t>
+          <t>-35.121609711520804,174.01204697712205</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.121426907516515,174.01291906117527</t>
+          <t>-35.121426950332584,174.01291907835036</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15099,12 +15099,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-35.121720507467685,174.01209142075507</t>
+          <t>-35.12172051970087,174.01209142566216</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.12152761088295,174.0129594570448</t>
+          <t>-35.121527653699005,174.0129594742199</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-35.121687832635516,174.01207831386975</t>
+          <t>-35.121687808169156,174.01207830405554</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.12172383489341,174.01209275548902</t>
+          <t>-35.121723859359776,174.01209276530327</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -15187,7 +15187,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.12165545139799,174.01206532476564</t>
+          <t>-35.12165543916481,174.01206531985852</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -15209,12 +15209,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.121664491721,174.01206895111437</t>
+          <t>-35.121664516187366,174.0120689609286</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.12153591719729,174.01296278902154</t>
+          <t>-35.12153587438124,174.01296277184642</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-35.121715002535396,174.01208921255574</t>
+          <t>-35.12171503923495,174.01208922727704</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -15253,12 +15253,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.12166158022322,174.0120677832239</t>
+          <t>-35.121661604689585,174.0120677930381</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.12152007525747,174.01295643422105</t>
+          <t>-35.12152011807353,174.0129564513962</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -15275,7 +15275,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-35.12168667048308,174.0120778476947</t>
+          <t>-35.12168669494946,174.0120778575089</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.12176058337325,174.01210749645537</t>
+          <t>-35.12176059560643,174.0121075013625</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -15342,7 +15342,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.12153480397991,174.01296234246792</t>
+          <t>-35.121534761163865,174.0129623252928</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -15364,7 +15364,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.12154490856835,174.01296639580133</t>
+          <t>-35.1215448657523,174.0129663786262</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -15381,12 +15381,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.12172915632788,174.01209489008218</t>
+          <t>-35.12172916856106,174.01209489498927</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.12152684019398,174.01295914789233</t>
+          <t>-35.121526797377925,174.01295913071718</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -15403,12 +15403,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-35.12179856740216,174.0121227330544</t>
+          <t>-35.12179853070262,174.01212271833305</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.121627115383276,174.01299937211147</t>
+          <t>-35.121627158199324,174.01299938928662</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15425,12 +15425,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.121717669369275,174.0120902823056</t>
+          <t>-35.12171769383564,174.0120902921198</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.12150611722367,174.01295083512866</t>
+          <t>-35.12150616003972,174.0129508523038</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-35.1217364350715,174.0120978098135</t>
+          <t>-35.12173644730468,174.01209781472062</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -15491,12 +15491,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.12166068720079,174.0120674250054</t>
+          <t>-35.12166066273441,174.0120674151912</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.12152290111704,174.01295756777986</t>
+          <t>-35.12152294393308,174.01295758495502</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.121740141725795,174.0120992966685</t>
+          <t>-35.1217401294926,174.01209929176136</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -15558,7 +15558,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.12154088385942,174.01296478133793</t>
+          <t>-35.121540926675465,174.01296479851305</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15575,12 +15575,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-35.12174923098024,174.0121029426534</t>
+          <t>-35.121749206513876,174.01210293283916</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.12158866657228,174.01298394880794</t>
+          <t>-35.121588709388334,174.0129839659831</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15602,7 +15602,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.1215925200167,174.01298549457266</t>
+          <t>-35.12159247720064,174.01298547739748</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15619,12 +15619,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.12168648698533,174.01207777408808</t>
+          <t>-35.12168652368488,174.01207778880942</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-35.12153334823411,174.0129617585132</t>
+          <t>-35.12153330541806,174.01296174133805</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -15641,7 +15641,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.12173812325068,174.01209848699497</t>
+          <t>-35.121738159950226,174.0120985017163</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -15686,7 +15686,7 @@
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.12155946602598,174.0129722353513</t>
+          <t>-35.12155942320993,174.01297221817615</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15703,12 +15703,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.121692444545666,174.0120801638488</t>
+          <t>-35.121692432312486,174.01208015894167</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.12156862866088,174.01297591083383</t>
+          <t>-35.12156858584485,174.01297589365868</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -15725,12 +15725,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.1218096873638,174.01212719362672</t>
+          <t>-35.121809662897434,174.01212718381248</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.121588495308075,174.01298388010727</t>
+          <t>-35.12158845249202,174.01298386293212</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.121697765980414,174.01208229844025</t>
+          <t>-35.12169774151404,174.01208228862606</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.12162742517252,174.01205408259906</t>
+          <t>-35.12162743740569,174.01205408750616</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.121666069801734,174.01206958413067</t>
+          <t>-35.12166605756854,174.01206957922358</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -15831,12 +15831,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.121787031512156,174.0121181056413</t>
+          <t>-35.12178705597851,174.01211811545556</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.12157873324877,174.01297996417068</t>
+          <t>-35.12157869043271,174.01297994699553</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -15875,7 +15875,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.12161121620257,174.0120475806949</t>
+          <t>-35.12161125290213,174.0120475954162</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.12166209401693,174.01206798932222</t>
+          <t>-35.121662118483314,174.0120679991364</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -15919,7 +15919,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-35.12158663973335,174.01203772234112</t>
+          <t>-35.12158667643291,174.0120377370624</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -15941,12 +15941,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.121650778321644,174.0120634502528</t>
+          <t>-35.1216508150212,174.01206346497412</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.121462530477984,174.01293335085893</t>
+          <t>-35.121462487661944,174.0129333336838</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -15963,12 +15963,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.121692297747465,174.01208010496353</t>
+          <t>-35.121692261047905,174.0120800902422</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.1215088574512,174.01295193433685</t>
+          <t>-35.12150890026725,174.01295195151198</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -15985,7 +15985,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.12172932759244,174.01209495878172</t>
+          <t>-35.12172933982561,174.01209496368884</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -16007,12 +16007,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.121679893299394,174.01207512915832</t>
+          <t>-35.12167992999893,174.01207514387963</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.12149155976476,174.01294499558654</t>
+          <t>-35.1214915169487,174.0129449784114</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16029,7 +16029,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-35.121614984023545,174.0120490920807</t>
+          <t>-35.1216150207231,174.01204910680198</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -16051,12 +16051,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.121541144514666,174.012019472871</t>
+          <t>-35.1215411200483,174.01201946305684</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.12139059949593,174.01290449670321</t>
+          <t>-35.121390642312,174.01290451387828</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.121509456875955,174.01295217478864</t>
+          <t>-35.12150949969201,174.01295219196376</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16095,7 +16095,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.12164659457261,174.01206177202423</t>
+          <t>-35.121646619039,174.01206178183844</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -16139,7 +16139,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.12163338273343,174.01205647235622</t>
+          <t>-35.121633346033875,174.0120564576349</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -16161,12 +16161,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.1216818261424,174.01207590448092</t>
+          <t>-35.12168181390923,174.0120758995738</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.121481369543304,174.01294090790833</t>
+          <t>-35.121481326727256,174.0129408907332</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-35.12165097405259,174.01206352876642</t>
+          <t>-35.121650986285765,174.0120635336735</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.121817675630936,174.01213039797705</t>
+          <t>-35.12181771233049,174.0121304126984</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -16227,12 +16227,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.12181670920965,174.0121300103144</t>
+          <t>-35.1218166847433,174.01213000050018</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.12168774290211,174.0130236921838</t>
+          <t>-35.12168778571815,174.01302370935903</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -16249,7 +16249,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-35.12171008479584,174.0120872398979</t>
+          <t>-35.12171007256267,174.01208723499082</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -16271,12 +16271,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-35.12166781914701,174.01207028584645</t>
+          <t>-35.121667855846574,174.01207030056776</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.12153780110362,174.0129635447277</t>
+          <t>-35.121537843919675,174.01296356190286</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16293,12 +16293,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.12170653717276,174.01208581683647</t>
+          <t>-35.12170656163913,174.0120858266507</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.121590893006825,174.01298484191642</t>
+          <t>-35.12159093582288,174.01298485909157</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.12164115904638,174.01300500557124</t>
+          <t>-35.12164120186242,174.01300502274643</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16338,7 +16338,7 @@
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.12158729645869,174.01298339920274</t>
+          <t>-35.12158725364265,174.01298338202758</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16395,7 +16395,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.12172184088462,174.01209195563007</t>
+          <t>-35.121721804185064,174.01209194090873</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -9637,13 +9637,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0649</v>
+        <v>0.0742</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0818</v>
+        <v>0.1002</v>
       </c>
       <c r="I2" t="n">
         <v>0.06750971270200153</v>
@@ -9715,13 +9715,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.073</v>
+        <v>0.06909999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1118</v>
       </c>
       <c r="I3" t="n">
         <v>0.03232991210903446</v>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342.33</v>
+        <v>342.05</v>
       </c>
       <c r="C2" t="n">
-        <v>339.25</v>
+        <v>339.16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>355.53</v>
+        <v>353.06</v>
       </c>
       <c r="C3" t="n">
-        <v>345.24</v>
+        <v>344.52</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.07</v>
+        <v>354.11</v>
       </c>
       <c r="C4" t="n">
-        <v>334.17</v>
+        <v>333.6</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>345.17</v>
+        <v>344.36</v>
       </c>
       <c r="C5" t="n">
-        <v>343.58</v>
+        <v>343.34</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345.88</v>
+        <v>347.21</v>
       </c>
       <c r="C6" t="n">
-        <v>336.36</v>
+        <v>336.74</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.14</v>
+        <v>352.88</v>
       </c>
       <c r="C7" t="n">
-        <v>342.27</v>
+        <v>342.78</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.65</v>
+        <v>363.18</v>
       </c>
       <c r="C8" t="n">
-        <v>354.93</v>
+        <v>354.79</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>345.38</v>
+        <v>346.44</v>
       </c>
       <c r="C9" t="n">
-        <v>340.13</v>
+        <v>340.44</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.62</v>
+        <v>360.23</v>
       </c>
       <c r="C10" t="n">
-        <v>356.5</v>
+        <v>356.68</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.86</v>
+        <v>344.63</v>
       </c>
       <c r="C11" t="n">
-        <v>342.44</v>
+        <v>342.38</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>354.23</v>
+        <v>353.19</v>
       </c>
       <c r="C12" t="n">
-        <v>351.4</v>
+        <v>351.1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>344.48</v>
+        <v>346.65</v>
       </c>
       <c r="C13" t="n">
-        <v>336.94</v>
+        <v>337.57</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.06</v>
+        <v>335.89</v>
       </c>
       <c r="C14" t="n">
-        <v>322.74</v>
+        <v>322.98</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>350.78</v>
+        <v>351.19</v>
       </c>
       <c r="C15" t="n">
-        <v>340.45</v>
+        <v>340.57</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355.9</v>
+        <v>353.86</v>
       </c>
       <c r="C16" t="n">
-        <v>349.23</v>
+        <v>348.63</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>346.34</v>
+        <v>344.45</v>
       </c>
       <c r="C17" t="n">
-        <v>341.19</v>
+        <v>340.64</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>359.8</v>
+        <v>360.41</v>
       </c>
       <c r="C18" t="n">
-        <v>356.06</v>
+        <v>356.24</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>354.35</v>
+        <v>354.33</v>
       </c>
       <c r="C19" t="n">
-        <v>343.69</v>
+        <v>343.68</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>347.46</v>
+        <v>348.46</v>
       </c>
       <c r="C20" t="n">
-        <v>344.82</v>
+        <v>345.11</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>349.93</v>
+        <v>351.95</v>
       </c>
       <c r="C21" t="n">
-        <v>347.65</v>
+        <v>348.24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>334.35</v>
+        <v>335</v>
       </c>
       <c r="C22" t="n">
-        <v>336.53</v>
+        <v>336.72</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>340.11</v>
+        <v>338.01</v>
       </c>
       <c r="C23" t="n">
-        <v>343.88</v>
+        <v>343.27</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>367.46</v>
+        <v>365.62</v>
       </c>
       <c r="C24" t="n">
-        <v>357.02</v>
+        <v>356.49</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>347.29</v>
+        <v>347.44</v>
       </c>
       <c r="C25" t="n">
-        <v>341.77</v>
+        <v>341.81</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>349.09</v>
+        <v>348.97</v>
       </c>
       <c r="C26" t="n">
-        <v>339.07</v>
+        <v>339.04</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>350.57</v>
+        <v>348.43</v>
       </c>
       <c r="C27" t="n">
-        <v>351.56</v>
+        <v>350.93</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>355.25</v>
+        <v>353.94</v>
       </c>
       <c r="C28" t="n">
-        <v>352.07</v>
+        <v>351.69</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>324.33</v>
+        <v>321.74</v>
       </c>
       <c r="C29" t="n">
-        <v>323.82</v>
+        <v>323.07</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.92</v>
+        <v>359.84</v>
       </c>
       <c r="C30" t="n">
-        <v>352.68</v>
+        <v>352.36</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>342.05</v>
+        <v>343.16</v>
       </c>
       <c r="C31" t="n">
-        <v>334.68</v>
+        <v>335</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>349.96</v>
+        <v>351.8</v>
       </c>
       <c r="C32" t="n">
-        <v>349.06</v>
+        <v>349.6</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.52</v>
+        <v>339.09</v>
       </c>
       <c r="C33" t="n">
-        <v>333.17</v>
+        <v>332.75</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>341.43</v>
+        <v>340.93</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>366.15</v>
+        <v>364.91</v>
       </c>
       <c r="C35" t="n">
-        <v>342.94</v>
+        <v>342.58</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>348.59</v>
+        <v>349.32</v>
       </c>
       <c r="C36" t="n">
-        <v>343.74</v>
+        <v>343.95</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>332.14</v>
+        <v>331.73</v>
       </c>
       <c r="C37" t="n">
-        <v>328.52</v>
+        <v>328.4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>354.13</v>
+        <v>352.17</v>
       </c>
       <c r="C38" t="n">
-        <v>342.5</v>
+        <v>341.93</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>355.72</v>
+        <v>353.68</v>
       </c>
       <c r="C39" t="n">
-        <v>341.6</v>
+        <v>341</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>354.68</v>
+        <v>354</v>
       </c>
       <c r="C40" t="n">
-        <v>346.42</v>
+        <v>346.22</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.3</v>
+        <v>346.45</v>
       </c>
       <c r="C41" t="n">
-        <v>337.72</v>
+        <v>337.76</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1183,10 +1183,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356.97</v>
+        <v>357.6</v>
       </c>
       <c r="C42" t="n">
-        <v>351.94</v>
+        <v>352.12</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>348.01</v>
+        <v>345.44</v>
       </c>
       <c r="C43" t="n">
-        <v>347.76</v>
+        <v>347.01</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>354.11</v>
+        <v>351.79</v>
       </c>
       <c r="C44" t="n">
-        <v>351.24</v>
+        <v>350.56</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.52</v>
+        <v>353.4</v>
       </c>
       <c r="C45" t="n">
-        <v>346.24</v>
+        <v>346.2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>358.32</v>
+        <v>357.24</v>
       </c>
       <c r="C46" t="n">
-        <v>354.63</v>
+        <v>354.32</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>355.8</v>
+        <v>355.75</v>
       </c>
       <c r="C47" t="n">
-        <v>350.61</v>
+        <v>350.6</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>359.57</v>
+        <v>357.2</v>
       </c>
       <c r="C48" t="n">
-        <v>349.72</v>
+        <v>349.03</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>357.97</v>
+        <v>355.93</v>
       </c>
       <c r="C49" t="n">
-        <v>353.26</v>
+        <v>352.67</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>349.63</v>
+        <v>351.24</v>
       </c>
       <c r="C50" t="n">
-        <v>339.28</v>
+        <v>339.75</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>357.13</v>
+        <v>355.13</v>
       </c>
       <c r="C51" t="n">
-        <v>350.62</v>
+        <v>350.03</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1363,10 +1363,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>345</v>
+        <v>345.63</v>
       </c>
       <c r="C52" t="n">
-        <v>337.42</v>
+        <v>337.6</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>347.47</v>
+        <v>348.02</v>
       </c>
       <c r="C53" t="n">
-        <v>338.88</v>
+        <v>339.04</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>350.34</v>
+        <v>351.1</v>
       </c>
       <c r="C54" t="n">
-        <v>342.67</v>
+        <v>342.89</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1417,10 +1417,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>349.69</v>
+        <v>348.81</v>
       </c>
       <c r="C55" t="n">
-        <v>349.17</v>
+        <v>348.91</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1435,10 +1435,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>339.48</v>
+        <v>341.6</v>
       </c>
       <c r="C56" t="n">
-        <v>347.79</v>
+        <v>348.41</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>331.15</v>
+        <v>330.53</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1469,10 +1469,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>353.26</v>
+        <v>353.14</v>
       </c>
       <c r="C58" t="n">
-        <v>345.06</v>
+        <v>345.03</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1487,10 +1487,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>361.78</v>
+        <v>359.25</v>
       </c>
       <c r="C59" t="n">
-        <v>349.53</v>
+        <v>348.79</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1505,10 +1505,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>351.26</v>
+        <v>351.41</v>
       </c>
       <c r="C60" t="n">
-        <v>351.68</v>
+        <v>351.72</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>343.58</v>
+        <v>342.47</v>
       </c>
       <c r="C61" t="n">
-        <v>348.13</v>
+        <v>347.81</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>366.29</v>
+        <v>364.72</v>
       </c>
       <c r="C62" t="n">
-        <v>358.74</v>
+        <v>358.28</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>353.05</v>
+        <v>353.56</v>
       </c>
       <c r="C63" t="n">
-        <v>347.54</v>
+        <v>347.69</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1577,10 +1577,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>351.69</v>
+        <v>352.65</v>
       </c>
       <c r="C64" t="n">
-        <v>346.21</v>
+        <v>346.49</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1595,10 +1595,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>349.94</v>
+        <v>350.32</v>
       </c>
       <c r="C65" t="n">
-        <v>346.17</v>
+        <v>346.28</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>376.13</v>
+        <v>374.17</v>
       </c>
       <c r="C66" t="n">
-        <v>385.23</v>
+        <v>384.66</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>350.98</v>
+        <v>351.96</v>
       </c>
       <c r="C67" t="n">
-        <v>344.04</v>
+        <v>344.32</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>351.63</v>
+        <v>353.65</v>
       </c>
       <c r="C68" t="n">
-        <v>349.74</v>
+        <v>350.33</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1667,10 +1667,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>353.13</v>
+        <v>354.49</v>
       </c>
       <c r="C69" t="n">
-        <v>344.76</v>
+        <v>345.16</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>348.2</v>
+        <v>349.46</v>
       </c>
       <c r="C70" t="n">
-        <v>342.7</v>
+        <v>343.07</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1703,10 +1703,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>338.54</v>
+        <v>337.58</v>
       </c>
       <c r="C71" t="n">
-        <v>335.89</v>
+        <v>335.61</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1721,10 +1721,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>349.39</v>
+        <v>350.12</v>
       </c>
       <c r="C72" t="n">
-        <v>339.98</v>
+        <v>340.19</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1739,10 +1739,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>357.21</v>
+        <v>354.86</v>
       </c>
       <c r="C73" t="n">
-        <v>344.35</v>
+        <v>343.66</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1757,10 +1757,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>350.92</v>
+        <v>352.66</v>
       </c>
       <c r="C74" t="n">
-        <v>349.68</v>
+        <v>350.18</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>328.01</v>
+        <v>327.54</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>354.54</v>
+        <v>352.32</v>
       </c>
       <c r="C76" t="n">
-        <v>355.05</v>
+        <v>354.4</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1809,10 +1809,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>340.84</v>
+        <v>341.12</v>
       </c>
       <c r="C77" t="n">
-        <v>333.12</v>
+        <v>333.2</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>367.4</v>
+        <v>364.85</v>
       </c>
       <c r="C78" t="n">
-        <v>343.81</v>
+        <v>343.07</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1845,10 +1845,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>356.3</v>
+        <v>354.56</v>
       </c>
       <c r="C79" t="n">
-        <v>346.19</v>
+        <v>345.68</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>347.59</v>
+        <v>346.65</v>
       </c>
       <c r="C80" t="n">
-        <v>342.68</v>
+        <v>342.4</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>345.41</v>
+        <v>343.27</v>
       </c>
       <c r="C81" t="n">
-        <v>336</v>
+        <v>335.37</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>350.46</v>
+        <v>352.46</v>
       </c>
       <c r="C82" t="n">
-        <v>338.51</v>
+        <v>339.1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>336.13</v>
+        <v>337.49</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>353.17</v>
+        <v>354.58</v>
       </c>
       <c r="C84" t="n">
-        <v>334.17</v>
+        <v>334.58</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>346.7</v>
+        <v>346.45</v>
       </c>
       <c r="C85" t="n">
-        <v>341.94</v>
+        <v>341.87</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>343.87</v>
+        <v>342.11</v>
       </c>
       <c r="C86" t="n">
-        <v>332.95</v>
+        <v>332.44</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>352.51</v>
+        <v>350.8</v>
       </c>
       <c r="C87" t="n">
-        <v>336.28</v>
+        <v>335.78</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>349.83</v>
+        <v>350.38</v>
       </c>
       <c r="C88" t="n">
-        <v>343.09</v>
+        <v>343.25</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>348.67</v>
+        <v>346.5</v>
       </c>
       <c r="C89" t="n">
-        <v>336.8</v>
+        <v>336.17</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>338.61</v>
+        <v>338.98</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>347</v>
+        <v>347.43</v>
       </c>
       <c r="C91" t="n">
-        <v>338.69</v>
+        <v>338.82</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>342.81</v>
+        <v>340.92</v>
       </c>
       <c r="C92" t="n">
-        <v>341.38</v>
+        <v>340.82</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2093,10 +2093,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>354.13</v>
+        <v>352.29</v>
       </c>
       <c r="C93" t="n">
-        <v>347.29</v>
+        <v>346.75</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>355.47</v>
+        <v>355</v>
       </c>
       <c r="C94" t="n">
-        <v>368.46</v>
+        <v>368.33</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>332.88</v>
+        <v>333.44</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>351.18</v>
+        <v>352.49</v>
       </c>
       <c r="C96" t="n">
-        <v>332.04</v>
+        <v>332.42</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2163,10 +2163,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>339.42</v>
+        <v>340.73</v>
       </c>
       <c r="C97" t="n">
-        <v>333.05</v>
+        <v>333.43</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2181,10 +2181,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>352.91</v>
+        <v>351.09</v>
       </c>
       <c r="C98" t="n">
-        <v>345.3</v>
+        <v>344.77</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2199,10 +2199,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>359.98</v>
+        <v>359.4</v>
       </c>
       <c r="C99" t="n">
-        <v>355.1</v>
+        <v>354.93</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>345.62</v>
+        <v>346.68</v>
       </c>
       <c r="C100" t="n">
-        <v>337.61</v>
+        <v>337.92</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>339.68</v>
+        <v>340.97</v>
       </c>
       <c r="C101" t="n">
-        <v>340.69</v>
+        <v>341.06</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>333.95</v>
+        <v>335.21</v>
       </c>
       <c r="C102" t="n">
-        <v>339.03</v>
+        <v>339.4</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2271,10 +2271,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>348.29</v>
+        <v>350.08</v>
       </c>
       <c r="C103" t="n">
-        <v>345.3</v>
+        <v>345.82</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>349.26</v>
+        <v>348.22</v>
       </c>
       <c r="C104" t="n">
-        <v>349.1</v>
+        <v>348.79</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>352.97</v>
+        <v>353.02</v>
       </c>
       <c r="C105" t="n">
-        <v>346.98</v>
+        <v>346.99</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>350.41</v>
+        <v>351.88</v>
       </c>
       <c r="C106" t="n">
-        <v>341.03</v>
+        <v>341.46</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>342.51</v>
+        <v>340.98</v>
       </c>
       <c r="C107" t="n">
-        <v>339.62</v>
+        <v>339.18</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>344.79</v>
+        <v>343.12</v>
       </c>
       <c r="C108" t="n">
-        <v>343.69</v>
+        <v>343.2</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2379,10 +2379,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>328.91</v>
+        <v>326.56</v>
       </c>
       <c r="C109" t="n">
-        <v>323.23</v>
+        <v>322.54</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>360.29</v>
+        <v>359.66</v>
       </c>
       <c r="C110" t="n">
-        <v>354.6</v>
+        <v>354.41</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>345.94</v>
+        <v>346.52</v>
       </c>
       <c r="C111" t="n">
-        <v>339.24</v>
+        <v>339.4</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>349.72</v>
+        <v>348.41</v>
       </c>
       <c r="C112" t="n">
-        <v>345.21</v>
+        <v>344.83</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2451,10 +2451,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>349.52</v>
+        <v>351.34</v>
       </c>
       <c r="C113" t="n">
-        <v>342.71</v>
+        <v>343.24</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>355.99</v>
+        <v>353.62</v>
       </c>
       <c r="C114" t="n">
-        <v>347.43</v>
+        <v>346.74</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2487,10 +2487,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>352.71</v>
+        <v>354.28</v>
       </c>
       <c r="C115" t="n">
-        <v>337.11</v>
+        <v>337.57</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>347.28</v>
+        <v>349.14</v>
       </c>
       <c r="C116" t="n">
-        <v>337.06</v>
+        <v>337.6</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>350.52</v>
+        <v>350.37</v>
       </c>
       <c r="C117" t="n">
-        <v>344.53</v>
+        <v>344.49</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>339.18</v>
+        <v>338.22</v>
       </c>
       <c r="C118" t="n">
-        <v>339.07</v>
+        <v>338.79</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>336.11</v>
+        <v>335.7</v>
       </c>
       <c r="C119" t="n">
-        <v>336.78</v>
+        <v>336.66</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>350.48</v>
+        <v>349.34</v>
       </c>
       <c r="C120" t="n">
-        <v>342.74</v>
+        <v>342.4</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>349.84</v>
+        <v>351.25</v>
       </c>
       <c r="C121" t="n">
-        <v>342.72</v>
+        <v>343.13</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>355.75</v>
+        <v>354.01</v>
       </c>
       <c r="C122" t="n">
-        <v>348.67</v>
+        <v>348.16</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>358.56</v>
+        <v>357.78</v>
       </c>
       <c r="C123" t="n">
-        <v>350.45</v>
+        <v>350.23</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2649,10 +2649,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>345.54</v>
+        <v>343.62</v>
       </c>
       <c r="C124" t="n">
-        <v>344.78</v>
+        <v>344.22</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2667,10 +2667,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>345.49</v>
+        <v>343.53</v>
       </c>
       <c r="C125" t="n">
-        <v>344.96</v>
+        <v>344.39</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>349.35</v>
+        <v>350.76</v>
       </c>
       <c r="C126" t="n">
-        <v>343.43</v>
+        <v>343.84</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>357.06</v>
+        <v>354.87</v>
       </c>
       <c r="C127" t="n">
-        <v>343.67</v>
+        <v>343.03</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2721,10 +2721,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>342.34</v>
+        <v>341.4</v>
       </c>
       <c r="C128" t="n">
-        <v>340.04</v>
+        <v>339.76</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>344.59</v>
+        <v>343.69</v>
       </c>
       <c r="C129" t="n">
-        <v>339.56</v>
+        <v>339.3</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2757,10 +2757,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>353.96</v>
+        <v>352.8</v>
       </c>
       <c r="C130" t="n">
-        <v>373.11</v>
+        <v>372.77</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>369.8</v>
+        <v>368.01</v>
       </c>
       <c r="C131" t="n">
-        <v>345.27</v>
+        <v>344.75</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>339.43</v>
+        <v>339.39</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2809,10 +2809,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>333.9</v>
+        <v>332.59</v>
       </c>
       <c r="C133" t="n">
-        <v>331.71</v>
+        <v>331.33</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>336.49</v>
+        <v>334.88</v>
       </c>
       <c r="C134" t="n">
-        <v>330.96</v>
+        <v>330.49</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2845,10 +2845,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>341.72</v>
+        <v>339.07</v>
       </c>
       <c r="C135" t="n">
-        <v>327.63</v>
+        <v>326.86</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>343</v>
+        <v>344.59</v>
       </c>
       <c r="C136" t="n">
-        <v>333.81</v>
+        <v>334.28</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>342.33</v>
+        <v>341.5</v>
       </c>
       <c r="C137" t="n">
-        <v>339.87</v>
+        <v>339.62</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>348.42</v>
+        <v>345.97</v>
       </c>
       <c r="C138" t="n">
-        <v>346.85</v>
+        <v>346.13</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2917,10 +2917,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>361.53</v>
+        <v>359.89</v>
       </c>
       <c r="C139" t="n">
-        <v>354.88</v>
+        <v>354.4</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2935,10 +2935,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>349.56</v>
+        <v>350.72</v>
       </c>
       <c r="C140" t="n">
-        <v>342.32</v>
+        <v>342.66</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>335.89</v>
+        <v>337.46</v>
       </c>
       <c r="C141" t="n">
-        <v>322.14</v>
+        <v>322.6</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>339.76</v>
+        <v>340.11</v>
       </c>
       <c r="C142" t="n">
-        <v>338.17</v>
+        <v>338.27</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2989,10 +2989,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>342.58</v>
+        <v>342.17</v>
       </c>
       <c r="C143" t="n">
-        <v>337.52</v>
+        <v>337.4</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>341.1</v>
+        <v>339.99</v>
       </c>
       <c r="C144" t="n">
-        <v>334.2</v>
+        <v>333.88</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>352.64</v>
+        <v>354.74</v>
       </c>
       <c r="C145" t="n">
-        <v>342.2</v>
+        <v>342.82</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>349.27</v>
+        <v>351.06</v>
       </c>
       <c r="C146" t="n">
-        <v>337.3</v>
+        <v>337.82</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>351.8</v>
+        <v>349.51</v>
       </c>
       <c r="C147" t="n">
-        <v>337.99</v>
+        <v>337.32</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3079,10 +3079,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>350.37</v>
+        <v>349.23</v>
       </c>
       <c r="C148" t="n">
-        <v>344.96</v>
+        <v>344.63</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3097,10 +3097,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>353.25</v>
+        <v>354.72</v>
       </c>
       <c r="C149" t="n">
-        <v>335.9</v>
+        <v>336.33</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>331.46</v>
+        <v>331.37</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3131,10 +3131,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>347.06</v>
+        <v>348.8</v>
       </c>
       <c r="C151" t="n">
-        <v>341.69</v>
+        <v>342.2</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>346.53</v>
+        <v>345.02</v>
       </c>
       <c r="C152" t="n">
-        <v>343.82</v>
+        <v>343.38</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>357.71</v>
+        <v>359.35</v>
       </c>
       <c r="C153" t="n">
-        <v>352.08</v>
+        <v>352.56</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>340.88</v>
+        <v>341.84</v>
       </c>
       <c r="C154" t="n">
-        <v>334.08</v>
+        <v>334.36</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>352.84</v>
+        <v>351.31</v>
       </c>
       <c r="C155" t="n">
-        <v>346.25</v>
+        <v>345.8</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3221,10 +3221,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>345.17</v>
+        <v>343.5</v>
       </c>
       <c r="C156" t="n">
-        <v>342.32</v>
+        <v>341.83</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>350.23</v>
+        <v>348.23</v>
       </c>
       <c r="C157" t="n">
-        <v>337.83</v>
+        <v>337.25</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>346.72</v>
+        <v>348.11</v>
       </c>
       <c r="C158" t="n">
-        <v>337.73</v>
+        <v>338.13</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3275,10 +3275,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>352.21</v>
+        <v>350.57</v>
       </c>
       <c r="C159" t="n">
-        <v>353.38</v>
+        <v>352.91</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>352.75</v>
+        <v>352.28</v>
       </c>
       <c r="C160" t="n">
-        <v>345.12</v>
+        <v>344.99</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>334</v>
+        <v>334.23</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr">
@@ -3327,10 +3327,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>339.07</v>
+        <v>338.74</v>
       </c>
       <c r="C162" t="n">
-        <v>340.98</v>
+        <v>340.88</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>354.54</v>
+        <v>355.87</v>
       </c>
       <c r="C163" t="n">
-        <v>348.31</v>
+        <v>348.7</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>339.77</v>
+        <v>340.37</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3379,10 +3379,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>345.05</v>
+        <v>346.81</v>
       </c>
       <c r="C165" t="n">
-        <v>334.45</v>
+        <v>334.96</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>333.03</v>
+        <v>330.86</v>
       </c>
       <c r="C166" t="n">
-        <v>334.24</v>
+        <v>333.61</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3415,10 +3415,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>345.21</v>
+        <v>346.97</v>
       </c>
       <c r="C167" t="n">
-        <v>336.81</v>
+        <v>337.32</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>354.59</v>
+        <v>355.73</v>
       </c>
       <c r="C168" t="n">
-        <v>340.29</v>
+        <v>340.62</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>342.37</v>
+        <v>339.47</v>
       </c>
       <c r="C169" t="n">
-        <v>351.44</v>
+        <v>350.59</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3469,10 +3469,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>361.61</v>
+        <v>360.96</v>
       </c>
       <c r="C170" t="n">
-        <v>348.21</v>
+        <v>348.02</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3487,10 +3487,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>353.84</v>
+        <v>351.98</v>
       </c>
       <c r="C171" t="n">
-        <v>353.62</v>
+        <v>353.08</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>352.74</v>
+        <v>350.17</v>
       </c>
       <c r="C172" t="n">
-        <v>351.45</v>
+        <v>350.7</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>341.32</v>
+        <v>339.93</v>
       </c>
       <c r="C173" t="n">
-        <v>336.44</v>
+        <v>336.04</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3541,10 +3541,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>342.72</v>
+        <v>341.56</v>
       </c>
       <c r="C174" t="n">
-        <v>343.37</v>
+        <v>343.03</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>344.82</v>
+        <v>343.33</v>
       </c>
       <c r="C175" t="n">
-        <v>345.25</v>
+        <v>344.81</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3577,10 +3577,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>355.51</v>
+        <v>356.94</v>
       </c>
       <c r="C176" t="n">
-        <v>348.26</v>
+        <v>348.68</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>356.67</v>
+        <v>356.32</v>
       </c>
       <c r="C177" t="n">
-        <v>349.11</v>
+        <v>349.01</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3613,10 +3613,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>356.57</v>
+        <v>356.69</v>
       </c>
       <c r="C178" t="n">
-        <v>348.1</v>
+        <v>348.13</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>336.83</v>
+        <v>336.57</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>352.51</v>
+        <v>354.04</v>
       </c>
       <c r="C180" t="n">
-        <v>340.67</v>
+        <v>341.11</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3665,10 +3665,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>352.31</v>
+        <v>351.07</v>
       </c>
       <c r="C181" t="n">
-        <v>345.5</v>
+        <v>345.14</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3683,10 +3683,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>346.56</v>
+        <v>348.5</v>
       </c>
       <c r="C182" t="n">
-        <v>348.63</v>
+        <v>349.2</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3701,10 +3701,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>344.51</v>
+        <v>346.35</v>
       </c>
       <c r="C183" t="n">
-        <v>333.99</v>
+        <v>334.52</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>348.81</v>
+        <v>349.59</v>
       </c>
       <c r="C184" t="n">
-        <v>338.95</v>
+        <v>339.18</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>352.65</v>
+        <v>352.14</v>
       </c>
       <c r="C185" t="n">
-        <v>334.54</v>
+        <v>334.39</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>350.12</v>
+        <v>351.26</v>
       </c>
       <c r="C186" t="n">
-        <v>340.95</v>
+        <v>341.29</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3773,10 +3773,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>353.64</v>
+        <v>355.31</v>
       </c>
       <c r="C187" t="n">
-        <v>343.27</v>
+        <v>343.76</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>348.5</v>
+        <v>346.11</v>
       </c>
       <c r="C188" t="n">
-        <v>347.12</v>
+        <v>346.43</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3809,10 +3809,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>327.68</v>
+        <v>326.47</v>
       </c>
       <c r="C189" t="n">
-        <v>328.04</v>
+        <v>327.69</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3827,10 +3827,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>343.98</v>
+        <v>345.69</v>
       </c>
       <c r="C190" t="n">
-        <v>327.77</v>
+        <v>328.27</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3845,10 +3845,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>350.49</v>
+        <v>350.51</v>
       </c>
       <c r="C191" t="n">
-        <v>342.2</v>
+        <v>342.21</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3881,10 +3881,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>348.49</v>
+        <v>347.1</v>
       </c>
       <c r="C193" t="n">
-        <v>349.44</v>
+        <v>349.03</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>345.22</v>
+        <v>347.01</v>
       </c>
       <c r="C194" t="n">
-        <v>334.45</v>
+        <v>334.98</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3917,10 +3917,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>353.93</v>
+        <v>351.38</v>
       </c>
       <c r="C195" t="n">
-        <v>344.7</v>
+        <v>343.96</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3935,10 +3935,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>350.83</v>
+        <v>352.72</v>
       </c>
       <c r="C196" t="n">
-        <v>337.65</v>
+        <v>338.21</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3953,10 +3953,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>349.02</v>
+        <v>347.96</v>
       </c>
       <c r="C197" t="n">
-        <v>344.15</v>
+        <v>343.84</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3971,10 +3971,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>354.68</v>
+        <v>353.85</v>
       </c>
       <c r="C198" t="n">
-        <v>347.64</v>
+        <v>347.4</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>351.41</v>
+        <v>349.77</v>
       </c>
       <c r="C199" t="n">
-        <v>349</v>
+        <v>348.53</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4007,10 +4007,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>356.4</v>
+        <v>357.51</v>
       </c>
       <c r="C200" t="n">
-        <v>347.11</v>
+        <v>347.43</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>357.93</v>
+        <v>358.87</v>
       </c>
       <c r="C201" t="n">
-        <v>346.95</v>
+        <v>347.23</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>372.14</v>
+        <v>370.1</v>
       </c>
       <c r="C202" t="n">
-        <v>365.2</v>
+        <v>364.61</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4061,10 +4061,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>348.87</v>
+        <v>350.66</v>
       </c>
       <c r="C203" t="n">
-        <v>343.64</v>
+        <v>344.17</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4079,10 +4079,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>368.87</v>
+        <v>366.87</v>
       </c>
       <c r="C204" t="n">
-        <v>357.38</v>
+        <v>356.79</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>338.48</v>
+        <v>337.85</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>351.05</v>
+        <v>349.97</v>
       </c>
       <c r="C206" t="n">
-        <v>347.49</v>
+        <v>347.17</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>333.22</v>
+        <v>334.61</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
@@ -4147,10 +4147,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>351.17</v>
+        <v>351.37</v>
       </c>
       <c r="C208" t="n">
-        <v>344.46</v>
+        <v>344.52</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>347.49</v>
+        <v>349.35</v>
       </c>
       <c r="C209" t="n">
-        <v>342.39</v>
+        <v>342.93</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>349.17</v>
+        <v>350.99</v>
       </c>
       <c r="C210" t="n">
-        <v>344.13</v>
+        <v>344.66</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4201,10 +4201,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>361.79</v>
+        <v>359.22</v>
       </c>
       <c r="C211" t="n">
-        <v>350.8</v>
+        <v>350.05</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4219,10 +4219,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>350.9</v>
+        <v>349.39</v>
       </c>
       <c r="C212" t="n">
-        <v>351.05</v>
+        <v>350.61</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4237,10 +4237,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>357.18</v>
+        <v>356.24</v>
       </c>
       <c r="C213" t="n">
-        <v>346.75</v>
+        <v>346.47</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4255,10 +4255,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>365.63</v>
+        <v>364.27</v>
       </c>
       <c r="C214" t="n">
-        <v>359.33</v>
+        <v>358.93</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4273,10 +4273,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>359.8</v>
+        <v>359.6</v>
       </c>
       <c r="C215" t="n">
-        <v>360.47</v>
+        <v>360.41</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>348.49</v>
+        <v>347.92</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>357.17</v>
+        <v>356.51</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4323,10 +4323,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>352.9</v>
+        <v>352.35</v>
       </c>
       <c r="C218" t="n">
-        <v>345.53</v>
+        <v>345.37</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4359,10 +4359,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>360.07</v>
+        <v>359.21</v>
       </c>
       <c r="C220" t="n">
-        <v>350.88</v>
+        <v>350.63</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4377,10 +4377,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>345.76</v>
+        <v>343.72</v>
       </c>
       <c r="C221" t="n">
-        <v>345.51</v>
+        <v>344.92</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4395,10 +4395,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>361.17</v>
+        <v>362.74</v>
       </c>
       <c r="C222" t="n">
-        <v>355.19</v>
+        <v>355.65</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>366.12</v>
+        <v>365.14</v>
       </c>
       <c r="C223" t="n">
-        <v>346.9</v>
+        <v>346.62</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4431,10 +4431,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>357.86</v>
+        <v>357.28</v>
       </c>
       <c r="C224" t="n">
-        <v>347.44</v>
+        <v>347.27</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4449,10 +4449,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>342.54</v>
+        <v>341.76</v>
       </c>
       <c r="C225" t="n">
-        <v>341.07</v>
+        <v>340.85</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4467,10 +4467,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>349.1</v>
+        <v>350.59</v>
       </c>
       <c r="C226" t="n">
-        <v>340.94</v>
+        <v>341.37</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4485,10 +4485,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>342.86</v>
+        <v>341.39</v>
       </c>
       <c r="C227" t="n">
-        <v>342.11</v>
+        <v>341.68</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4503,10 +4503,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>346.95</v>
+        <v>348.69</v>
       </c>
       <c r="C228" t="n">
-        <v>337.13</v>
+        <v>337.64</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4521,10 +4521,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>350.01</v>
+        <v>348.22</v>
       </c>
       <c r="C229" t="n">
-        <v>345.54</v>
+        <v>345.01</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4539,7 +4539,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>356.36</v>
+        <v>356.34</v>
       </c>
       <c r="C230" t="n">
         <v>350.45</v>
@@ -4557,10 +4557,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>355.1</v>
+        <v>356.1</v>
       </c>
       <c r="C231" t="n">
-        <v>350.97</v>
+        <v>351.26</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>350.95</v>
+        <v>349.71</v>
       </c>
       <c r="C232" t="n">
-        <v>346.6</v>
+        <v>346.23</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4593,10 +4593,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>347.54</v>
+        <v>349.05</v>
       </c>
       <c r="C233" t="n">
-        <v>339.81</v>
+        <v>340.25</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4611,10 +4611,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>355.58</v>
+        <v>355.63</v>
       </c>
       <c r="C234" t="n">
-        <v>346.57</v>
+        <v>346.58</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>361.85</v>
+        <v>362.05</v>
       </c>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
@@ -4645,10 +4645,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>337.5</v>
+        <v>336.89</v>
       </c>
       <c r="C236" t="n">
-        <v>336.57</v>
+        <v>336.39</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>351.69</v>
+        <v>353.33</v>
       </c>
       <c r="C237" t="n">
-        <v>343.06</v>
+        <v>343.54</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4681,10 +4681,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>351.6</v>
+        <v>353.6</v>
       </c>
       <c r="C238" t="n">
-        <v>336.7</v>
+        <v>337.29</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>345.39</v>
+        <v>344.89</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>354.92</v>
+        <v>356.39</v>
       </c>
       <c r="C240" t="n">
-        <v>352.3</v>
+        <v>352.73</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4733,10 +4733,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>355.51</v>
+        <v>354.51</v>
       </c>
       <c r="C241" t="n">
-        <v>352.53</v>
+        <v>352.24</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>351.05</v>
+        <v>351.5</v>
       </c>
       <c r="C242" t="n">
-        <v>343.34</v>
+        <v>343.47</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4769,10 +4769,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>352.48</v>
+        <v>352.13</v>
       </c>
       <c r="C243" t="n">
-        <v>345.57</v>
+        <v>345.47</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4787,10 +4787,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>361.15</v>
+        <v>361.62</v>
       </c>
       <c r="C244" t="n">
-        <v>356.21</v>
+        <v>356.35</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4805,10 +4805,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>348.21</v>
+        <v>349.35</v>
       </c>
       <c r="C245" t="n">
-        <v>344.45</v>
+        <v>344.79</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4823,10 +4823,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>352.03</v>
+        <v>349.76</v>
       </c>
       <c r="C246" t="n">
-        <v>349.21</v>
+        <v>348.55</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4841,10 +4841,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>355.69</v>
+        <v>354.63</v>
       </c>
       <c r="C247" t="n">
-        <v>347.94</v>
+        <v>347.63</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>347.82</v>
+        <v>345.5</v>
       </c>
       <c r="C248" t="n">
-        <v>342.23</v>
+        <v>341.55</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4877,10 +4877,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>355.81</v>
+        <v>356.97</v>
       </c>
       <c r="C249" t="n">
-        <v>350.93</v>
+        <v>351.27</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>354.75</v>
+        <v>356.14</v>
       </c>
       <c r="C250" t="n">
-        <v>343.49</v>
+        <v>343.89</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>348.85</v>
+        <v>347.49</v>
       </c>
       <c r="C251" t="n">
-        <v>344.55</v>
+        <v>344.15</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>355.09</v>
+        <v>354.71</v>
       </c>
       <c r="C252" t="n">
-        <v>345.33</v>
+        <v>345.22</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>352.16</v>
+        <v>353.73</v>
       </c>
       <c r="C253" t="n">
-        <v>342.94</v>
+        <v>343.4</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>343.53</v>
+        <v>343.43</v>
       </c>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="inlineStr">
@@ -4983,10 +4983,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>349</v>
+        <v>351.12</v>
       </c>
       <c r="C255" t="n">
-        <v>333.67</v>
+        <v>334.29</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5001,10 +5001,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>350.09</v>
+        <v>349.21</v>
       </c>
       <c r="C256" t="n">
-        <v>343.62</v>
+        <v>343.36</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5019,10 +5019,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>346.44</v>
+        <v>344.85</v>
       </c>
       <c r="C257" t="n">
-        <v>342.44</v>
+        <v>341.97</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5037,10 +5037,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>347.2</v>
+        <v>346.22</v>
       </c>
       <c r="C258" t="n">
-        <v>344.55</v>
+        <v>344.26</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5055,10 +5055,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>339.1</v>
+        <v>336.05</v>
       </c>
       <c r="C259" t="n">
-        <v>332.83</v>
+        <v>331.95</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>348.54</v>
+        <v>346.4</v>
       </c>
       <c r="C260" t="n">
-        <v>346.96</v>
+        <v>346.34</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5091,10 +5091,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>359.58</v>
+        <v>360.29</v>
       </c>
       <c r="C261" t="n">
-        <v>344.8</v>
+        <v>345.01</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5109,10 +5109,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>346.35</v>
+        <v>345.19</v>
       </c>
       <c r="C262" t="n">
-        <v>345.56</v>
+        <v>345.22</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5127,10 +5127,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>355.2</v>
+        <v>354.16</v>
       </c>
       <c r="C263" t="n">
-        <v>345</v>
+        <v>344.7</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5145,10 +5145,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>345.92</v>
+        <v>346.37</v>
       </c>
       <c r="C264" t="n">
-        <v>337.84</v>
+        <v>337.97</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>350.6</v>
+        <v>352.36</v>
       </c>
       <c r="C265" t="n">
-        <v>340.65</v>
+        <v>341.16</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
-        <v>342.9</v>
+        <v>342.56</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>344.86</v>
+        <v>344.18</v>
       </c>
       <c r="C267" t="n">
-        <v>337.32</v>
+        <v>337.13</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5215,10 +5215,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>339.33</v>
+        <v>339.51</v>
       </c>
       <c r="C268" t="n">
-        <v>336.88</v>
+        <v>336.93</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>352.18</v>
+        <v>353.82</v>
       </c>
       <c r="C269" t="n">
-        <v>343.79</v>
+        <v>344.26</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5251,10 +5251,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>346.15</v>
+        <v>347.62</v>
       </c>
       <c r="C270" t="n">
-        <v>334.14</v>
+        <v>334.57</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5269,10 +5269,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>357.42</v>
+        <v>354.95</v>
       </c>
       <c r="C271" t="n">
-        <v>347.78</v>
+        <v>347.06</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
-        <v>340.74</v>
+        <v>340.26</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>351.49</v>
+        <v>353.53</v>
       </c>
       <c r="C273" t="n">
-        <v>339.67</v>
+        <v>340.26</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>337.8</v>
+        <v>337.12</v>
       </c>
       <c r="C274" t="n">
-        <v>337.35</v>
+        <v>337.15</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>350.87</v>
+        <v>349.66</v>
       </c>
       <c r="C275" t="n">
-        <v>344.31</v>
+        <v>343.96</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5357,10 +5357,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>344.33</v>
+        <v>341.86</v>
       </c>
       <c r="C276" t="n">
-        <v>330.46</v>
+        <v>329.74</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5375,10 +5375,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>359.08</v>
+        <v>357.92</v>
       </c>
       <c r="C277" t="n">
-        <v>351.88</v>
+        <v>351.54</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5393,7 +5393,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>354.57</v>
+        <v>354.32</v>
       </c>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="inlineStr">
@@ -5409,10 +5409,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>340.44</v>
+        <v>341.48</v>
       </c>
       <c r="C279" t="n">
-        <v>338.49</v>
+        <v>338.79</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5427,10 +5427,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>355.76</v>
+        <v>356.47</v>
       </c>
       <c r="C280" t="n">
-        <v>352.86</v>
+        <v>353.07</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>360.97</v>
+        <v>358.91</v>
       </c>
       <c r="C281" t="n">
-        <v>350.31</v>
+        <v>349.71</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5463,10 +5463,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>355.03</v>
+        <v>356.6</v>
       </c>
       <c r="C282" t="n">
-        <v>344.99</v>
+        <v>345.45</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5481,10 +5481,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>363.84</v>
+        <v>362.13</v>
       </c>
       <c r="C283" t="n">
-        <v>352.49</v>
+        <v>351.99</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5499,10 +5499,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>356.35</v>
+        <v>355.52</v>
       </c>
       <c r="C284" t="n">
-        <v>352.06</v>
+        <v>351.81</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5517,10 +5517,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>351.51</v>
+        <v>351.63</v>
       </c>
       <c r="C285" t="n">
-        <v>346.64</v>
+        <v>346.68</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5535,10 +5535,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>347.18</v>
+        <v>346.02</v>
       </c>
       <c r="C286" t="n">
-        <v>348.89</v>
+        <v>348.55</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>352.95</v>
+        <v>350.71</v>
       </c>
       <c r="C287" t="n">
-        <v>348.67</v>
+        <v>348.01</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>360.53</v>
+        <v>360.94</v>
       </c>
       <c r="C288" t="n">
-        <v>356.07</v>
+        <v>356.19</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>369.16</v>
+        <v>367.77</v>
       </c>
       <c r="C289" t="n">
-        <v>360.45</v>
+        <v>360.05</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5607,10 +5607,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>355.9</v>
+        <v>355.02</v>
       </c>
       <c r="C290" t="n">
-        <v>346.57</v>
+        <v>346.32</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5625,10 +5625,10 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>356.84</v>
+        <v>355.58</v>
       </c>
       <c r="C291" t="n">
-        <v>348.81</v>
+        <v>348.44</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5643,10 +5643,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>355.64</v>
+        <v>356.35</v>
       </c>
       <c r="C292" t="n">
-        <v>355.25</v>
+        <v>355.46</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5661,10 +5661,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>358.39</v>
+        <v>359.39</v>
       </c>
       <c r="C293" t="n">
-        <v>353.46</v>
+        <v>353.75</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5679,10 +5679,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>352.73</v>
+        <v>350.89</v>
       </c>
       <c r="C294" t="n">
-        <v>349.86</v>
+        <v>349.32</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5697,10 +5697,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>356.33</v>
+        <v>357.64</v>
       </c>
       <c r="C295" t="n">
-        <v>352.34</v>
+        <v>352.72</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5715,10 +5715,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>336.86</v>
+        <v>336.21</v>
       </c>
       <c r="C296" t="n">
-        <v>333.24</v>
+        <v>333.05</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5733,10 +5733,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>336.98</v>
+        <v>336.65</v>
       </c>
       <c r="C297" t="n">
-        <v>325.75</v>
+        <v>325.66</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>349.43</v>
+        <v>348.47</v>
       </c>
       <c r="C298" t="n">
-        <v>342.6</v>
+        <v>342.32</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5769,10 +5769,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>354.36</v>
+        <v>355.65</v>
       </c>
       <c r="C299" t="n">
-        <v>343.26</v>
+        <v>343.64</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5787,10 +5787,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>349.84</v>
+        <v>351.58</v>
       </c>
       <c r="C300" t="n">
-        <v>337.06</v>
+        <v>337.57</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>349.35</v>
+        <v>351.64</v>
       </c>
       <c r="C301" t="n">
-        <v>331.19</v>
+        <v>331.86</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
-        <v>337.49</v>
+        <v>337.62</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="n">
-        <v>332.56</v>
+        <v>332.41</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>348.51</v>
+        <v>349.92</v>
       </c>
       <c r="C304" t="n">
-        <v>339.55</v>
+        <v>339.96</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5873,12 +5873,30 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>348.06</v>
+        <v>349.77</v>
       </c>
       <c r="C305" t="n">
-        <v>337.89</v>
+        <v>338.39</v>
       </c>
       <c r="D305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:11:46+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>343</v>
+      </c>
+      <c r="C306" t="n">
+        <v>337.45</v>
+      </c>
+      <c r="D306" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5895,7 +5913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9473,6 +9491,16 @@
       </c>
       <c r="B357" t="n">
         <v>-0.68</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -9640,34 +9668,34 @@
         <v>0.08500000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0742</v>
+        <v>0.0741</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1002</v>
+        <v>0.1001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06750971270200153</v>
+        <v>0.07347486821306003</v>
       </c>
       <c r="J2" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004072909818273573</v>
+        <v>0.004898194540611245</v>
       </c>
       <c r="M2" t="n">
-        <v>5.897444647873202</v>
+        <v>5.916645626305565</v>
       </c>
       <c r="N2" t="n">
-        <v>60.54897135725479</v>
+        <v>59.8563211286011</v>
       </c>
       <c r="O2" t="n">
-        <v>7.781321954350353</v>
+        <v>7.736686702238956</v>
       </c>
       <c r="P2" t="n">
-        <v>349.3343932186791</v>
+        <v>348.9624028010386</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9724,28 +9752,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03232991210903446</v>
+        <v>0.03051295237922599</v>
       </c>
       <c r="J3" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008885713537658546</v>
+        <v>0.0008111386473286242</v>
       </c>
       <c r="M3" t="n">
-        <v>5.993388966328167</v>
+        <v>5.88193683278901</v>
       </c>
       <c r="N3" t="n">
-        <v>63.66357217559987</v>
+        <v>62.39540849869112</v>
       </c>
       <c r="O3" t="n">
-        <v>7.978945555372581</v>
+        <v>7.899076433273141</v>
       </c>
       <c r="P3" t="n">
-        <v>343.2988369247517</v>
+        <v>343.2174103012857</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9783,7 +9811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9821,12 +9849,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-35.12177087147922,174.01211162333956</t>
+          <t>-35.121773269182846,174.01211258513433</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-35.121572182393095,174.01297733637168</t>
+          <t>-35.12157295308199,174.01297764552447</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9843,12 +9871,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.1216578368689,174.01206628165056</t>
+          <t>-35.1216789880438,174.01207476603255</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.121520888762504,174.01295676054858</t>
+          <t>-35.12152705427426,174.01295923376802</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9865,12 +9893,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.12165321272529,174.01206442676602</t>
+          <t>-35.12166999665375,174.01207115931092</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.12161568349874,174.01299478633925</t>
+          <t>-35.12162056452813,174.01299674430925</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9887,12 +9915,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.12174655191334,174.0121018679956</t>
+          <t>-35.121753488127645,174.012104650329</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.121535103692274,174.0129624626939</t>
+          <t>-35.12153715886282,174.01296328710063</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9909,12 +9937,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.1217404720217,174.01209942916051</t>
+          <t>-35.12172908292878,174.0120948606395</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.12159693006972,174.01298726361466</t>
+          <t>-35.121593676050026,174.01298595830207</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9931,12 +9959,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.12169542944241,174.01208136118282</t>
+          <t>-35.12168052942496,174.01207538432777</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.12154632149808,174.0129669625811</t>
+          <t>-35.12154195426073,174.01296521071646</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9953,12 +9981,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.12158830344657,174.01203838970585</t>
+          <t>-35.12159232816459,174.01204000413975</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.12143791124403,174.01292347517477</t>
+          <t>-35.121439110093704,174.01292395607751</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -9975,12 +10003,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.12174475363554,174.01210114664997</t>
+          <t>-35.121735676614186,174.01209750557257</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.12156464676816,174.0129743135446</t>
+          <t>-35.12156199217301,174.01297324868517</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -9997,12 +10025,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.12162281326185,174.01205223262303</t>
+          <t>-35.12161758969193,174.01205013729236</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.12142446700105,174.01291808219503</t>
+          <t>-35.12142292562285,174.01291746389174</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10019,12 +10047,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.121749206513876,174.01210293283916</t>
+          <t>-35.12175117605622,174.01210372288446</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.1215448657523,174.0129663786262</t>
+          <t>-35.12154537954492,174.0129665847279</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10041,12 +10069,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.121668969066306,174.0120707471142</t>
+          <t>-35.12167787482409,174.01207431948603</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.1214681393816,174.01293560079827</t>
+          <t>-35.12147070834506,174.01293663130494</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10063,12 +10091,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.12175246054034,174.01210423813143</t>
+          <t>-35.12173387833636,174.01209678422714</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.121591963408065,174.0129852712955</t>
+          <t>-35.12158656858585,174.01298310722498</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10085,12 +10113,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.12183312613815,174.01213659567324</t>
+          <t>-35.121826018660215,174.01213374463455</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.12171356097503,174.01303404883603</t>
+          <t>-35.12171150580507,174.01303322442567</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10107,12 +10135,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.121698512204595,174.0120825977738</t>
+          <t>-35.12169500128099,174.01208118943407</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.1215619065409,174.01297321433486</t>
+          <t>-35.12156087895567,174.01297280213126</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10129,12 +10157,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.121654668474214,174.01206501071113</t>
+          <t>-35.12167213746092,174.01207201805408</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.1214867215504,174.01294305479803</t>
+          <t>-35.12149185947715,174.01294511581239</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10151,12 +10179,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.121736532936964,174.01209784907041</t>
+          <t>-35.12175271743717,174.01210434118082</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.12155556976529,174.01297067241273</t>
+          <t>-35.121560279530954,174.01297256167916</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10173,12 +10201,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.12162127188057,174.01205161432873</t>
+          <t>-35.12161604831063,174.01204951899814</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.121428234814395,174.0129195936032</t>
+          <t>-35.12142669343621,174.0129189752998</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10195,12 +10223,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.12166794147886,174.0120703349175</t>
+          <t>-35.12166811274344,174.01207040361695</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.12153416173911,174.01296208484084</t>
+          <t>-35.12153424737122,174.01296211919112</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10217,12 +10245,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.12172694212182,174.0120940018951</t>
+          <t>-35.121718378893874,174.01209056691795</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.12152448531104,174.01295820325987</t>
+          <t>-35.12152200197991,174.01295720710206</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10239,12 +10267,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.121705790948596,174.01208551750287</t>
+          <t>-35.121688493227424,174.01207857885345</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.121500251424095,174.01294848213644</t>
+          <t>-35.121495199129505,174.01294645547188</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10261,12 +10289,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.12183920602884,174.01213903451398</t>
+          <t>-35.12183363993173,174.01213680177244</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.12159547432405,174.01298667965904</t>
+          <t>-35.12159384731421,174.01298602700274</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10283,12 +10311,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.12178988184343,174.01211924899988</t>
+          <t>-35.121807864619825,174.01212646246572</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.1215325347291,174.01296143218556</t>
+          <t>-35.12153775828756,174.0129635275526</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10305,12 +10333,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.12155567753998,174.01202530249245</t>
+          <t>-35.12157143388354,174.01203162282513</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.121420014130706,174.01291629598558</t>
+          <t>-35.12142455263319,174.01291811654522</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10327,12 +10355,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.121728397870555,174.0120945858413</t>
+          <t>-35.12172711338638,174.01209407059466</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.12155060310329,174.01296868009564</t>
+          <t>-35.12155026057488,174.01296854269447</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10349,12 +10377,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-35.12171298406022,174.0120884028827</t>
+          <t>-35.12171401164758,174.0120888150799</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.121573723770894,174.0129779546773</t>
+          <t>-35.1215739806672,174.01297805772822</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10371,12 +10399,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.12170031048253,174.01208331911857</t>
+          <t>-35.12171863579071,174.01209066996725</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.12146676926775,174.01293505119475</t>
+          <t>-35.12147216409102,174.01293721525875</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10393,12 +10421,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.12166023457298,174.0120672434426</t>
+          <t>-35.12167145240262,174.01207174325626</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.12146240202982,174.0129332993336</t>
+          <t>-35.121465656050226,174.01293460464188</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10415,12 +10443,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.121925009550104,174.01217345312298</t>
+          <t>-35.12194718830262,174.01218234976153</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.121704312710236,174.0130303389897</t>
+          <t>-35.12171073511635,174.01303291527176</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10437,12 +10465,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.1216116810636,174.01204776716457</t>
+          <t>-35.1216209293514,174.01205147693</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.12145717847069,174.01293120397054</t>
+          <t>-35.121459918698434,174.01293230317734</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10459,12 +10487,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.121773269182846,174.01211258513433</t>
+          <t>-35.12176376400056,174.01210877230528</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.1216113162619,174.01299303447155</t>
+          <t>-35.121608576034845,174.01299193526057</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10481,12 +10509,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.12170553405174,174.0120854144536</t>
+          <t>-35.12168977771168,174.0120790940996</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.12148817729631,174.01294363875206</t>
+          <t>-35.121483553162214,174.0129417838393</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10503,12 +10531,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.12178637092035,174.0121178406569</t>
+          <t>-35.121798616334885,174.01212275268287</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.121624246708144,174.0129982213745</t>
+          <t>-35.12162784325606,174.0129996640895</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10526,7 +10554,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.121553514594815,174.0129698480056</t>
+          <t>-35.12155779619997,174.01297156552047</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -10543,12 +10571,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.121566895371586,174.01202980229425</t>
+          <t>-35.12157751377686,174.01203406164984</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.12154058414705,174.0129646611119</t>
+          <t>-35.12154366690284,174.01296589772218</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10565,12 +10593,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.121717265674235,174.01209012037097</t>
+          <t>-35.12171101451776,174.01208761283817</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.12153373357859,174.01296191308947</t>
+          <t>-35.12153193530435,174.01296119173364</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10587,12 +10615,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.12185813075863,174.01214662583754</t>
+          <t>-35.12186164168129,174.01214803418304</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.12166406563029,174.01301419429802</t>
+          <t>-35.12166509321535,174.0130146065027</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -10609,12 +10637,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.12166982538918,174.01207109061144</t>
+          <t>-35.12168660931717,174.01207782315916</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.12154435195968,174.01296617252447</t>
+          <t>-35.12154923298963,174.01296813049095</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -10631,12 +10659,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.12165620985542,174.01206562900597</t>
+          <t>-35.12167367884207,174.0120726363492</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.121552058849055,174.0129692640506</t>
+          <t>-35.12155719677525,174.01297132506838</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10653,12 +10681,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.12166511561339,174.01206920137665</t>
+          <t>-35.12167093860891,174.01207153715788</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.12151078417365,174.01295270721764</t>
+          <t>-35.121512496815846,174.0129533942228</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10675,12 +10703,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.12173687546608,174.01209798646954</t>
+          <t>-35.12173559098191,174.01209747122277</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.12158528410437,174.01298259197014</t>
+          <t>-35.12158494157598,174.01298245456886</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10697,12 +10725,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.121645505819224,174.01206133529226</t>
+          <t>-35.121640110984906,174.012059171261</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.12146351524732,174.01293374588641</t>
+          <t>-35.12146197386922,174.01293312758253</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10719,12 +10747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.121722232346464,174.01209211265757</t>
+          <t>-35.12174423984188,174.01210094055122</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.12149930947087,174.0129481042837</t>
+          <t>-35.12150573187917,174.01295068055254</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10741,12 +10769,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.12166999665375,174.01207115931092</t>
+          <t>-35.12168986334397,174.01207912844933</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.12146950949544,174.0129361504018</t>
+          <t>-35.121475332479264,174.0129384862171</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -10763,12 +10791,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.12167504895865,174.01207318594487</t>
+          <t>-35.12167607654609,174.01207359814165</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.12151232555163,174.0129533255223</t>
+          <t>-35.121512668080065,174.01295346292332</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10785,12 +10813,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.12163394545992,174.01205669808277</t>
+          <t>-35.121643193747374,174.01206040785024</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.12144048020762,174.01292450568064</t>
+          <t>-35.12144313480332,174.01292557053682</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10807,12 +10835,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.12165552479711,174.01206535420826</t>
+          <t>-35.12165595295855,174.0120655259568</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.12147490431869,174.01293831446597</t>
+          <t>-35.12147498995081,174.0129383488162</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10829,12 +10857,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.12162324142333,174.01205240437147</t>
+          <t>-35.12164353627654,174.01206054524908</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.121482525576845,174.0129413716365</t>
+          <t>-35.121488434192656,174.0129437418028</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10851,12 +10879,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.12163694259013,174.01205790032213</t>
+          <t>-35.12165441157734,174.01206490766197</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.12145221180788,174.0129292116584</t>
+          <t>-35.121457264102816,174.01293123832073</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10873,12 +10901,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.12170835991704,174.01208654799564</t>
+          <t>-35.12169457311958,174.01208101768535</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.121571925496774,174.01297723332073</t>
+          <t>-35.12156790078803,174.01297561885622</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10895,12 +10923,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.121644135702574,174.012060785697</t>
+          <t>-35.12166126216043,174.01206765563924</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.12147481868657,174.01293828011575</t>
+          <t>-35.12147987098131,174.01294030677926</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -10917,12 +10945,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.12174800766202,174.01210245194204</t>
+          <t>-35.121742612828626,174.0121002879052</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.121587853067325,174.01298362247985</t>
+          <t>-35.12158631168956,174.012983004174</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10939,12 +10967,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.12172685648954,174.01209396754535</t>
+          <t>-35.12172214671419,174.01209207830783</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-35.12157535078081,174.01297860733322</t>
+          <t>-35.1215739806672,174.01297805772822</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10961,12 +10989,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.12170228002503,174.0120841091629</t>
+          <t>-35.12169577197154,174.0120814985818</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.121542896213896,174.0129655885696</t>
+          <t>-35.121541012307574,174.01296483286333</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -10983,12 +11011,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.12170784612335,174.01208634189706</t>
+          <t>-35.121715381764076,174.01208936467611</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.12148723534307,174.01294326089945</t>
+          <t>-35.121489461778,174.01294415400568</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11005,12 +11033,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-35.1217952766764,174.0121214130393</t>
+          <t>-35.12177712263508,174.01211413087609</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.12149905257454,174.01294800123296</t>
+          <t>-35.12149374338362,174.01294587151773</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11028,7 +11056,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.12164154439078,174.0130051601479</t>
+          <t>-35.12164685358041,174.01300728987104</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11045,12 +11073,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.12167727539809,174.0120740790379</t>
+          <t>-35.12167830298552,174.01207449123467</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.121522430140445,174.0129573788534</t>
+          <t>-35.121522687036766,174.0129574819042</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11067,12 +11095,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.121604316686174,174.01204481309273</t>
+          <t>-35.121625981656706,174.01205350356148</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-35.121484152587,174.01294202429094</t>
+          <t>-35.12149048936336,174.01294456620852</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -11089,12 +11117,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.12169440185502,174.01208094898584</t>
+          <t>-35.12169311737076,174.01208043373964</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.12146574168235,174.0129346389921</t>
+          <t>-35.12146539915389,174.01293450159122</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11111,12 +11139,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.12176016744506,174.01210732961349</t>
+          <t>-35.12176967262741,174.01211114244214</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.12149614108275,174.01294683332458</t>
+          <t>-35.1214988813103,174.01294793253246</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11133,12 +11161,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.12156569651937,174.01202932139935</t>
+          <t>-35.12157914079058,174.01203471429312</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.12140528540546,174.01291038775577</t>
+          <t>-35.12140922448317,174.01291196786352</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11155,12 +11183,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.12167907367609,174.0120748003823</t>
+          <t>-35.12167470642951,174.01207304854594</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-35.121501193377306,174.0129488599892</t>
+          <t>-35.12149990889565,174.01294834473546</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11177,12 +11205,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.121690719666816,174.01207947194678</t>
+          <t>-35.12168249896751,174.0120761743717</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.121512582447956,174.01295342857307</t>
+          <t>-35.1215101847489,174.01295246676582</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11199,12 +11227,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.1217057053163,174.01208548315313</t>
+          <t>-35.12170245128959,174.0120841778624</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.121512924976386,174.0129535659741</t>
+          <t>-35.1215119830232,174.01295318812126</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11221,12 +11249,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.12148143432866,174.01199552139323</t>
+          <t>-35.121498218261905,174.01200225390906</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.12117844586497,174.01281939442268</t>
+          <t>-35.12118332689789,174.01282135237113</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11243,12 +11271,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.12169679955893,174.01208191077882</t>
+          <t>-35.12168840759515,174.01207854450374</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.121531164615384,174.01296088258115</t>
+          <t>-35.1215287669164,174.01295992077345</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11265,12 +11293,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.12169123346051,174.01207967804524</t>
+          <t>-35.12167393573893,174.0120727393984</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.12148235431262,174.012941302936</t>
+          <t>-35.121477302017894,174.01293927627236</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11287,12 +11315,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.1216783886178,174.0120745255844</t>
+          <t>-35.12166674262684,174.01206985402138</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.12152499910368,174.0129584093615</t>
+          <t>-35.121521573819365,174.01295703535072</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11309,12 +11337,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.12172060533316,174.01209146001193</t>
+          <t>-35.12170981566581,174.01208713194154</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.12154263931757,174.01296548551875</t>
+          <t>-35.12153947092967,174.01296421455825</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11331,12 +11359,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.12180332610964,174.01212464192403</t>
+          <t>-35.12181154680731,174.01212793950913</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.12160095477829,174.0129888780804</t>
+          <t>-35.12160335247699,174.01298983988983</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11353,12 +11381,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.12171041509178,174.01208737238986</t>
+          <t>-35.12170416393525,174.0120848648575</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.1215659312497,174.01297482879917</t>
+          <t>-35.12156413297555,174.01297410744277</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11375,12 +11403,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.12164345064425,174.01206051089937</t>
+          <t>-35.1216635742322,174.01206858308166</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.12152851002008,174.01295981772262</t>
+          <t>-35.121534418635434,174.01296218789167</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -11397,12 +11425,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.12169731335264,174.0120821168773</t>
+          <t>-35.12168241333522,174.01207614002197</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.1214828681053,174.0129415090374</t>
+          <t>-35.121478586499606,174.0129397915258</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11420,7 +11448,7 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.121668432866755,174.01301594616803</t>
+          <t>-35.12167245757485,174.01301756063663</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -11437,12 +11465,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.12166631446541,174.01206968227274</t>
+          <t>-35.12168532483291,174.01207730791307</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.12143688365858,174.01292306297242</t>
+          <t>-35.121442449746375,174.01292529573522</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -11459,12 +11487,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.12178363068769,174.01211674146253</t>
+          <t>-35.1217812329841,174.01211577966745</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.12162467486862,174.01299839312625</t>
+          <t>-35.12162398981188,174.01299811832342</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -11481,12 +11509,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.121556191333816,174.0120255085902</t>
+          <t>-35.12157802757068,174.0120342677477</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.121533134153836,174.01296167263752</t>
+          <t>-35.12153947092967,174.01296421455825</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -11503,12 +11531,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.12165124318263,174.01206363672264</t>
+          <t>-35.121666143200834,174.0120696135733</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.121512753712175,174.01295349727357</t>
+          <t>-35.12151712094973,174.01295524913695</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11525,12 +11553,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.121725828902186,174.01209355534803</t>
+          <t>-35.12173387833636,174.01209678422714</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.121542810581786,174.01296555421933</t>
+          <t>-35.12154520828072,174.01296651602735</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11547,12 +11575,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.12174449673871,174.0121010436006</t>
+          <t>-35.121762822045554,174.01210839445744</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.121600012825226,174.0129885002267</t>
+          <t>-35.1216054076473,174.01299066429794</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11569,12 +11597,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.12170125243764,174.01208369696585</t>
+          <t>-35.12168412598091,174.01207682701673</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.121578519168516,174.01297987829489</t>
+          <t>-35.121573466874594,174.01297785162635</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11591,7 +11619,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.12182396348586,174.01213292023792</t>
+          <t>-35.121812317497714,174.01212824865777</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -11609,12 +11637,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-35.12167804608866,174.01207438818548</t>
+          <t>-35.12166597193625,174.01206954487387</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.12161568349874,174.01299478633925</t>
+          <t>-35.12161217258285,174.01299337797502</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11631,12 +11659,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.121733450174965,174.01209661247822</t>
+          <t>-35.12173559098191,174.01209747122277</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.12154914735751,174.01296809614067</t>
+          <t>-35.12154974678225,174.0129683365927</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11653,12 +11681,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.121757684109106,174.0121063334692</t>
+          <t>-35.12177275538921,174.01211237903544</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.1216261306142,174.01299897708233</t>
+          <t>-35.121630497850944,174.01300072895066</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11675,12 +11703,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.12168369781949,174.01207665526803</t>
+          <t>-35.12169834094003,174.0120825290743</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.1215976151265,174.01298753841735</t>
+          <t>-35.12160189673135,174.01298925593406</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -11697,12 +11725,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.12170664727141,174.01208586100043</t>
+          <t>-35.12170193749589,174.0120839717639</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.12153929966547,174.01296414585767</t>
+          <t>-35.121537929551764,174.01296359625314</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11719,12 +11747,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.12171658061599,174.01208984557283</t>
+          <t>-35.12173516282053,174.01209729947388</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.12159316225743,174.0129857522001</t>
+          <t>-35.12159855707958,174.01298791627102</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11742,7 +11770,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.121577662847514,174.01297953479173</t>
+          <t>-35.1215744944598,174.0129782638301</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -11759,12 +11787,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.12173088120662,174.01209558198485</t>
+          <t>-35.121727199018665,174.01209410494442</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.12157697779072,174.0129792599892</t>
+          <t>-35.12157586457341,174.01297881343513</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11781,12 +11809,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.12176676113013,174.01210997454857</t>
+          <t>-35.12178294562953,174.0121164666639</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.121553942755334,174.0129700197571</t>
+          <t>-35.121558738153105,174.01297194337374</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11803,12 +11831,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.12166982538918,174.01207109061144</t>
+          <t>-35.12168558172976,174.0120774109623</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.12150333418008,174.01294971874546</t>
+          <t>-35.12150795831403,174.01295157365914</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -11825,12 +11853,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.12165835066262,174.01206648774885</t>
+          <t>-35.121662375380176,174.01206810218557</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.1213220509747,174.01287699942833</t>
+          <t>-35.12132316419246,174.01287744597957</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -11848,7 +11876,7 @@
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-35.12162673003886,174.01299921753485</t>
+          <t>-35.121621934641624,174.01299729391488</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -11865,12 +11893,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.12169508691327,174.01208122378384</t>
+          <t>-35.121683869084066,174.0120767239675</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.12163392313464,174.0130021029652</t>
+          <t>-35.12163066911513,174.0130007976514</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -11887,12 +11915,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-35.12179579047002,174.0121216191383</t>
+          <t>-35.12178457264268,174.01211711931057</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.12162527429328,174.01299863357877</t>
+          <t>-35.12162202027372,174.01299732826527</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -11909,12 +11937,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.12168027252808,174.01207528127856</t>
+          <t>-35.121695857603825,174.01208153293155</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-35.12152037496984,174.012956554447</t>
+          <t>-35.12152491347157,174.0129583750112</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11931,12 +11959,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.12161973049928,174.01205099603442</t>
+          <t>-35.121624697172315,174.01205298831613</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.12143645549799,174.01292289122145</t>
+          <t>-35.12143791124403,174.01292347517477</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11953,12 +11981,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.1217426984609,174.012100322255</t>
+          <t>-35.12173362143951,174.0120966811778</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.12158622605746,174.0129829698237</t>
+          <t>-35.121583571462395,174.0129819049637</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -11975,12 +12003,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.12179356403101,174.0121207260426</t>
+          <t>-35.12178251746818,174.01211629491482</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.121559851370435,174.01297238992765</t>
+          <t>-35.121556682982636,174.01297111896656</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -11997,12 +12025,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.121842631319346,174.0121404085089</t>
+          <t>-35.12183184165419,174.01213608042525</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.12157406629931,174.01297809207855</t>
+          <t>-35.121570897911575,174.012976821117</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12019,12 +12047,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.12171983464264,174.012091150864</t>
+          <t>-35.12170450646436,174.01208500225653</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.12152037496984,174.012956554447</t>
+          <t>-35.121515922100215,174.01295476823324</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12041,12 +12069,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.121711528311444,174.01208781893675</t>
+          <t>-35.1217204340686,174.0120913913124</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.12148783476786,174.01294350135112</t>
+          <t>-35.12149048936336,174.01294456620852</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12063,12 +12091,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.12167975873437,174.01207507518018</t>
+          <t>-35.12167933057295,174.01207490343148</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.1215059887755,174.0129507836033</t>
+          <t>-35.121505903143394,174.01295074925304</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -12085,12 +12113,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.12170168059905,174.01208386871463</t>
+          <t>-35.12168909265342,174.01207881930165</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.12155693987895,174.01297122201748</t>
+          <t>-35.12155325769851,174.01296974495475</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -12107,12 +12135,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.121769330098324,174.01211100504293</t>
+          <t>-35.1217824318359,174.012116260565</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.12156901400535,174.01297606541021</t>
+          <t>-35.12157278181779,174.01297757682386</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12129,12 +12157,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.12174980593981,174.01210317328773</t>
+          <t>-35.12176410652965,174.01210890970452</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.12153416173911,174.01296208484084</t>
+          <t>-35.1215383577123,174.01296376800457</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -12151,12 +12179,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.121885789978016,174.01215772085538</t>
+          <t>-35.121905913557896,174.01216579308684</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.12170936500305,174.0130323656649</t>
+          <t>-35.12171527361664,174.0130347358447</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12173,12 +12201,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-35.12161707589816,174.0120499311943</t>
+          <t>-35.121622470732675,174.0120520952243</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-35.121440737103974,174.01292460873125</t>
+          <t>-35.121442364114245,174.01292526138502</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -12195,12 +12223,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.12173995822805,174.01209922306182</t>
+          <t>-35.12173499155596,174.01209723077432</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.12157226802519,174.012977370722</t>
+          <t>-35.121570897911575,174.012976821117</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12217,12 +12245,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.1217075892265,174.0120862388478</t>
+          <t>-35.121718807055274,174.01209073866679</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.12152114565882,174.01295686359938</t>
+          <t>-35.12152439967892,174.0129581689096</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12239,12 +12267,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.12170930187214,174.01208692584297</t>
+          <t>-35.121693716796734,174.01208067418787</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.12154255368547,174.01296545116847</t>
+          <t>-35.12153801518387,174.01296363060345</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12261,12 +12289,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.12165389778361,174.0120647015637</t>
+          <t>-35.121674192635794,174.01207284244757</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.12150213533052,174.01294923784192</t>
+          <t>-35.12150804394615,174.01295160800942</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -12283,12 +12311,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.12168198517379,174.01207596827328</t>
+          <t>-35.12166854090488,174.01207057536558</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.12159050766238,174.01298468733992</t>
+          <t>-35.12158656858585,174.01298310722498</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -12305,12 +12333,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.121728483502835,174.01209462019108</t>
+          <t>-35.12171255589882,174.0120882311339</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.12159093582288,174.01298485909157</t>
+          <t>-35.12158631168956,174.012983004174</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -12327,12 +12355,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.12170073864395,174.01208349086733</t>
+          <t>-35.12170202312818,174.01208400611364</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.121526968642144,174.01295919941774</t>
+          <t>-35.121527311170574,174.01295933681882</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -12349,12 +12377,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.12179784564447,174.01212244353437</t>
+          <t>-35.12180606634221,174.012125741119</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.121573723770894,174.0129779546773</t>
+          <t>-35.12157612146972,174.01297891648608</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12371,12 +12399,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.12182413475039,174.01213298893762</t>
+          <t>-35.12182764567325,174.01213439728193</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.121593333521616,174.01298582090078</t>
+          <t>-35.121594361106794,174.01298623310473</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12393,12 +12421,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.12170108117308,174.01208362826634</t>
+          <t>-35.12171084325318,174.01208754413867</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.121542296789144,174.0129653481176</t>
+          <t>-35.12154520828072,174.01296651602735</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12415,12 +12443,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.12170656163913,174.0120858266507</t>
+          <t>-35.1216944874873,174.0120809833356</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.12154246805336,174.0129654168182</t>
+          <t>-35.121538957137055,174.01296400845655</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12437,12 +12465,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.12165595295855,174.0120655259568</t>
+          <t>-35.121670852976614,174.01207150280817</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.1214915169487,174.0129449784114</t>
+          <t>-35.1214958841864,174.01294673027382</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12459,12 +12487,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.12163189028491,174.0120558736901</t>
+          <t>-35.121638569603654,174.0120585529664</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.12147627443252,174.0129388640696</t>
+          <t>-35.12147815833902,174.01293961977464</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12481,12 +12509,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.12174338351912,174.01210059705332</t>
+          <t>-35.12175982491597,174.01210719221424</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-35.12152482783946,174.01295834066096</t>
+          <t>-35.12152962323747,174.0129602642762</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12503,12 +12531,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.121743811680496,174.01210076880227</t>
+          <t>-35.12176059560643,174.0121075013625</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.12152328646152,174.0129577223561</t>
+          <t>-35.12152816749165,174.01295968032156</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12525,12 +12553,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.12171075762092,174.0120875097889</t>
+          <t>-35.12169868346918,174.0120826664733</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.12153638817388,174.0129629779481</t>
+          <t>-35.12153287725752,174.01296156958668</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12547,12 +12575,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.121644735128605,174.01206102614492</t>
+          <t>-35.12166348859991,174.01206854873195</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.12153433300332,174.0129621535414</t>
+          <t>-35.121539813458085,174.01296435195937</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12569,12 +12597,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.12177078584695,174.0121115889897</t>
+          <t>-35.12177883528051,174.0121148178725</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.12156541745707,174.01297462269733</t>
+          <t>-35.12156781515593,174.0129755845059</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12591,12 +12619,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.12175151858533,174.01210386028364</t>
+          <t>-35.121759225490045,174.01210695176565</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.12156952779795,174.01297627151206</t>
+          <t>-35.12157175423258,174.0129771646201</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12613,12 +12641,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.121671281138056,174.0120716745568</t>
+          <t>-35.121681214483225,174.01207565912566</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-35.12128223202998,174.01286102664207</t>
+          <t>-35.1212851435228,174.01286219454417</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12635,12 +12663,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.12153563958074,174.01201726468165</t>
+          <t>-35.1215509677633,174.01202341326302</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.12152063186617,174.0129566574978</t>
+          <t>-35.12152508473579,174.01295844371177</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12658,7 +12686,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.12157064101527,174.01297671806608</t>
+          <t>-35.12157098354367,174.01297685546734</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12675,12 +12703,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.12184305948065,174.01214058025832</t>
+          <t>-35.121854277306916,174.01214508009264</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.121636748993666,174.01300323652725</t>
+          <t>-35.12164000301314,174.01300454184124</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -12697,12 +12725,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.121820880724314,174.01213168364305</t>
+          <t>-35.12183466751889,174.01213721397087</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.121643171400514,174.01300581280495</t>
+          <t>-35.12164719610877,174.01300742727256</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12719,12 +12747,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.12177609504783,174.01211371867828</t>
+          <t>-35.12179878759943,174.01212282138255</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.12167168688607,174.01301725148306</t>
+          <t>-35.121678280556715,174.01301989646385</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -12741,12 +12769,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-35.12176513411693,174.01210932190222</t>
+          <t>-35.12175151858533,174.01210386028364</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.12161876625415,174.01299602295185</t>
+          <t>-35.12161474154571,174.01299440848544</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12763,12 +12791,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.12177087147922,174.01211162333956</t>
+          <t>-35.1217779789578,174.0121144743743</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.121566873202816,174.01297520665256</t>
+          <t>-35.12156901400535,174.01297606541021</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12785,12 +12813,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.121718721422994,174.01209070431702</t>
+          <t>-35.121739701331215,174.01209912001244</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.12150710199293,174.0129512301566</t>
+          <t>-35.12151326750483,174.01295370337516</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -12807,12 +12835,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.12160645749356,174.01204567183447</t>
+          <t>-35.121620501189916,174.01205130518156</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.121438339404634,174.01292364692574</t>
+          <t>-35.121442449746375,174.01292529573522</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12829,12 +12857,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.12170895934301,174.01208678844392</t>
+          <t>-35.121699025998296,174.0120828038723</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.121545893337554,174.01296679082964</t>
+          <t>-35.121542981846,174.0129656229199</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -12851,12 +12879,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.121826018660215,174.01213374463455</t>
+          <t>-35.12181257439451,174.01212835170733</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-35.12171869889984,174.01303610986216</t>
+          <t>-35.12171475982416,174.0130345297421</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -12873,12 +12901,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.12179287897286,174.01212045124396</t>
+          <t>-35.12178988184343,174.01211924899988</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.1215814306599,174.0129810462057</t>
+          <t>-35.121580574338914,174.01298070270252</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -12895,12 +12923,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.121768730672414,174.01211076459424</t>
+          <t>-35.121772241595586,174.01211217293655</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.12158699674636,174.0129832789766</t>
+          <t>-35.12158802433154,174.0129836911805</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -12917,12 +12945,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.12178140424865,174.01211584836713</t>
+          <t>-35.121790909430665,174.01211966119786</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.12161542660247,174.0129946832882</t>
+          <t>-35.12161816682949,174.0129957824994</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12939,12 +12967,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.121682584599796,174.01207620872142</t>
+          <t>-35.12166460181966,174.0120689952783</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.12154692092282,174.01296720303313</t>
+          <t>-35.121541611732304,174.01296507331534</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -12961,12 +12989,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.12171144267915,174.01208778458698</t>
+          <t>-35.121696114500665,174.01208163598082</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.12158888065252,174.01298403468374</t>
+          <t>-35.12158442778338,174.01298224846693</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -12983,12 +13011,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-35.12168977771168,174.0120790940996</t>
+          <t>-35.1217093875044,174.01208696019273</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.12158297203769,174.01298166451144</t>
+          <t>-35.121588709388334,174.0129839659831</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13005,12 +13033,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-35.12170202312818,174.01208400611364</t>
+          <t>-35.12171178520828,174.01208792198602</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.12152328646152,174.0129577223561</t>
+          <t>-35.12152611232107,174.012958855915</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13027,12 +13055,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.12167736103037,174.0120741133876</t>
+          <t>-35.121664773084234,174.01206906397775</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.121600869146185,174.01298884373003</t>
+          <t>-35.12159718696602,174.01298736666567</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13050,7 +13078,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.12163888979597,174.01300409528645</t>
+          <t>-35.12163966048478,174.01300440443978</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -13067,12 +13095,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.12173036741296,174.01209537588616</t>
+          <t>-35.12171546739636,174.01208939902588</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.12155128816011,174.01296895489799</t>
+          <t>-35.12154692092282,174.01296720303313</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13089,12 +13117,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.12173490592368,174.01209719642452</t>
+          <t>-35.121747836397475,174.01210238324248</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.12153304852174,174.0129616382872</t>
+          <t>-35.1215368163344,174.0129631496995</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13111,12 +13139,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.121639169029706,174.0120587934143</t>
+          <t>-35.12162512533378,174.0120531600646</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.1214623163977,174.0129332649834</t>
+          <t>-35.121458206056104,174.0129316161731</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13133,12 +13161,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.12178328815861,174.0121166040632</t>
+          <t>-35.12177506746056,174.01211330648047</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.12161645418761,174.01299509549239</t>
+          <t>-35.12161405648894,174.01299413368264</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13155,12 +13183,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.12168087195408,174.01207552172673</t>
+          <t>-35.12169397369359,174.01208077723712</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.121512239919525,174.01295329117204</t>
+          <t>-35.12151609336443,174.01295483693377</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13177,12 +13205,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.12174655191334,174.0121018679956</t>
+          <t>-35.12176085250325,174.0121076044119</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.121545893337554,174.01296679082964</t>
+          <t>-35.12155008931066,174.01296847399388</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13199,12 +13227,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.12170322198013,174.0120844870102</t>
+          <t>-35.12172034843632,174.01209135696263</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.12158434215127,174.0129822141166</t>
+          <t>-35.121589308813014,174.01298420643536</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13221,12 +13249,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.121733278910405,174.01209654377868</t>
+          <t>-35.12172137602367,174.01209176915987</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.121585198472275,174.0129825576198</t>
+          <t>-35.12158177318831,174.01298118360697</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13243,12 +13271,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.121686266788025,174.0120776857602</t>
+          <t>-35.12170031048253,174.01208331911857</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.121451184222465,174.0129287994559</t>
+          <t>-35.121455208932,174.0129304139157</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13265,12 +13293,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.121681642644646,174.01207583087435</t>
+          <t>-35.12168566736204,174.012077445312</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.12152191634779,174.0129571727518</t>
+          <t>-35.1215230295652,174.0129576193053</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13287,7 +13315,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.12184220315802,174.01214023675956</t>
+          <t>-35.12184023361599,174.01213944671247</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -13305,12 +13333,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.12179878759943,174.01212282138255</t>
+          <t>-35.12180161346428,174.01212395492723</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.12155736803947,174.01297139376896</t>
+          <t>-35.12155822436049,174.01297173727195</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13327,12 +13355,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.12166631446541,174.01206968227274</t>
+          <t>-35.121654925371075,174.01206511376026</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.12149459970473,174.01294621502015</t>
+          <t>-35.121491260052366,174.01294487536072</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13350,7 +13378,7 @@
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.12156772952382,174.0129755501556</t>
+          <t>-35.121562591597716,174.0129734891373</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13367,12 +13395,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-35.12174757950065,174.0121022801931</t>
+          <t>-35.12173250821991,174.01209623463063</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.12161328580009,174.0129938245295</t>
+          <t>-35.12160891856323,174.01299207266194</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13389,12 +13417,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.12185050948743,174.01214356869775</t>
+          <t>-35.12186909168783,174.01215102262387</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.121615084074094,174.0129945458868</t>
+          <t>-35.12162047889602,174.01299670995888</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13411,12 +13439,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.12174620938423,174.0121017305964</t>
+          <t>-35.12173113810346,174.01209568503418</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.12159307662534,174.01298571784977</t>
+          <t>-35.121588709388334,174.0129839659831</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13433,12 +13461,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.121665886303965,174.01206951052416</t>
+          <t>-35.12165612422313,174.01206559465624</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.12156327665454,174.01297376393973</t>
+          <t>-35.12156045079516,174.01297263037975</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13455,12 +13483,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.12177052895014,174.01211148594027</t>
+          <t>-35.12179536230867,174.01212144738912</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.12146779685313,174.01293546339738</t>
+          <t>-35.121475075582914,174.01293838316644</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13477,12 +13505,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.1216057724352,174.01204539703713</t>
+          <t>-35.121611338534414,174.01204762976587</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.121495456025855,174.0129465585226</t>
+          <t>-35.121497083035976,174.01294721117728</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13499,12 +13527,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-35.12167230872549,174.01207208675353</t>
+          <t>-35.12168823633058,174.01207847580426</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.121449129051626,174.01292797505096</t>
+          <t>-35.12145375318601,174.01292982996213</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13521,12 +13549,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.12168172827693,174.0120758652241</t>
+          <t>-35.12170373577383,174.01208469310873</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.121467711221015,174.01293542904716</t>
+          <t>-35.12147413362966,174.0129380053139</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13543,12 +13571,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.12177952033869,174.01211509267105</t>
+          <t>-35.12179142322428,174.01211986729683</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.12159624501293,174.01298698881203</t>
+          <t>-35.12159967029684,174.01298836282533</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13565,12 +13593,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.12176753182059,174.0121102836969</t>
+          <t>-35.121777465164165,174.01211426827535</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.12153690196651,174.01296318404977</t>
+          <t>-35.121539813458085,174.01296435195937</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13587,12 +13615,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.12174954904298,174.01210307023834</t>
+          <t>-35.12176230825192,174.01210818835858</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.121520803130394,174.01295672619833</t>
+          <t>-35.12152457094314,174.01295823761015</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13609,12 +13637,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.12165800813347,174.01206635034998</t>
+          <t>-35.12164576271609,174.01206143834136</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.12149502786529,174.01294638677138</t>
+          <t>-35.121491431316585,174.01294494406116</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13631,12 +13659,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.12164807478792,174.01206236578346</t>
+          <t>-35.121651071918066,174.01206356802325</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.12148774913575,174.01294346700087</t>
+          <t>-35.121488605456875,174.01294381050326</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13653,12 +13681,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.12164893111082,174.0120627092805</t>
+          <t>-35.121647903523346,174.01206229708404</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.12149639797908,174.0129469363753</t>
+          <t>-35.12149614108275,174.01294683332458</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13676,7 +13704,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.12159290536114,174.01298564914913</t>
+          <t>-35.12159513179567,174.0129865422577</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13693,12 +13721,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.12168369781949,174.01207665526803</t>
+          <t>-35.12167059607977,174.01207139975898</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.12156002263464,174.01297245862824</t>
+          <t>-35.12155625482212,174.01297094721508</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13715,12 +13743,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.12168541046518,174.0120773422628</t>
+          <t>-35.12169602886838,174.01208160163105</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.12151866232768,174.0129558674417</t>
+          <t>-35.12152174508357,174.01295710405125</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -13737,12 +13765,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.12173464902686,174.01209709337516</t>
+          <t>-35.12171803636475,174.01209042951888</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.12149185947715,174.01294511581239</t>
+          <t>-35.12148697844674,174.01294315784875</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13759,12 +13787,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.121752203643524,174.012104135082</t>
+          <t>-35.12173644730468,174.01209781472062</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.121617224876445,174.01299540464552</t>
+          <t>-35.121612686375435,174.0129935840771</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -13781,12 +13809,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.121715381764076,174.01208936467611</t>
+          <t>-35.12170870244616,174.01208668539465</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.1215747513561,174.01297836688104</t>
+          <t>-35.12157278181779,174.01297757682386</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -13803,12 +13831,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.12168249896751,174.0120761743717</t>
+          <t>-35.12168686621401,174.01207792620838</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.12161251511124,174.0129935153764</t>
+          <t>-35.12161379959266,174.01299403063157</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -13825,12 +13853,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-35.12170416393525,174.0120848648575</t>
+          <t>-35.12169440185502,174.01208094898584</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.12155762493576,174.01297149681986</t>
+          <t>-35.12155471344426,174.01297032890977</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -13847,12 +13875,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.12167402137122,174.01207277374812</t>
+          <t>-35.121659720779235,174.0120670373443</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.12153775828756,174.0129635275526</t>
+          <t>-35.12153356231437,174.01296184438888</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -13869,12 +13897,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.12171803636475,174.01209042951888</t>
+          <t>-35.12173850247933,174.01209863911544</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.12150478992596,174.01295030269975</t>
+          <t>-35.12151069854156,174.01295267286736</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -13891,12 +13919,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.12189632274544,174.01216194589517</t>
+          <t>-35.12190668424818,174.0121661022362</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.12166817597049,174.01301584311685</t>
+          <t>-35.12167117309354,174.01301704538068</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -13913,12 +13941,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.12175674215409,174.01210595562137</t>
+          <t>-35.12174209903497,174.0121000818065</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.121670488036855,174.0130167705775</t>
+          <t>-35.121666206432494,174.0130150530578</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -13935,12 +13963,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.1217009955408,174.0120835939166</t>
+          <t>-35.12170082427623,174.0120835252171</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.12154692092282,174.01296720303313</t>
+          <t>-35.121546835290694,174.01296716868282</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -13979,12 +14007,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.12171812199704,174.01209046386865</t>
+          <t>-35.12173002488384,174.01209523848706</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.12148492327602,174.01294233344305</t>
+          <t>-35.121488434192656,174.0129437418028</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14001,12 +14029,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.121746123751954,174.01210169624662</t>
+          <t>-35.12173079557435,174.01209554763506</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.12161328580009,174.0129938245295</t>
+          <t>-35.121608747299035,174.01299200396124</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14023,12 +14051,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.12167153803492,174.012071777606</t>
+          <t>-35.121693374267615,174.0120805367889</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.12152551289631,174.0129586154631</t>
+          <t>-35.12153184967224,174.01296115738336</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14045,12 +14073,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.12169808404318,174.01208242602505</t>
+          <t>-35.121681899541514,174.01207593392354</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.121585883529065,174.0129828324224</t>
+          <t>-35.121581088131514,174.01298090880442</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14067,12 +14095,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.12171358348618,174.01208864333108</t>
+          <t>-35.12172266050787,174.01209228440644</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.121530222662216,174.0129605047281</t>
+          <t>-35.12153287725752,174.01296156958668</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -14089,12 +14117,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.12166511561339,174.01206920137665</t>
+          <t>-35.1216722230932,174.0120720524038</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.12150033705621,174.0129485164867</t>
+          <t>-35.12150239222687,174.01294934089267</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14111,12 +14139,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.12169311737076,174.01208043373964</t>
+          <t>-35.1217071610651,174.01208606709898</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.121488691089,174.01294384485348</t>
+          <t>-35.12149271579826,174.01294545931484</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14133,12 +14161,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.12165038685975,174.01206329322557</t>
+          <t>-35.12164088167551,174.01205948040828</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.12150487555807,174.01295033705</t>
+          <t>-35.12150213533052,174.01294923784192</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14155,12 +14183,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.121637285119284,174.01205803772092</t>
+          <t>-35.121629235683834,174.01205480884965</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.12150624567183,174.01295088665404</t>
+          <t>-35.12150384797275,174.01294992484696</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14177,12 +14205,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.12151560162082,174.01200922687488</t>
+          <t>-35.12153307061155,174.01201623419337</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.12134996705049,174.01288819756329</t>
+          <t>-35.121355019346275,174.01289022422046</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14199,12 +14227,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.12171486797039,174.01208915857754</t>
+          <t>-35.12169953979198,174.0120830099708</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.12153458989965,174.01296225659223</t>
+          <t>-35.121530051398,174.01296043602758</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14221,12 +14249,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.12154360338514,174.0120204591957</t>
+          <t>-35.12156072984585,174.01202732912057</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.121416931374284,174.01291505937917</t>
+          <t>-35.121421983669514,174.01291708603972</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14244,7 +14272,7 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.12157877606481,174.01297998134586</t>
+          <t>-35.12158417088709,174.01298214541595</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14261,12 +14289,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.12169620013296,174.01208167033056</t>
+          <t>-35.12170544841946,174.01208538010385</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.12150162153787,174.01294903174042</t>
+          <t>-35.12150436176541,174.01295013094847</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14283,7 +14311,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.12184888247447,174.01214291605</t>
+          <t>-35.12183697959001,174.01213814141732</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -14301,12 +14329,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.12169517254556,174.01208125813358</t>
+          <t>-35.12169345989989,174.01208057113863</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.121527568066895,174.01295943986963</t>
+          <t>-35.12152705427426,174.01295923376802</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14323,12 +14351,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.12172668522498,174.0120938988458</t>
+          <t>-35.12171075762092,174.0120875097889</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.121545293912824,174.01296655037766</t>
+          <t>-35.12154066977916,174.01296469546222</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14345,12 +14373,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.12171229900198,174.01208812808463</t>
+          <t>-35.12169671392666,174.01208187642905</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.12153039392643,174.01296057342864</t>
+          <t>-35.12152585542474,174.0129587528642</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14367,12 +14395,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.12160423105386,174.01204477874307</t>
+          <t>-35.12162623855359,174.01205360661052</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-35.12147327730851,174.01293766181166</t>
+          <t>-35.12147969971708,174.0129402380788</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14389,12 +14417,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.12169748461721,174.0120821855768</t>
+          <t>-35.12171041509178,174.01208737238986</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.12147113650563,174.01293680305605</t>
+          <t>-35.12147490431869,174.01293831446597</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14411,12 +14439,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.121643707541125,174.01206061394848</t>
+          <t>-35.121651756976384,174.0120638428209</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.12150795831403,174.01295157365914</t>
+          <t>-35.12151035601312,174.01295253546633</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14433,12 +14461,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.121571348251244,174.0120315884755</t>
+          <t>-35.12158299424404,174.01203626002734</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.121400233110094,174.012908361096</t>
+          <t>-35.121403658395096,174.0129097351026</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14455,12 +14483,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.12162127188057,174.01205161432873</t>
+          <t>-35.12162298452645,174.0120523013224</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.12139047104775,174.01290444517795</t>
+          <t>-35.121390984840495,174.0129046512789</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14478,7 +14506,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.12149305832671,174.01294559671578</t>
+          <t>-35.121497939357084,174.01294755467976</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14496,7 +14524,7 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.12141872964886,174.0129157807329</t>
+          <t>-35.12142438136894,174.01291804784483</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14513,12 +14541,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.121680358160376,174.0120753156283</t>
+          <t>-35.12168506793603,174.01207720486383</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.12151840543137,174.01295576439088</t>
+          <t>-35.121519775545096,174.01295631399512</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14557,12 +14585,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.12161895980863,174.01205068688728</t>
+          <t>-35.1216263241859,174.0120536409602</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.121472592251585,174.01293738700986</t>
+          <t>-35.121474733054455,174.0129382457655</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14579,12 +14607,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.12174149960903,174.01209984135798</t>
+          <t>-35.12175896859322,174.01210684871623</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.12151857669558,174.0129558330914</t>
+          <t>-35.121523628989955,174.01295785975717</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14601,12 +14629,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.12160954025621,174.0120469084227</t>
+          <t>-35.12159609598569,174.0120415155248</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.1214356848089,174.0129225820697</t>
+          <t>-35.12143174573137,174.01292100196088</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14623,12 +14651,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.12156715226849,174.01202990534316</t>
+          <t>-35.12157554423396,174.01203327160798</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.12150667383239,174.01295105840532</t>
+          <t>-35.12150907153147,174.01295202021248</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14645,12 +14673,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.12163788454533,174.0120582781688</t>
+          <t>-35.12164285121822,174.01206027045143</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.12150204969843,174.01294920349167</t>
+          <t>-35.1215035054443,174.01294978744596</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14667,12 +14695,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.1217690732015,174.01211090199348</t>
+          <t>-35.12177575251874,174.012113581279</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.12155659735053,174.01297108461628</t>
+          <t>-35.1215584812568,174.01297184032285</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14689,12 +14717,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.12171289842793,174.01208836853297</t>
+          <t>-35.121700139217964,174.01208325041907</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.12155771056787,174.01297153117014</t>
+          <t>-35.121554028387436,174.0129700541074</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14711,12 +14739,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.12176633296876,174.01210980279953</t>
+          <t>-35.12177892091278,174.0121148522223</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.12154769161176,174.01296751218572</t>
+          <t>-35.12155137379222,174.01296898924826</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -14733,12 +14761,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.12173130936801,174.01209575373372</t>
+          <t>-35.121716409351436,174.01208977687332</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.121590336398185,174.01298461863928</t>
+          <t>-35.12158596916115,174.01298286677272</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -14755,12 +14783,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.12170510589034,174.0120852427048</t>
+          <t>-35.1217204340686,174.0120913913124</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.12151831979924,174.01295573004063</t>
+          <t>-35.121522858300985,174.01295755060477</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -14777,7 +14805,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.12165072938891,174.0120634306244</t>
+          <t>-35.12165090065349,174.01206349932383</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -14799,12 +14827,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.12166151905729,174.0120677586884</t>
+          <t>-35.121652955828424,174.01206432371686</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.121471821562544,174.01293707785783</t>
+          <t>-35.12146933823121,174.01293608170138</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -14821,12 +14849,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.12169705645578,174.01208201382804</t>
+          <t>-35.121707674858776,174.01208627319755</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.12150924279568,174.012952088913</t>
+          <t>-35.12151241118374,174.01295335987254</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -14843,12 +14871,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.121726257063585,174.0120937270969</t>
+          <t>-35.12171332658934,174.01208854028178</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.12156738699541,174.01297541275437</t>
+          <t>-35.12156361918295,174.01297390134096</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -14865,12 +14893,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-35.121657408707456,174.01206610990198</t>
+          <t>-35.12165698054601,174.0120659381534</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.12150949969201,174.01295219196376</t>
+          <t>-35.1215094140599,174.0129521576135</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -14887,7 +14915,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-35.1216037172601,174.01204457264504</t>
+          <t>-35.12160200461417,174.01204388565168</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -14905,12 +14933,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.12181223186544,174.01212821430792</t>
+          <t>-35.121817455433685,174.01213030964885</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.12159513179567,174.0129865422577</t>
+          <t>-35.12159667317344,174.01298716056368</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -14927,12 +14955,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.121690719666816,174.01207947194678</t>
+          <t>-35.12167667597208,174.01207383858977</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.121539556561785,174.0129642489085</t>
+          <t>-35.1215354462207,174.01296260009502</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -14949,12 +14977,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.12169149035737,174.01207978109449</t>
+          <t>-35.121674363900375,174.01207291114702</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.121594018578406,174.0129860957034</t>
+          <t>-35.12158896628462,174.01298406903408</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -14972,7 +15000,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.12151960428087,174.01295624529462</t>
+          <t>-35.12152388588627,174.01295796280797</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -14989,12 +15017,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.121663060438486,174.01206837698334</t>
+          <t>-35.121650472492036,174.01206332757528</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.12146043249114,174.01293250927864</t>
+          <t>-35.12145675031012,174.01293103221948</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15011,12 +15039,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.12165800813347,174.01206635034998</t>
+          <t>-35.12166657136227,174.01206978532193</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.121458462952454,174.01293171922373</t>
+          <t>-35.12146094628384,174.01293271537992</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15033,12 +15061,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.12169620013296,174.01208167033056</t>
+          <t>-35.1216923466802,174.01208012459193</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.12153715886282,174.01296328710063</t>
+          <t>-35.12153604564545,174.01296284054698</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15055,12 +15083,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.121683954716346,174.01207675831725</t>
+          <t>-35.12168695184631,174.01207796055814</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.12151806290293,174.01295562698985</t>
+          <t>-35.12151891922401,174.01295597049247</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15077,12 +15105,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.121609711520804,174.01204697712205</t>
+          <t>-35.1216056868029,174.01204536268745</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.121426950332584,174.01291907835036</t>
+          <t>-35.12142575148288,174.0129185974478</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15099,12 +15127,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-35.12172051970087,174.01209142566216</t>
+          <t>-35.12171075762092,174.0120875097889</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.121527653699005,174.0129594742199</t>
+          <t>-35.121524742207356,174.01295830631068</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15121,12 +15149,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-35.121687808169156,174.01207830405554</t>
+          <t>-35.12170724669738,174.01208610144874</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.121486892814616,174.0129431234985</t>
+          <t>-35.12149254453404,174.01294539061433</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15143,12 +15171,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-35.12165646675228,174.0120657320551</t>
+          <t>-35.12166554377481,174.01206937312526</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-35.121497768092865,174.01294748597925</t>
+          <t>-35.12150042268831,174.01294855083694</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15165,12 +15193,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.121723859359776,174.01209276530327</t>
+          <t>-35.12174372604823,174.01210073445247</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.121546664026496,174.01296709998226</t>
+          <t>-35.121552487009566,174.01296943580206</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -15187,12 +15215,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.12165543916481,174.01206531985852</t>
+          <t>-35.121645505819224,174.01206133529226</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.12147216409102,174.01293721525875</t>
+          <t>-35.121469252599105,174.01293604735116</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15209,12 +15237,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.121664516187366,174.0120689609286</t>
+          <t>-35.121652613299275,174.012064186318</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.12153587438124,174.01296277184642</t>
+          <t>-35.12153244909698,174.0129613978353</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15231,12 +15259,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-35.12171503923495,174.01208922727704</t>
+          <t>-35.12172668522498,174.0120938988458</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.121526797377925,174.01295913071718</t>
+          <t>-35.121530222662216,174.0129605047281</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -15253,12 +15281,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.121661604689585,174.0120677930381</t>
+          <t>-35.12166485871652,174.01206909832746</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.12152011807353,174.0129564513962</t>
+          <t>-35.121521060026716,174.01295682924913</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -15275,12 +15303,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-35.12168669494946,174.0120778575089</t>
+          <t>-35.121673250680644,174.01207246460055</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.12154058414705,174.0129646611119</t>
+          <t>-35.12153664507018,174.01296308099893</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -15297,7 +15325,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.12176059560643,174.0121075013625</t>
+          <t>-35.12176145192917,174.01210784486054</t>
         </is>
       </c>
       <c r="C254" t="inlineStr"/>
@@ -15315,12 +15343,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.12171375475075,174.0120887120306</t>
+          <t>-35.12169560070698,174.01208142988233</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.12161996510346,174.01299650385678</t>
+          <t>-35.1216146559136,174.01299437413508</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -15337,12 +15365,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-35.121704420832074,174.01208496790676</t>
+          <t>-35.12171195647285,174.01208799068556</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.121534761163865,174.0129623252928</t>
+          <t>-35.12153698759861,174.01296321840007</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -15359,12 +15387,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-35.121735676614186,174.01209750557257</t>
+          <t>-35.12174929214616,174.01210296718898</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.1215448657523,174.0129663786262</t>
+          <t>-35.12154889046121,174.0129679930898</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -15381,12 +15409,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.12172916856106,174.01209489498927</t>
+          <t>-35.121737560524295,174.0120982612678</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.121526797377925,174.01295913071718</t>
+          <t>-35.12152928070904,174.0129601268751</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -15403,12 +15431,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-35.12179853070262,174.01212271833305</t>
+          <t>-35.12182464854398,174.01213319503677</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.121627158199324,174.01299938928662</t>
+          <t>-35.121634693823474,174.01300241211845</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15425,12 +15453,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.12171769383564,174.0120902921198</t>
+          <t>-35.121736019143285,174.0120976429717</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.12150616003972,174.0129508523038</t>
+          <t>-35.12151146923054,174.0129529820197</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15447,12 +15475,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-35.12162315579103,174.01205237002176</t>
+          <t>-35.12161707589816,174.0120499311943</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.12152465657525,174.0129582719604</t>
+          <t>-35.121522858300985,174.01295755060477</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15469,12 +15497,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-35.12173644730468,174.01209781472062</t>
+          <t>-35.12174638064878,174.01210179929598</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-35.12151814853503,174.01295566134007</t>
+          <t>-35.121521060026716,174.01295682924913</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -15491,12 +15519,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.12166066273441,174.0120674151912</t>
+          <t>-35.121669568492315,174.01207098756228</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.12152294393308,174.01295758495502</t>
+          <t>-35.12152551289631,174.0129586154631</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15513,12 +15541,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.1217401294926,174.01209929176136</t>
+          <t>-35.12173627604013,174.01209774602106</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.1215842565192,174.01298217976628</t>
+          <t>-35.12158314330188,174.0129817332121</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -15535,12 +15563,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-35.12170005358569,174.0120832160693</t>
+          <t>-35.12168498230376,174.0120771705141</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.121560193898844,174.01297252732886</t>
+          <t>-35.1215558266616,174.0129707754636</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -15558,7 +15586,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.121540926675465,174.01296479851305</t>
+          <t>-35.12154383816704,174.01296596642274</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15575,12 +15603,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-35.121749206513876,174.01210293283916</t>
+          <t>-35.121755029508606,174.01210526862536</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.121588709388334,174.0129839659831</t>
+          <t>-35.121590336398185,174.01298461863928</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15597,12 +15625,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-35.12179656116043,174.01212192828683</t>
+          <t>-35.12179501977959,174.0121213099898</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.12159247720064,174.01298547739748</t>
+          <t>-35.12159204904015,174.01298530564586</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15619,12 +15647,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.12168652368488,174.01207778880942</t>
+          <t>-35.12167247999005,174.01207215545298</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-35.12153330541806,174.01296174133805</t>
+          <t>-35.12152928070904,174.0129601268751</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -15641,12 +15669,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.121738159950226,174.0120985017163</t>
+          <t>-35.12172557200535,174.0120934522987</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.121615940395024,174.01299488939028</t>
+          <t>-35.12161225821495,174.01299341232536</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15663,12 +15691,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-35.121641652366144,174.01205978955562</t>
+          <t>-35.121662803541604,174.01206827393418</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.121499138206644,174.0129480355832</t>
+          <t>-35.121505303718614,174.01295050880125</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15686,7 +15714,7 @@
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.12155942320993,174.01297221817615</t>
+          <t>-35.121563533550834,174.01297386699062</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15703,12 +15731,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.121692432312486,174.01208015894167</t>
+          <t>-35.12167496332637,174.01207315159516</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.12156858584485,174.01297589365868</t>
+          <t>-35.121563533550834,174.01297386699062</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -15725,12 +15753,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.121809662897434,174.01212718381248</t>
+          <t>-35.12181548589157,174.01212951960224</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.12158845249202,174.01298386293212</t>
+          <t>-35.121590165133995,174.01298454993864</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -15747,12 +15775,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.12169774151404,174.01208228862606</t>
+          <t>-35.1217081030202,174.01208644494633</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.12152885254851,174.01295995512373</t>
+          <t>-35.12153184967224,174.01296115738336</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -15769,12 +15797,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-35.12175374502447,174.0121047533784</t>
+          <t>-35.12177489619602,174.01211323778082</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.12164745300504,174.01300753032368</t>
+          <t>-35.1216536185155,174.01301000355096</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -15791,12 +15819,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.12162743740569,174.01205408750616</t>
+          <t>-35.121637370751586,174.01205807207063</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-35.12146402904003,174.01293395198775</t>
+          <t>-35.12146694053198,174.01293511989516</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -15813,7 +15841,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.12166605756854,174.01206957922358</t>
+          <t>-35.12166819837573,174.01207043796666</t>
         </is>
       </c>
       <c r="C278" t="inlineStr"/>
@@ -15831,12 +15859,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.12178705597851,174.01211811545556</t>
+          <t>-35.12177815022234,174.01211454307392</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.12157869043271,174.01297994699553</t>
+          <t>-35.12157612146972,174.01297891648608</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -15853,12 +15881,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-35.12165586732627,174.0120654916071</t>
+          <t>-35.12164978743371,174.0120630527776</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.12145563709258,174.01293058566677</t>
+          <t>-35.12145383881811,174.01292986431235</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -15875,12 +15903,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.12161125290213,174.0120475954162</t>
+          <t>-35.12162889315466,174.0120546714509</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-35.12147747328211,174.0129393449728</t>
+          <t>-35.121482611208954,174.01294140598674</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -15897,12 +15925,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.121662118483314,174.0120679991364</t>
+          <t>-35.12164867421396,174.0120626062314</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.1215230295652,174.0129576193053</t>
+          <t>-35.12151909048823,174.012956039193</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -15919,12 +15947,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-35.12158667643291,174.0120377370624</t>
+          <t>-35.12160131955579,174.01204361085436</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.12145880548092,174.01293185662456</t>
+          <t>-35.12146308708675,174.01293357413533</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -15941,12 +15969,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.1216508150212,174.01206346497412</t>
+          <t>-35.121657922501186,174.01206631600027</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.121462487661944,174.0129333336838</t>
+          <t>-35.12146462846484,174.01293419243925</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -15963,12 +15991,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.121692261047905,174.0120800902422</t>
+          <t>-35.12169123346051,174.01207967804524</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.12150890026725,174.01295195151198</t>
+          <t>-35.12150855773881,174.01295181411095</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -15985,12 +16013,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.12172933982561,174.01209496368884</t>
+          <t>-35.12173927316983,174.0120989482635</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-35.12148963304224,174.01294422270612</t>
+          <t>-35.12149254453404,174.01294539061433</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -16007,12 +16035,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.12167992999893,174.01207514387963</t>
+          <t>-35.12169911163057,174.01208283822206</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.1214915169487,174.0129449784114</t>
+          <t>-35.121497168668085,174.0129472455275</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16029,12 +16057,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-35.1216150207231,174.01204910680198</t>
+          <t>-35.121611509799,174.0120476984652</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.121428149182286,174.012919559253</t>
+          <t>-35.121427121596824,174.01291914705075</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16051,12 +16079,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.1215411200483,174.01201946305684</t>
+          <t>-35.12155302293859,174.01202423765403</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.121390642312,174.01290451387828</t>
+          <t>-35.12139406759706,174.0129058878845</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16073,12 +16101,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-35.121654668474214,174.01206501071113</t>
+          <t>-35.12166220411561,174.01206803348612</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.12150949969201,174.01295219196376</t>
+          <t>-35.12151164049477,174.01295305072023</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16095,12 +16123,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.121646619039,174.01206178183844</t>
+          <t>-35.121657408707456,174.01206610990198</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.121490318099134,174.01294449750807</t>
+          <t>-35.12149348648728,174.012945768467</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16117,12 +16145,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-35.121656894913734,174.0120659038037</t>
+          <t>-35.1216508150212,174.01206346497412</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.12143517101618,174.01292237596854</t>
+          <t>-35.121433372741656,174.01292165461453</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16139,12 +16167,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.121633346033875,174.0120564576349</t>
+          <t>-35.1216247828046,174.0120530226658</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.12145049916552,174.01292852465423</t>
+          <t>-35.121448015834076,174.0129275284983</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16161,12 +16189,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.12168181390923,174.0120758995738</t>
+          <t>-35.12169757024949,174.01208221992653</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.121481326727256,174.0129408907332</t>
+          <t>-35.12148595086137,174.0129427456459</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16183,12 +16211,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-35.121650986285765,174.0120635336735</t>
+          <t>-35.121639768455736,174.0120590338622</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-35.121460089962675,174.01293237187778</t>
+          <t>-35.12145683594222,174.0129310665697</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16205,12 +16233,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.12181771233049,174.0121304126984</t>
+          <t>-35.12182327842775,174.01213264543904</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.1216236472835,174.012997980922</t>
+          <t>-35.12162527429328,174.01299863357877</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16227,12 +16255,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.1218166847433,174.01213000050018</t>
+          <t>-35.12181951060806,174.01213113404535</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.12168778571815,174.01302370935903</t>
+          <t>-35.121688556406916,174.0130240185127</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -16249,12 +16277,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-35.12171007256267,174.01208723499082</t>
+          <t>-35.12171829326159,174.01209053256818</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.12154349563862,174.01296582902162</t>
+          <t>-35.121545893337554,174.01296679082964</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16271,12 +16299,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-35.121667855846574,174.01207030056776</t>
+          <t>-35.12165680928143,174.01206586945398</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.121537843919675,174.01296356190286</t>
+          <t>-35.12153458989965,174.01296225659223</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16293,12 +16321,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.12170656163913,174.0120858266507</t>
+          <t>-35.12169166162193,174.01207984979396</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.12159093582288,174.01298485909157</t>
+          <t>-35.12158656858585,174.01298310722498</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16315,12 +16343,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-35.12171075762092,174.0120875097889</t>
+          <t>-35.12169114782824,174.0120796436955</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.12164120186242,174.01300502274643</t>
+          <t>-35.121635464512295,174.01300272127176</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16338,7 +16366,7 @@
       <c r="B302" t="inlineStr"/>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.12158725364265,174.01298338202758</t>
+          <t>-35.12158614042537,174.01298293547336</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16356,7 +16384,7 @@
       <c r="B303" t="inlineStr"/>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-35.12162947026584,174.01300031674634</t>
+          <t>-35.12163075474724,174.01300083200175</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16373,12 +16401,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-35.12171795073248,174.0120903951691</t>
+          <t>-35.12170587658087,174.01208555185264</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.12156961343005,174.01297630586237</t>
+          <t>-35.121566102513896,174.0129748974998</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16395,15 +16423,37 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.121721804185064,174.01209194090873</t>
+          <t>-35.1217071610651,174.01208606709898</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.12158382835869,174.01298200801466</t>
+          <t>-35.12157954675372,174.0129802904987</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:11:46+00:00</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>-35.12176513411693,174.01210932190222</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>-35.12158759617105,174.01298351942887</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0057/nzd0057.xlsx
+++ b/data/nzd0057/nzd0057.xlsx
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.06</v>
+        <v>347.56</v>
       </c>
       <c r="C3" t="n">
-        <v>344.52</v>
+        <v>341.84</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.11</v>
+        <v>349.74</v>
       </c>
       <c r="C4" t="n">
-        <v>333.6</v>
+        <v>339.09</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -519,10 +519,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344.36</v>
+        <v>348.39</v>
       </c>
       <c r="C5" t="n">
-        <v>343.34</v>
+        <v>340.15</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347.21</v>
+        <v>348.16</v>
       </c>
       <c r="C6" t="n">
-        <v>336.74</v>
+        <v>339.47</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.88</v>
+        <v>348.94</v>
       </c>
       <c r="C7" t="n">
-        <v>342.78</v>
+        <v>340.02</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>363.18</v>
+        <v>354.42</v>
       </c>
       <c r="C8" t="n">
-        <v>354.79</v>
+        <v>344.77</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>346.44</v>
+        <v>354.81</v>
       </c>
       <c r="C9" t="n">
-        <v>340.44</v>
+        <v>347.62</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.23</v>
+        <v>353.34</v>
       </c>
       <c r="C10" t="n">
-        <v>356.68</v>
+        <v>348.56</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.63</v>
+        <v>352.43</v>
       </c>
       <c r="C11" t="n">
-        <v>342.38</v>
+        <v>349.53</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -645,10 +645,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>353.19</v>
+        <v>352.68</v>
       </c>
       <c r="C12" t="n">
-        <v>351.1</v>
+        <v>350.05</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.65</v>
+        <v>348.16</v>
       </c>
       <c r="C13" t="n">
-        <v>337.57</v>
+        <v>343.68</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.89</v>
+        <v>345.09</v>
       </c>
       <c r="C14" t="n">
-        <v>322.98</v>
+        <v>338.51</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>351.19</v>
+        <v>346.73</v>
       </c>
       <c r="C15" t="n">
-        <v>340.57</v>
+        <v>338.06</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>353.86</v>
+        <v>346.9</v>
       </c>
       <c r="C16" t="n">
-        <v>348.63</v>
+        <v>337.44</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>344.45</v>
+        <v>346.41</v>
       </c>
       <c r="C17" t="n">
-        <v>340.64</v>
+        <v>338.08</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -753,10 +753,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.41</v>
+        <v>348.74</v>
       </c>
       <c r="C18" t="n">
-        <v>356.24</v>
+        <v>341.1</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -771,10 +771,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>354.33</v>
+        <v>353.26</v>
       </c>
       <c r="C19" t="n">
-        <v>343.68</v>
+        <v>347.3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.46</v>
+        <v>354.4</v>
       </c>
       <c r="C20" t="n">
-        <v>345.11</v>
+        <v>348.34</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -807,10 +807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>351.95</v>
+        <v>351.58</v>
       </c>
       <c r="C21" t="n">
-        <v>348.24</v>
+        <v>345.68</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>335</v>
+        <v>347.44</v>
       </c>
       <c r="C22" t="n">
-        <v>336.72</v>
+        <v>343.44</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>338.01</v>
+        <v>343.36</v>
       </c>
       <c r="C23" t="n">
-        <v>343.27</v>
+        <v>343.34</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>365.62</v>
+        <v>347.81</v>
       </c>
       <c r="C24" t="n">
-        <v>356.49</v>
+        <v>345.97</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>347.44</v>
+        <v>350.36</v>
       </c>
       <c r="C25" t="n">
-        <v>341.81</v>
+        <v>347.19</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -897,10 +897,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>348.97</v>
+        <v>348.21</v>
       </c>
       <c r="C26" t="n">
-        <v>339.04</v>
+        <v>340.43</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -915,10 +915,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>348.43</v>
+        <v>348.28</v>
       </c>
       <c r="C27" t="n">
-        <v>350.93</v>
+        <v>343.93</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>353.94</v>
+        <v>350.45</v>
       </c>
       <c r="C28" t="n">
-        <v>351.69</v>
+        <v>347.22</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>321.74</v>
+        <v>343.27</v>
       </c>
       <c r="C29" t="n">
-        <v>323.07</v>
+        <v>341.18</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>359.84</v>
+        <v>345.99</v>
       </c>
       <c r="C30" t="n">
-        <v>352.36</v>
+        <v>344.51</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>343.16</v>
+        <v>344.67</v>
       </c>
       <c r="C31" t="n">
-        <v>335</v>
+        <v>340.53</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1005,10 +1005,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.8</v>
+        <v>351.6</v>
       </c>
       <c r="C32" t="n">
-        <v>349.6</v>
+        <v>345.65</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.09</v>
+        <v>348.47</v>
       </c>
       <c r="C33" t="n">
-        <v>332.75</v>
+        <v>342.43</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1040,9 +1040,11 @@
           <t>2004-07-06 22:00:24+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>348.47</v>
+      </c>
       <c r="C34" t="n">
-        <v>340.93</v>
+        <v>342.13</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1057,10 +1059,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>364.91</v>
+        <v>351.76</v>
       </c>
       <c r="C35" t="n">
-        <v>342.58</v>
+        <v>342.2</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1075,10 +1077,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>349.32</v>
+        <v>351.35</v>
       </c>
       <c r="C36" t="n">
-        <v>343.95</v>
+        <v>342.45</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1093,10 +1095,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>331.73</v>
+        <v>346.67</v>
       </c>
       <c r="C37" t="n">
-        <v>328.4</v>
+        <v>339.03</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1111,10 +1113,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>352.17</v>
+        <v>347.45</v>
       </c>
       <c r="C38" t="n">
-        <v>341.93</v>
+        <v>339.39</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1129,10 +1131,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>353.68</v>
+        <v>348.96</v>
       </c>
       <c r="C39" t="n">
-        <v>341</v>
+        <v>340.14</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1147,10 +1149,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>354</v>
+        <v>349.59</v>
       </c>
       <c r="C40" t="n">
-        <v>346.22</v>
+        <v>340.82</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1165,10 +1167,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>346.45</v>
+        <v>349.24</v>
       </c>
       <c r="C41" t="n">
-        <v>337.76</v>
+        <v>340.51</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1183,10 +1185,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>357.6</v>
+        <v>350.07</v>
       </c>
       <c r="C42" t="n">
-        <v>352.12</v>
+        <v>341.57</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1201,10 +1203,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>345.44</v>
+        <v>349.44</v>
       </c>
       <c r="C43" t="n">
-        <v>347.01</v>
+        <v>341.33</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1219,10 +1221,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.79</v>
+        <v>350.71</v>
       </c>
       <c r="C44" t="n">
-        <v>350.56</v>
+        <v>343.15</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1237,10 +1239,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>353.4</v>
+        <v>351.82</v>
       </c>
       <c r="C45" t="n">
-        <v>346.2</v>
+        <v>345.35</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1255,10 +1257,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>357.24</v>
+        <v>352.42</v>
       </c>
       <c r="C46" t="n">
-        <v>354.32</v>
+        <v>346.35</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1273,10 +1275,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>355.75</v>
+        <v>352.75</v>
       </c>
       <c r="C47" t="n">
-        <v>350.6</v>
+        <v>346.77</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1291,10 +1293,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>357.2</v>
+        <v>353.16</v>
       </c>
       <c r="C48" t="n">
-        <v>349.03</v>
+        <v>346.98</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1309,10 +1311,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>355.93</v>
+        <v>353.5</v>
       </c>
       <c r="C49" t="n">
-        <v>352.67</v>
+        <v>347.95</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1327,10 +1329,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>351.24</v>
+        <v>353.31</v>
       </c>
       <c r="C50" t="n">
-        <v>339.75</v>
+        <v>347.27</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1345,10 +1347,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>355.13</v>
+        <v>353.45</v>
       </c>
       <c r="C51" t="n">
-        <v>350.03</v>
+        <v>347.48</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1363,10 +1365,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>345.63</v>
+        <v>352.73</v>
       </c>
       <c r="C52" t="n">
-        <v>337.6</v>
+        <v>347.3</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1381,10 +1383,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>348.02</v>
+        <v>352.43</v>
       </c>
       <c r="C53" t="n">
-        <v>339.04</v>
+        <v>346.98</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1399,10 +1401,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>351.1</v>
+        <v>352.32</v>
       </c>
       <c r="C54" t="n">
-        <v>342.89</v>
+        <v>346.64</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1417,10 +1419,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>348.81</v>
+        <v>352.05</v>
       </c>
       <c r="C55" t="n">
-        <v>348.91</v>
+        <v>346.82</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1435,10 +1437,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>341.6</v>
+        <v>351.75</v>
       </c>
       <c r="C56" t="n">
-        <v>348.41</v>
+        <v>346.62</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1452,9 +1454,11 @@
           <t>2005-09-19 21:59:32+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>349.68</v>
+      </c>
       <c r="C57" t="n">
-        <v>330.53</v>
+        <v>343.31</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1469,10 +1473,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>353.14</v>
+        <v>347.85</v>
       </c>
       <c r="C58" t="n">
-        <v>345.03</v>
+        <v>343.22</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1487,10 +1491,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>359.25</v>
+        <v>351.33</v>
       </c>
       <c r="C59" t="n">
-        <v>348.79</v>
+        <v>343.19</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1505,10 +1509,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>351.41</v>
+        <v>354.6</v>
       </c>
       <c r="C60" t="n">
-        <v>351.72</v>
+        <v>344.02</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1523,10 +1527,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>342.47</v>
+        <v>351.57</v>
       </c>
       <c r="C61" t="n">
-        <v>347.81</v>
+        <v>344.78</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1541,10 +1545,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>364.72</v>
+        <v>354.2</v>
       </c>
       <c r="C62" t="n">
-        <v>358.28</v>
+        <v>350.33</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1559,10 +1563,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>353.56</v>
+        <v>354.28</v>
       </c>
       <c r="C63" t="n">
-        <v>347.69</v>
+        <v>350.86</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1577,10 +1581,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>352.65</v>
+        <v>353.35</v>
       </c>
       <c r="C64" t="n">
-        <v>346.49</v>
+        <v>350.07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1595,10 +1599,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>350.32</v>
+        <v>355.31</v>
       </c>
       <c r="C65" t="n">
-        <v>346.28</v>
+        <v>349.69</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1613,10 +1617,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>374.17</v>
+        <v>357.68</v>
       </c>
       <c r="C66" t="n">
-        <v>384.66</v>
+        <v>356.28</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1631,10 +1635,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>351.96</v>
+        <v>357.27</v>
       </c>
       <c r="C67" t="n">
-        <v>344.32</v>
+        <v>355.44</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1649,10 +1653,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>353.65</v>
+        <v>359.93</v>
       </c>
       <c r="C68" t="n">
-        <v>350.33</v>
+        <v>359.77</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1667,10 +1671,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>354.49</v>
+        <v>353.37</v>
       </c>
       <c r="C69" t="n">
-        <v>345.16</v>
+        <v>346.6</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1685,10 +1689,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>349.46</v>
+        <v>352.39</v>
       </c>
       <c r="C70" t="n">
-        <v>343.07</v>
+        <v>345.72</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1703,10 +1707,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>337.58</v>
+        <v>348.79</v>
       </c>
       <c r="C71" t="n">
-        <v>335.61</v>
+        <v>343.54</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1721,10 +1725,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>350.12</v>
+        <v>349.06</v>
       </c>
       <c r="C72" t="n">
-        <v>340.19</v>
+        <v>342.87</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1739,10 +1743,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>354.86</v>
+        <v>347.52</v>
       </c>
       <c r="C73" t="n">
-        <v>343.66</v>
+        <v>339.82</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1757,10 +1761,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>352.66</v>
+        <v>353.76</v>
       </c>
       <c r="C74" t="n">
-        <v>350.18</v>
+        <v>346.92</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1774,9 +1778,11 @@
           <t>2008-08-18 22:00:33+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="n">
+        <v>353.76</v>
+      </c>
       <c r="C75" t="n">
-        <v>327.54</v>
+        <v>340.46</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1791,10 +1797,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>352.32</v>
+        <v>352.49</v>
       </c>
       <c r="C76" t="n">
-        <v>354.4</v>
+        <v>344.04</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1809,10 +1815,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>341.12</v>
+        <v>348.7</v>
       </c>
       <c r="C77" t="n">
-        <v>333.2</v>
+        <v>341.33</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1827,10 +1833,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>364.85</v>
+        <v>352.76</v>
       </c>
       <c r="C78" t="n">
-        <v>343.07</v>
+        <v>339.55</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1845,10 +1851,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>354.56</v>
+        <v>353.21</v>
       </c>
       <c r="C79" t="n">
-        <v>345.68</v>
+        <v>340.78</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1863,10 +1869,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>346.65</v>
+        <v>351.9</v>
       </c>
       <c r="C80" t="n">
-        <v>342.4</v>
+        <v>341.05</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1881,10 +1887,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>343.27</v>
+        <v>350.09</v>
       </c>
       <c r="C81" t="n">
-        <v>335.37</v>
+        <v>339.94</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1899,10 +1905,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>352.46</v>
+        <v>352.36</v>
       </c>
       <c r="C82" t="n">
-        <v>339.1</v>
+        <v>341.12</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1917,9 +1923,11 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>337.49</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>344.97</v>
+      </c>
+      <c r="C83" t="n">
+        <v>338.96</v>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1933,10 +1941,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>354.58</v>
+        <v>346.89</v>
       </c>
       <c r="C84" t="n">
-        <v>334.58</v>
+        <v>337.86</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1951,10 +1959,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>346.45</v>
+        <v>346.85</v>
       </c>
       <c r="C85" t="n">
-        <v>341.87</v>
+        <v>337.73</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1969,10 +1977,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>342.11</v>
+        <v>346.06</v>
       </c>
       <c r="C86" t="n">
-        <v>332.44</v>
+        <v>336.67</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1987,10 +1995,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>350.8</v>
+        <v>346.74</v>
       </c>
       <c r="C87" t="n">
-        <v>335.78</v>
+        <v>336.52</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2005,10 +2013,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>350.38</v>
+        <v>347.75</v>
       </c>
       <c r="C88" t="n">
-        <v>343.25</v>
+        <v>337.84</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2023,10 +2031,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>346.5</v>
+        <v>346.9</v>
       </c>
       <c r="C89" t="n">
-        <v>336.17</v>
+        <v>337.35</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2040,9 +2048,11 @@
           <t>2009-12-27 22:02:38+00:00</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="n">
+        <v>346.9</v>
+      </c>
       <c r="C90" t="n">
-        <v>338.98</v>
+        <v>337.58</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2057,10 +2067,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>347.43</v>
+        <v>348.32</v>
       </c>
       <c r="C91" t="n">
-        <v>338.82</v>
+        <v>337.74</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2075,10 +2085,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>340.92</v>
+        <v>346.31</v>
       </c>
       <c r="C92" t="n">
-        <v>340.82</v>
+        <v>339.61</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -2093,10 +2103,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>352.29</v>
+        <v>347.5</v>
       </c>
       <c r="C93" t="n">
-        <v>346.75</v>
+        <v>340.8</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2111,10 +2121,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>355</v>
+        <v>348.75</v>
       </c>
       <c r="C94" t="n">
-        <v>368.33</v>
+        <v>344.73</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2128,9 +2138,11 @@
           <t>2010-07-07 22:03:37+00:00</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>348.91</v>
+      </c>
       <c r="C95" t="n">
-        <v>333.44</v>
+        <v>345.63</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2145,10 +2157,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>352.49</v>
+        <v>350.18</v>
       </c>
       <c r="C96" t="n">
-        <v>332.42</v>
+        <v>344.35</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2163,10 +2175,10 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>340.73</v>
+        <v>348.29</v>
       </c>
       <c r="C97" t="n">
-        <v>333.43</v>
+        <v>342.53</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2181,10 +2193,10 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>351.09</v>
+        <v>350.32</v>
       </c>
       <c r="C98" t="n">
-        <v>344.77</v>
+        <v>343.19</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2199,10 +2211,10 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>359.4</v>
+        <v>350.93</v>
       </c>
       <c r="C99" t="n">
-        <v>354.93</v>
+        <v>339.8</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2217,10 +2229,10 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>346.68</v>
+        <v>350.08</v>
       </c>
       <c r="C100" t="n">
-        <v>337.92</v>
+        <v>340.69</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2235,10 +2247,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>340.97</v>
+        <v>349.02</v>
       </c>
       <c r="C101" t="n">
-        <v>341.06</v>
+        <v>344.64</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2253,10 +2265,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>335.21</v>
+        <v>340.95</v>
       </c>
       <c r="C102" t="n">
-        <v>339.4</v>
+        <v>339.46</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2271,10 +2283,10 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>350.08</v>
+        <v>342.09</v>
       </c>
       <c r="C103" t="n">
-        <v>345.82</v>
+        <v>342.09</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2289,10 +2301,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>348.22</v>
+        <v>343.62</v>
       </c>
       <c r="C104" t="n">
-        <v>348.79</v>
+        <v>343.77</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2307,10 +2319,10 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>353.02</v>
+        <v>345.5</v>
       </c>
       <c r="C105" t="n">
-        <v>346.99</v>
+        <v>344.41</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2325,10 +2337,10 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>351.88</v>
+        <v>350.8</v>
       </c>
       <c r="C106" t="n">
-        <v>341.46</v>
+        <v>345.76</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2343,10 +2355,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>340.98</v>
+        <v>346.43</v>
       </c>
       <c r="C107" t="n">
-        <v>339.18</v>
+        <v>340.32</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2361,10 +2373,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>343.12</v>
+        <v>345.33</v>
       </c>
       <c r="C108" t="n">
-        <v>343.2</v>
+        <v>341.28</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2379,10 +2391,10 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>326.56</v>
+        <v>340.63</v>
       </c>
       <c r="C109" t="n">
-        <v>322.54</v>
+        <v>336.6</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2415,10 +2427,10 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>346.52</v>
+        <v>353.09</v>
       </c>
       <c r="C111" t="n">
-        <v>339.4</v>
+        <v>346.9</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2433,10 +2445,10 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>348.41</v>
+        <v>351.53</v>
       </c>
       <c r="C112" t="n">
-        <v>344.83</v>
+        <v>346.21</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2451,10 +2463,10 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>351.34</v>
+        <v>351.48</v>
       </c>
       <c r="C113" t="n">
-        <v>343.24</v>
+        <v>345.47</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2469,10 +2481,10 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>353.62</v>
+        <v>351.91</v>
       </c>
       <c r="C114" t="n">
-        <v>346.74</v>
+        <v>345.72</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2487,10 +2499,10 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>354.28</v>
+        <v>352.31</v>
       </c>
       <c r="C115" t="n">
-        <v>337.57</v>
+        <v>344.37</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2505,10 +2517,10 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>349.14</v>
+        <v>351.85</v>
       </c>
       <c r="C116" t="n">
-        <v>337.6</v>
+        <v>343.4</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2523,10 +2535,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>350.37</v>
+        <v>350.53</v>
       </c>
       <c r="C117" t="n">
-        <v>344.49</v>
+        <v>341.98</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2541,10 +2553,10 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>338.22</v>
+        <v>349.34</v>
       </c>
       <c r="C118" t="n">
-        <v>338.79</v>
+        <v>341.89</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2559,10 +2571,10 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>335.7</v>
+        <v>347.63</v>
       </c>
       <c r="C119" t="n">
-        <v>336.66</v>
+        <v>341.24</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2577,10 +2589,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>349.34</v>
+        <v>347.82</v>
       </c>
       <c r="C120" t="n">
-        <v>342.4</v>
+        <v>341.37</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2595,10 +2607,10 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>351.25</v>
+        <v>346.9</v>
       </c>
       <c r="C121" t="n">
-        <v>343.13</v>
+        <v>340.09</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2613,10 +2625,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>354.01</v>
+        <v>346.48</v>
       </c>
       <c r="C122" t="n">
-        <v>348.16</v>
+        <v>342.27</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2631,10 +2643,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>357.78</v>
+        <v>347.72</v>
       </c>
       <c r="C123" t="n">
-        <v>350.23</v>
+        <v>343.23</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2649,10 +2661,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>343.62</v>
+        <v>347.13</v>
       </c>
       <c r="C124" t="n">
-        <v>344.22</v>
+        <v>343.37</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2667,10 +2679,10 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>343.53</v>
+        <v>346.68</v>
       </c>
       <c r="C125" t="n">
-        <v>344.39</v>
+        <v>343.5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2685,10 +2697,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>350.76</v>
+        <v>347.13</v>
       </c>
       <c r="C126" t="n">
-        <v>343.84</v>
+        <v>343.54</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2703,10 +2715,10 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>354.87</v>
+        <v>347.91</v>
       </c>
       <c r="C127" t="n">
-        <v>343.03</v>
+        <v>343.49</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2721,10 +2733,10 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>341.4</v>
+        <v>348.23</v>
       </c>
       <c r="C128" t="n">
-        <v>339.76</v>
+        <v>343.58</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2739,10 +2751,10 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>343.69</v>
+        <v>348.99</v>
       </c>
       <c r="C129" t="n">
-        <v>339.3</v>
+        <v>344.01</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2757,10 +2769,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>352.8</v>
+        <v>349.37</v>
       </c>
       <c r="C130" t="n">
-        <v>372.77</v>
+        <v>346.88</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2775,10 +2787,10 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>368.01</v>
+        <v>351.05</v>
       </c>
       <c r="C131" t="n">
-        <v>344.75</v>
+        <v>347.04</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2792,9 +2804,11 @@
           <t>2014-07-26 22:11:19+00:00</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="n">
+        <v>349.83</v>
+      </c>
       <c r="C132" t="n">
-        <v>339.39</v>
+        <v>345.72</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2809,10 +2823,10 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>332.59</v>
+        <v>348.46</v>
       </c>
       <c r="C133" t="n">
-        <v>331.33</v>
+        <v>344.28</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2827,10 +2841,10 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>334.88</v>
+        <v>346.89</v>
       </c>
       <c r="C134" t="n">
-        <v>330.49</v>
+        <v>342.6</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2845,10 +2859,10 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>339.07</v>
+        <v>345.91</v>
       </c>
       <c r="C135" t="n">
-        <v>326.86</v>
+        <v>340.85</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2863,10 +2877,10 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>344.59</v>
+        <v>345.09</v>
       </c>
       <c r="C136" t="n">
-        <v>334.28</v>
+        <v>339.9</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2881,10 +2895,10 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>341.5</v>
+        <v>344.64</v>
       </c>
       <c r="C137" t="n">
-        <v>339.62</v>
+        <v>339.87</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2899,10 +2913,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>345.97</v>
+        <v>339.77</v>
       </c>
       <c r="C138" t="n">
-        <v>346.13</v>
+        <v>335.44</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2917,10 +2931,10 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>359.89</v>
+        <v>342.64</v>
       </c>
       <c r="C139" t="n">
-        <v>354.4</v>
+        <v>337.81</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2935,10 +2949,10 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>350.72</v>
+        <v>348.53</v>
       </c>
       <c r="C140" t="n">
-        <v>342.66</v>
+        <v>343.42</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2953,10 +2967,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>337.46</v>
+        <v>348.51</v>
       </c>
       <c r="C141" t="n">
-        <v>322.6</v>
+        <v>341.45</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2971,10 +2985,10 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>340.11</v>
+        <v>346.83</v>
       </c>
       <c r="C142" t="n">
-        <v>338.27</v>
+        <v>340.81</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2989,10 +3003,10 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>342.17</v>
+        <v>346.05</v>
       </c>
       <c r="C143" t="n">
-        <v>337.4</v>
+        <v>340.24</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3007,10 +3021,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>339.99</v>
+        <v>345.19</v>
       </c>
       <c r="C144" t="n">
-        <v>333.88</v>
+        <v>339.33</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3025,10 +3039,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>354.74</v>
+        <v>346.44</v>
       </c>
       <c r="C145" t="n">
-        <v>342.82</v>
+        <v>338.86</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3043,10 +3057,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>351.06</v>
+        <v>347.02</v>
       </c>
       <c r="C146" t="n">
-        <v>337.82</v>
+        <v>338.73</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3061,10 +3075,10 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>349.51</v>
+        <v>347.29</v>
       </c>
       <c r="C147" t="n">
-        <v>337.32</v>
+        <v>338.57</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3079,10 +3093,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>349.23</v>
+        <v>346.11</v>
       </c>
       <c r="C148" t="n">
-        <v>344.63</v>
+        <v>337.49</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3097,10 +3111,10 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>354.72</v>
+        <v>346.97</v>
       </c>
       <c r="C149" t="n">
-        <v>336.33</v>
+        <v>337.37</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3114,9 +3128,11 @@
           <t>2015-08-06 22:11:13+00:00</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="n">
+        <v>346.97</v>
+      </c>
       <c r="C150" t="n">
-        <v>331.37</v>
+        <v>336.83</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3131,10 +3147,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>348.8</v>
+        <v>347.14</v>
       </c>
       <c r="C151" t="n">
-        <v>342.2</v>
+        <v>337.27</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3149,10 +3165,10 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>345.02</v>
+        <v>349.13</v>
       </c>
       <c r="C152" t="n">
-        <v>343.38</v>
+        <v>338.86</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3167,10 +3183,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>359.35</v>
+        <v>351.1</v>
       </c>
       <c r="C153" t="n">
-        <v>352.56</v>
+        <v>340.7</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3185,10 +3201,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>341.84</v>
+        <v>349.95</v>
       </c>
       <c r="C154" t="n">
-        <v>334.36</v>
+        <v>340.03</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3203,10 +3219,10 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>351.31</v>
+        <v>349.26</v>
       </c>
       <c r="C155" t="n">
-        <v>345.8</v>
+        <v>341.61</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3221,10 +3237,10 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>343.5</v>
+        <v>348.3</v>
       </c>
       <c r="C156" t="n">
-        <v>341.83</v>
+        <v>343.36</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3239,10 +3255,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>348.23</v>
+        <v>348.21</v>
       </c>
       <c r="C157" t="n">
-        <v>337.25</v>
+        <v>342.53</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -3257,10 +3273,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>348.11</v>
+        <v>348.19</v>
       </c>
       <c r="C158" t="n">
-        <v>338.13</v>
+        <v>341.9</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3275,10 +3291,10 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>350.57</v>
+        <v>348.49</v>
       </c>
       <c r="C159" t="n">
-        <v>352.91</v>
+        <v>343.28</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -3293,10 +3309,10 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>352.28</v>
+        <v>348.91</v>
       </c>
       <c r="C160" t="n">
-        <v>344.99</v>
+        <v>343.47</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3311,9 +3327,11 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>334.23</v>
-      </c>
-      <c r="C161" t="inlineStr"/>
+        <v>347.44</v>
+      </c>
+      <c r="C161" t="n">
+        <v>343.47</v>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3327,10 +3345,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>338.74</v>
+        <v>346.82</v>
       </c>
       <c r="C162" t="n">
-        <v>340.88</v>
+        <v>343.19</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3345,10 +3363,10 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>355.87</v>
+        <v>347.64</v>
       </c>
       <c r="C163" t="n">
-        <v>348.7</v>
+        <v>343.74</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3362,9 +3380,11 @@
           <t>2016-06-29 22:11:39+00:00</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="n">
+        <v>346.47</v>
+      </c>
       <c r="C164" t="n">
-        <v>340.37</v>
+        <v>342.52</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3379,10 +3399,10 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>346.81</v>
+        <v>346.5</v>
       </c>
       <c r="C165" t="n">
-        <v>334.96</v>
+        <v>341.83</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3397,10 +3417,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>330.86</v>
+        <v>345.5</v>
       </c>
       <c r="C166" t="n">
-        <v>333.61</v>
+        <v>341.77</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3415,10 +3435,10 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>346.97</v>
+        <v>345.11</v>
       </c>
       <c r="C167" t="n">
-        <v>337.32</v>
+        <v>341</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3433,10 +3453,10 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>355.73</v>
+        <v>345.99</v>
       </c>
       <c r="C168" t="n">
-        <v>340.62</v>
+        <v>340.96</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3451,10 +3471,10 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>339.47</v>
+        <v>345.15</v>
       </c>
       <c r="C169" t="n">
-        <v>350.59</v>
+        <v>342.5</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3469,10 +3489,10 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>360.96</v>
+        <v>346.93</v>
       </c>
       <c r="C170" t="n">
-        <v>348.02</v>
+        <v>341.67</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3487,10 +3507,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>351.98</v>
+        <v>347.54</v>
       </c>
       <c r="C171" t="n">
-        <v>353.08</v>
+        <v>342.6</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3505,10 +3525,10 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>350.17</v>
+        <v>351.66</v>
       </c>
       <c r="C172" t="n">
-        <v>350.7</v>
+        <v>348.6</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3523,10 +3543,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>339.93</v>
+        <v>348.5</v>
       </c>
       <c r="C173" t="n">
-        <v>336.04</v>
+        <v>347.69</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3541,10 +3561,10 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>341.56</v>
+        <v>347.35</v>
       </c>
       <c r="C174" t="n">
-        <v>343.03</v>
+        <v>346.91</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3559,10 +3579,10 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>343.33</v>
+        <v>346.77</v>
       </c>
       <c r="C175" t="n">
-        <v>344.81</v>
+        <v>346.61</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3577,10 +3597,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>356.94</v>
+        <v>349.27</v>
       </c>
       <c r="C176" t="n">
-        <v>348.68</v>
+        <v>346.34</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3595,10 +3615,10 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>356.32</v>
+        <v>348.6</v>
       </c>
       <c r="C177" t="n">
-        <v>349.01</v>
+        <v>346.48</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3613,10 +3633,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>356.69</v>
+        <v>349.62</v>
       </c>
       <c r="C178" t="n">
-        <v>348.13</v>
+        <v>346.69</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3630,9 +3650,11 @@
           <t>2017-06-24 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="n">
+        <v>349.62</v>
+      </c>
       <c r="C179" t="n">
-        <v>336.57</v>
+        <v>345.56</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3647,10 +3669,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>354.04</v>
+        <v>349.87</v>
       </c>
       <c r="C180" t="n">
-        <v>341.11</v>
+        <v>344.23</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3665,10 +3687,10 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>351.07</v>
+        <v>350.01</v>
       </c>
       <c r="C181" t="n">
-        <v>345.14</v>
+        <v>344.32</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3683,10 +3705,10 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>348.5</v>
+        <v>349.86</v>
       </c>
       <c r="C182" t="n">
-        <v>349.2</v>
+        <v>344.77</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3701,10 +3723,10 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>346.35</v>
+        <v>350.53</v>
       </c>
       <c r="C183" t="n">
-        <v>334.52</v>
+        <v>344.02</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3719,10 +3741,10 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>349.59</v>
+        <v>350.44</v>
       </c>
       <c r="C184" t="n">
-        <v>339.18</v>
+        <v>343.58</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3737,10 +3759,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>352.14</v>
+        <v>350.28</v>
       </c>
       <c r="C185" t="n">
-        <v>334.39</v>
+        <v>340.59</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3755,10 +3777,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>351.26</v>
+        <v>349.57</v>
       </c>
       <c r="C186" t="n">
-        <v>341.29</v>
+        <v>339.72</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3773,10 +3795,10 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>355.31</v>
+        <v>352.9</v>
       </c>
       <c r="C187" t="n">
-        <v>343.76</v>
+        <v>339.81</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3791,10 +3813,10 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>346.11</v>
+        <v>351.2</v>
       </c>
       <c r="C188" t="n">
-        <v>346.43</v>
+        <v>341.47</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3809,10 +3831,10 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>326.47</v>
+        <v>346.26</v>
       </c>
       <c r="C189" t="n">
-        <v>327.69</v>
+        <v>338.71</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3827,10 +3849,10 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>345.69</v>
+        <v>346.16</v>
       </c>
       <c r="C190" t="n">
-        <v>328.27</v>
+        <v>336.97</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3845,10 +3867,10 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>350.51</v>
+        <v>345.89</v>
       </c>
       <c r="C191" t="n">
-        <v>342.21</v>
+        <v>338.27</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3863,10 +3885,10 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>362.85</v>
+        <v>348.31</v>
       </c>
       <c r="C192" t="n">
-        <v>356.49</v>
+        <v>340.88</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3881,10 +3903,10 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>347.1</v>
+        <v>347.72</v>
       </c>
       <c r="C193" t="n">
-        <v>349.03</v>
+        <v>341.98</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3899,10 +3921,10 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>347.01</v>
+        <v>347.63</v>
       </c>
       <c r="C194" t="n">
-        <v>334.98</v>
+        <v>341.11</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3917,10 +3939,10 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>351.38</v>
+        <v>348.05</v>
       </c>
       <c r="C195" t="n">
-        <v>343.96</v>
+        <v>341.42</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3935,10 +3957,10 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>352.72</v>
+        <v>348.51</v>
       </c>
       <c r="C196" t="n">
-        <v>338.21</v>
+        <v>341.1</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3953,10 +3975,10 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>347.96</v>
+        <v>348.46</v>
       </c>
       <c r="C197" t="n">
-        <v>343.84</v>
+        <v>341.35</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3971,10 +3993,10 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>353.85</v>
+        <v>350</v>
       </c>
       <c r="C198" t="n">
-        <v>347.4</v>
+        <v>342.9</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3989,10 +4011,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>349.77</v>
+        <v>349.97</v>
       </c>
       <c r="C199" t="n">
-        <v>348.53</v>
+        <v>343.71</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -4007,10 +4029,10 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>357.51</v>
+        <v>352.36</v>
       </c>
       <c r="C200" t="n">
-        <v>347.43</v>
+        <v>345.08</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -4025,10 +4047,10 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>358.87</v>
+        <v>353.45</v>
       </c>
       <c r="C201" t="n">
-        <v>347.23</v>
+        <v>345.44</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -4043,10 +4065,10 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>370.1</v>
+        <v>356.34</v>
       </c>
       <c r="C202" t="n">
-        <v>364.61</v>
+        <v>349.84</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -4061,10 +4083,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>350.66</v>
+        <v>356.79</v>
       </c>
       <c r="C203" t="n">
-        <v>344.17</v>
+        <v>349.89</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -4079,10 +4101,10 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>366.87</v>
+        <v>358.23</v>
       </c>
       <c r="C204" t="n">
-        <v>356.79</v>
+        <v>350.88</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -4096,9 +4118,11 @@
           <t>2019-06-06 22:11:11+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>358.23</v>
+      </c>
       <c r="C205" t="n">
-        <v>337.85</v>
+        <v>349.25</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -4113,10 +4137,10 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>349.97</v>
+        <v>357.2</v>
       </c>
       <c r="C206" t="n">
-        <v>347.17</v>
+        <v>349.02</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -4131,9 +4155,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>334.61</v>
-      </c>
-      <c r="C207" t="inlineStr"/>
+        <v>354.69</v>
+      </c>
+      <c r="C207" t="n">
+        <v>349.02</v>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4147,10 +4173,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>351.37</v>
+        <v>355</v>
       </c>
       <c r="C208" t="n">
-        <v>344.52</v>
+        <v>348.72</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -4165,10 +4191,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>349.35</v>
+        <v>350.47</v>
       </c>
       <c r="C209" t="n">
-        <v>342.93</v>
+        <v>345.57</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -4183,10 +4209,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>350.99</v>
+        <v>347.26</v>
       </c>
       <c r="C210" t="n">
-        <v>344.66</v>
+        <v>343.43</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -4201,10 +4227,10 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>359.22</v>
+        <v>349.25</v>
       </c>
       <c r="C211" t="n">
-        <v>350.05</v>
+        <v>344.53</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -4219,10 +4245,10 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>349.39</v>
+        <v>352.06</v>
       </c>
       <c r="C212" t="n">
-        <v>350.61</v>
+        <v>346.55</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -4237,10 +4263,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>356.24</v>
+        <v>352.76</v>
       </c>
       <c r="C213" t="n">
-        <v>346.47</v>
+        <v>346.54</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -4255,10 +4281,10 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>364.27</v>
+        <v>354.91</v>
       </c>
       <c r="C214" t="n">
-        <v>358.93</v>
+        <v>348.94</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -4273,10 +4299,10 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>359.6</v>
+        <v>355.58</v>
       </c>
       <c r="C215" t="n">
-        <v>360.41</v>
+        <v>350.58</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -4290,9 +4316,11 @@
           <t>2020-02-09 21:50:18+00:00</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="n">
+        <v>355.58</v>
+      </c>
       <c r="C216" t="n">
-        <v>347.92</v>
+        <v>350.25</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -4306,9 +4334,11 @@
           <t>2020-02-25 21:49:28+00:00</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="n">
+        <v>355.58</v>
+      </c>
       <c r="C217" t="n">
-        <v>356.51</v>
+        <v>350.94</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -4323,10 +4353,10 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>352.35</v>
+        <v>356.01</v>
       </c>
       <c r="C218" t="n">
-        <v>345.37</v>
+        <v>351.21</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -4341,10 +4371,10 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>358.7</v>
+        <v>356.35</v>
       </c>
       <c r="C219" t="n">
-        <v>359.78</v>
+        <v>352.07</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -4359,10 +4389,10 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>359.21</v>
+        <v>356.66</v>
       </c>
       <c r="C220" t="n">
-        <v>350.63</v>
+        <v>351.94</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -4377,10 +4407,10 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>343.72</v>
+        <v>355.44</v>
       </c>
       <c r="C221" t="n">
-        <v>344.92</v>
+        <v>352.16</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -4395,10 +4425,10 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>362.74</v>
+        <v>357.1</v>
       </c>
       <c r="C222" t="n">
-        <v>355.65</v>
+        <v>352.66</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -4413,10 +4443,10 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>365.14</v>
+        <v>358</v>
       </c>
       <c r="C223" t="n">
-        <v>346.62</v>
+        <v>352.11</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -4431,10 +4461,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>357.28</v>
+        <v>357.34</v>
       </c>
       <c r="C224" t="n">
-        <v>347.27</v>
+        <v>351.51</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -4449,10 +4479,10 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>341.76</v>
+        <v>355.11</v>
       </c>
       <c r="C225" t="n">
-        <v>340.85</v>
+        <v>349.55</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -4467,10 +4497,10 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>350.59</v>
+        <v>354.61</v>
       </c>
       <c r="C226" t="n">
-        <v>341.37</v>
+        <v>348.05</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -4485,10 +4515,10 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>341.39</v>
+        <v>353.29</v>
       </c>
       <c r="C227" t="n">
-        <v>341.68</v>
+        <v>347.41</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -4503,10 +4533,10 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>348.69</v>
+        <v>352.92</v>
       </c>
       <c r="C228" t="n">
-        <v>337.64</v>
+        <v>346.64</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -4521,10 +4551,10 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>348.22</v>
+        <v>347.22</v>
       </c>
       <c r="C229" t="n">
-        <v>345.01</v>
+        <v>341.42</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -4539,10 +4569,10 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>356.34</v>
+        <v>349.05</v>
       </c>
       <c r="C230" t="n">
-        <v>350.45</v>
+        <v>343.23</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -4557,10 +4587,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>356.1</v>
+        <v>350.22</v>
       </c>
       <c r="C231" t="n">
-        <v>351.26</v>
+        <v>344.57</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -4575,10 +4605,10 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>349.71</v>
+        <v>352.59</v>
       </c>
       <c r="C232" t="n">
-        <v>346.23</v>
+        <v>348.24</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -4593,10 +4623,10 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>349.05</v>
+        <v>351.88</v>
       </c>
       <c r="C233" t="n">
-        <v>340.25</v>
+        <v>346.64</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -4611,10 +4641,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>355.63</v>
+        <v>352.51</v>
       </c>
       <c r="C234" t="n">
-        <v>346.58</v>
+        <v>346.63</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -4629,9 +4659,11 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>362.05</v>
-      </c>
-      <c r="C235" t="inlineStr"/>
+        <v>353.87</v>
+      </c>
+      <c r="C235" t="n">
+        <v>346.63</v>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4645,10 +4677,10 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>336.89</v>
+        <v>351.75</v>
       </c>
       <c r="C236" t="n">
-        <v>336.39</v>
+        <v>345.17</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -4663,10 +4695,10 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>353.33</v>
+        <v>351.92</v>
       </c>
       <c r="C237" t="n">
-        <v>343.54</v>
+        <v>344.96</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -4681,10 +4713,10 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>353.6</v>
+        <v>352.09</v>
       </c>
       <c r="C238" t="n">
-        <v>337.29</v>
+        <v>344.11</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -4698,9 +4730,11 @@
           <t>2021-07-13 22:11:19+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>352.09</v>
+      </c>
       <c r="C239" t="n">
-        <v>344.89</v>
+        <v>344.19</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -4715,10 +4749,10 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>356.39</v>
+        <v>352.08</v>
       </c>
       <c r="C240" t="n">
-        <v>352.73</v>
+        <v>343.49</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -4733,10 +4767,10 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>354.51</v>
+        <v>353.2</v>
       </c>
       <c r="C241" t="n">
-        <v>352.24</v>
+        <v>344.81</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -4751,10 +4785,10 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>351.5</v>
+        <v>352.61</v>
       </c>
       <c r="C242" t="n">
-        <v>343.47</v>
+        <v>344.36</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -4769,10 +4803,10 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>352.13</v>
+        <v>351.19</v>
       </c>
       <c r="C243" t="n">
-        <v>345.47</v>
+        <v>344.5</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -4787,10 +4821,10 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>361.62</v>
+        <v>354.73</v>
       </c>
       <c r="C244" t="n">
-        <v>356.35</v>
+        <v>347</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -4805,10 +4839,10 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>349.35</v>
+        <v>354.25</v>
       </c>
       <c r="C245" t="n">
-        <v>344.79</v>
+        <v>348.56</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -4823,10 +4857,10 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>349.76</v>
+        <v>353.61</v>
       </c>
       <c r="C246" t="n">
-        <v>348.55</v>
+        <v>349.09</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -4841,10 +4875,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>354.63</v>
+        <v>353.74</v>
       </c>
       <c r="C247" t="n">
-        <v>347.63</v>
+        <v>348.9</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -4859,10 +4893,10 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>345.5</v>
+        <v>352.82</v>
       </c>
       <c r="C248" t="n">
-        <v>341.55</v>
+        <v>348.09</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -4877,10 +4911,10 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>356.97</v>
+        <v>353.24</v>
       </c>
       <c r="C249" t="n">
-        <v>351.27</v>
+        <v>348.41</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -4895,10 +4929,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>356.14</v>
+        <v>353.07</v>
       </c>
       <c r="C250" t="n">
-        <v>343.89</v>
+        <v>347</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -4913,10 +4947,10 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>347.49</v>
+        <v>352.51</v>
       </c>
       <c r="C251" t="n">
-        <v>344.15</v>
+        <v>346.71</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -4931,10 +4965,10 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>354.71</v>
+        <v>351.82</v>
       </c>
       <c r="C252" t="n">
-        <v>345.22</v>
+        <v>345.88</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -4949,10 +4983,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>353.73</v>
+        <v>352.03</v>
       </c>
       <c r="C253" t="n">
-        <v>343.4</v>
+        <v>345.61</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -4967,9 +5001,11 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>343.43</v>
-      </c>
-      <c r="C254" t="inlineStr"/>
+        <v>351.17</v>
+      </c>
+      <c r="C254" t="n">
+        <v>345.61</v>
+      </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4983,10 +5019,10 @@
         </is>
       </c>
       <c r="B255" t="n">
-        <v>351.12</v>
+        <v>351.52</v>
       </c>
       <c r="C255" t="n">
-        <v>334.29</v>
+        <v>343.92</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -5001,10 +5037,10 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>349.21</v>
+        <v>350.92</v>
       </c>
       <c r="C256" t="n">
-        <v>343.36</v>
+        <v>343.39</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -5019,10 +5055,10 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>344.85</v>
+        <v>349.51</v>
       </c>
       <c r="C257" t="n">
-        <v>341.97</v>
+        <v>341.65</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -5037,10 +5073,10 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>346.22</v>
+        <v>349.04</v>
       </c>
       <c r="C258" t="n">
-        <v>344.26</v>
+        <v>342.08</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -5055,10 +5091,10 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>336.05</v>
+        <v>345.49</v>
       </c>
       <c r="C259" t="n">
-        <v>331.95</v>
+        <v>339.17</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -5073,10 +5109,10 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>346.4</v>
+        <v>344.55</v>
       </c>
       <c r="C260" t="n">
-        <v>346.34</v>
+        <v>341.58</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -5091,10 +5127,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>360.29</v>
+        <v>347.17</v>
       </c>
       <c r="C261" t="n">
-        <v>345.01</v>
+        <v>342.15</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -5109,10 +5145,10 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>345.19</v>
+        <v>346.5</v>
       </c>
       <c r="C262" t="n">
-        <v>345.22</v>
+        <v>342.46</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -5127,10 +5163,10 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>354.16</v>
+        <v>347.59</v>
       </c>
       <c r="C263" t="n">
-        <v>344.7</v>
+        <v>342.78</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -5145,10 +5181,10 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>346.37</v>
+        <v>347.44</v>
       </c>
       <c r="C264" t="n">
-        <v>337.97</v>
+        <v>342.18</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -5163,10 +5199,10 @@
         </is>
       </c>
       <c r="B265" t="n">
-        <v>352.36</v>
+        <v>348.38</v>
       </c>
       <c r="C265" t="n">
-        <v>341.16</v>
+        <v>342.08</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -5180,9 +5216,11 @@
           <t>2023-05-24 22:10:53+00:00</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr"/>
+      <c r="B266" t="n">
+        <v>348.38</v>
+      </c>
       <c r="C266" t="n">
-        <v>342.56</v>
+        <v>342.13</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -5197,10 +5235,10 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>344.18</v>
+        <v>348.12</v>
       </c>
       <c r="C267" t="n">
-        <v>337.13</v>
+        <v>341.34</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -5215,10 +5253,10 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>339.51</v>
+        <v>347.17</v>
       </c>
       <c r="C268" t="n">
-        <v>336.93</v>
+        <v>340.9</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -5233,10 +5271,10 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>353.82</v>
+        <v>347.83</v>
       </c>
       <c r="C269" t="n">
-        <v>344.26</v>
+        <v>341.2</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -5251,10 +5289,10 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>347.62</v>
+        <v>348.99</v>
       </c>
       <c r="C270" t="n">
-        <v>334.57</v>
+        <v>341.44</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -5269,10 +5307,10 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>354.95</v>
+        <v>349.53</v>
       </c>
       <c r="C271" t="n">
-        <v>347.06</v>
+        <v>341.91</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -5286,9 +5324,11 @@
           <t>2023-08-20 22:11:23+00:00</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="n">
+        <v>349.85</v>
+      </c>
       <c r="C272" t="n">
-        <v>340.26</v>
+        <v>341.4</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -5303,10 +5343,10 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>353.53</v>
+        <v>349.17</v>
       </c>
       <c r="C273" t="n">
-        <v>340.26</v>
+        <v>341.01</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -5321,10 +5361,10 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>337.12</v>
+        <v>347.89</v>
       </c>
       <c r="C274" t="n">
-        <v>337.15</v>
+        <v>340.13</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -5339,10 +5379,10 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>349.66</v>
+        <v>348.08</v>
       </c>
       <c r="C275" t="n">
-        <v>343.96</v>
+        <v>340.48</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -5357,10 +5397,10 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>341.86</v>
+        <v>347.46</v>
       </c>
       <c r="C276" t="n">
-        <v>329.74</v>
+        <v>339.59</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -5375,10 +5415,10 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>357.92</v>
+        <v>349.56</v>
       </c>
       <c r="C277" t="n">
-        <v>351.54</v>
+        <v>340.98</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -5393,9 +5433,11 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>354.32</v>
-      </c>
-      <c r="C278" t="inlineStr"/>
+        <v>350.09</v>
+      </c>
+      <c r="C278" t="n">
+        <v>340.98</v>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>L9</t>
@@ -5409,10 +5451,10 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>341.48</v>
+        <v>348.72</v>
       </c>
       <c r="C279" t="n">
-        <v>338.79</v>
+        <v>340.37</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -5427,10 +5469,10 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>356.47</v>
+        <v>349.05</v>
       </c>
       <c r="C280" t="n">
-        <v>353.07</v>
+        <v>341.85</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -5445,10 +5487,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>358.91</v>
+        <v>353.82</v>
       </c>
       <c r="C281" t="n">
-        <v>349.71</v>
+        <v>348.28</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -5463,10 +5505,10 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>356.6</v>
+        <v>354.28</v>
       </c>
       <c r="C282" t="n">
-        <v>345.45</v>
+        <v>347.71</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -5481,10 +5523,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>362.13</v>
+        <v>355.4</v>
       </c>
       <c r="C283" t="n">
-        <v>351.99</v>
+        <v>348.43</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -5499,10 +5541,10 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>355.52</v>
+        <v>355.06</v>
       </c>
       <c r="C284" t="n">
-        <v>351.81</v>
+        <v>348.47</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -5517,10 +5559,10 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>351.63</v>
+        <v>354.68</v>
       </c>
       <c r="C285" t="n">
-        <v>346.68</v>
+        <v>348.21</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -5535,10 +5577,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>346.02</v>
+        <v>355.13</v>
       </c>
       <c r="C286" t="n">
-        <v>348.55</v>
+        <v>349.03</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -5553,10 +5595,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>350.71</v>
+        <v>350.97</v>
       </c>
       <c r="C287" t="n">
-        <v>348.01</v>
+        <v>348.76</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -5571,10 +5613,10 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>360.94</v>
+        <v>352.33</v>
       </c>
       <c r="C288" t="n">
-        <v>356.19</v>
+        <v>349.86</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -5589,10 +5631,10 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>367.77</v>
+        <v>356.36</v>
       </c>
       <c r="C289" t="n">
-        <v>360.05</v>
+        <v>353.2</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -5607,10 +5649,10 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>355.02</v>
+        <v>356.09</v>
       </c>
       <c r="C290" t="n">
-        <v>346.32</v>
+        <v>351.82</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -5625,10 +5667,10 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>355.58</v>
+        <v>356.01</v>
       </c>
       <c r="C291" t="n">
-        <v>348.44</v>
+        <v>351.26</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -5643,10 +5685,10 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>356.35</v>
+        <v>356.06</v>
       </c>
       <c r="C292" t="n">
-        <v>355.46</v>
+        <v>351.86</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -5661,10 +5703,10 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>359.39</v>
+        <v>356.47</v>
       </c>
       <c r="C293" t="n">
-        <v>353.75</v>
+        <v>352.1</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -5679,10 +5721,10 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>350.89</v>
+        <v>355.85</v>
       </c>
       <c r="C294" t="n">
-        <v>349.32</v>
+        <v>351.79</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -5697,10 +5739,10 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>357.64</v>
+        <v>357.14</v>
       </c>
       <c r="C295" t="n">
-        <v>352.72</v>
+        <v>352.25</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -5715,10 +5757,10 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>336.21</v>
+        <v>355.05</v>
       </c>
       <c r="C296" t="n">
-        <v>333.05</v>
+        <v>350.33</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -5733,10 +5775,10 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>336.65</v>
+        <v>353.38</v>
       </c>
       <c r="C297" t="n">
-        <v>325.66</v>
+        <v>348.09</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -5751,10 +5793,10 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>348.47</v>
+        <v>352.97</v>
       </c>
       <c r="C298" t="n">
-        <v>342.32</v>
+        <v>347.61</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -5769,10 +5811,10 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>355.65</v>
+        <v>353.17</v>
       </c>
       <c r="C299" t="n">
-        <v>343.64</v>
+        <v>347.3</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -5787,10 +5829,10 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>351.58</v>
+        <v>353.24</v>
       </c>
       <c r="C300" t="n">
-        <v>337.57</v>
+        <v>346.5</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -5805,10 +5847,10 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>351.64</v>
+        <v>353.13</v>
       </c>
       <c r="C301" t="n">
-        <v>331.86</v>
+        <v>345.45</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -5822,9 +5864,11 @@
           <t>2025-08-01 22:11:18+00:00</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr"/>
+      <c r="B302" t="n">
+        <v>350.45</v>
+      </c>
       <c r="C302" t="n">
-        <v>337.62</v>
+        <v>342.09</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -5838,9 +5882,11 @@
           <t>2025-08-09 22:11:25+00:00</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
+      <c r="B303" t="n">
+        <v>350.45</v>
+      </c>
       <c r="C303" t="n">
-        <v>332.41</v>
+        <v>341.28</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -5855,10 +5901,10 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>349.92</v>
+        <v>349.8</v>
       </c>
       <c r="C304" t="n">
-        <v>339.96</v>
+        <v>339.99</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -5873,10 +5919,10 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>349.77</v>
+        <v>348.61</v>
       </c>
       <c r="C305" t="n">
-        <v>338.39</v>
+        <v>337.75</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -5891,10 +5937,10 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C306" t="n">
-        <v>337.45</v>
+        <v>337.91</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -9674,28 +9720,28 @@
         <v>0.1001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07347486821306003</v>
+        <v>0.09388141743199173</v>
       </c>
       <c r="J2" t="n">
         <v>305</v>
       </c>
       <c r="K2" t="n">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004898194540611245</v>
+        <v>0.03775302478603604</v>
       </c>
       <c r="M2" t="n">
-        <v>5.916645626305565</v>
+        <v>2.876829162686484</v>
       </c>
       <c r="N2" t="n">
-        <v>59.8563211286011</v>
+        <v>12.15881373686121</v>
       </c>
       <c r="O2" t="n">
-        <v>7.736686702238956</v>
+        <v>3.486949058541178</v>
       </c>
       <c r="P2" t="n">
-        <v>348.9624028010386</v>
+        <v>348.8059197181138</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -9752,28 +9798,28 @@
         <v>0.1118</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03051295237922599</v>
+        <v>0.0970137222574597</v>
       </c>
       <c r="J3" t="n">
         <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008111386473286242</v>
+        <v>0.03003890737316561</v>
       </c>
       <c r="M3" t="n">
-        <v>5.88193683278901</v>
+        <v>3.3036835514609</v>
       </c>
       <c r="N3" t="n">
-        <v>62.39540849869112</v>
+        <v>16.44877827888364</v>
       </c>
       <c r="O3" t="n">
-        <v>7.899076433273141</v>
+        <v>4.055709343491425</v>
       </c>
       <c r="P3" t="n">
-        <v>343.2174103012857</v>
+        <v>342.561786974796</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -9871,12 +9917,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-35.1216789880438,174.01207476603255</t>
+          <t>-35.12172608579903,174.01209365839736</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-35.12152705427426,174.01295923376802</t>
+          <t>-35.12155000367855,174.0129684396436</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -9893,12 +9939,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-35.12166999665375,174.01207115931092</t>
+          <t>-35.12170741796194,174.01208617014828</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-35.12162056452813,174.01299674430925</t>
+          <t>-35.121573552506696,174.01297788597665</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -9915,12 +9961,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-35.121753488127645,174.012104650329</t>
+          <t>-35.12171897831984,174.01209080736635</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-35.12153715886282,174.01296328710063</t>
+          <t>-35.12156447550395,174.01297424484397</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -9937,12 +9983,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-35.12172908292878,174.0120948606395</t>
+          <t>-35.121720947862286,174.01209159741103</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-35.121593676050026,174.01298595830207</t>
+          <t>-35.12157029848687,174.01297658066483</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -9959,12 +10005,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-35.12168052942496,174.01207538432777</t>
+          <t>-35.12171426854442,174.01208891812917</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-35.12154195426073,174.01296521071646</t>
+          <t>-35.12156558872129,174.01297469139794</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -9981,12 +10027,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-35.12159232816459,174.01204000413975</t>
+          <t>-35.121667342052845,174.01207009446944</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-35.121439110093704,174.01292395607751</t>
+          <t>-35.12152491347157,174.0129583750112</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -10003,12 +10049,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-35.121735676614186,174.01209750557257</t>
+          <t>-35.12166400239364,174.01206875483027</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-35.12156199217301,174.01297324868517</t>
+          <t>-35.12150050832043,174.0129485851872</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -10025,12 +10071,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-35.12161758969193,174.01205013729236</t>
+          <t>-35.1216765903398,174.01207380424003</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-35.12142292562285,174.01291746389174</t>
+          <t>-35.12149245890194,174.01294535626408</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -10047,12 +10093,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-35.12175117605622,174.01210372288446</t>
+          <t>-35.12168438287777,174.01207693006592</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-35.12154537954492,174.0129665847279</t>
+          <t>-35.121484152587,174.01294202429094</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -10069,12 +10115,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-35.12167787482409,174.01207431948603</t>
+          <t>-35.12168224207064,174.0120760713225</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-35.12147070834506,174.01293663130494</t>
+          <t>-35.12147969971708,174.0129402380788</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -10091,12 +10137,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-35.12173387833636,174.01209678422714</t>
+          <t>-35.121720947862286,174.01209159741103</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-35.12158656858585,174.01298310722498</t>
+          <t>-35.12153424737122,174.01296211919112</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -10113,12 +10159,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-35.121826018660215,174.01213374463455</t>
+          <t>-35.121747236971544,174.0121021427939</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-35.12171150580507,174.01303322442567</t>
+          <t>-35.121578519168516,174.01297987829489</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -10135,12 +10181,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-35.12169500128099,174.01208118943407</t>
+          <t>-35.12173319327813,174.0120965094289</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-35.12156087895567,174.01297280213126</t>
+          <t>-35.121582372613005,174.01298142405923</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -10157,12 +10203,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-35.12167213746092,174.01207201805408</t>
+          <t>-35.121731737529416,174.01209592548264</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-35.12149185947715,174.01294511581239</t>
+          <t>-35.121587681803135,174.0129835537792</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -10179,12 +10225,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-35.12175271743717,174.01210434118082</t>
+          <t>-35.121735933511026,174.01209760862193</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-35.121560279530954,174.01297256167916</t>
+          <t>-35.121582201348794,174.0129813553586</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -10201,12 +10247,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-35.12161604831063,174.01204951899814</t>
+          <t>-35.121715981190036,174.0120896051245</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-35.12142669343621,174.0129189752998</t>
+          <t>-35.12155634045423,174.0129709815654</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -10223,12 +10269,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-35.12166811274344,174.01207040361695</t>
+          <t>-35.12167727539809,174.0120740790379</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-35.12153424737122,174.01296211919112</t>
+          <t>-35.12150324854797,174.01294968439518</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -10245,12 +10291,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-35.121718378893874,174.01209056691795</t>
+          <t>-35.121667513317426,174.0120701631689</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-35.12152200197991,174.01295720710206</t>
+          <t>-35.12149434280841,174.01294611196943</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -10267,12 +10313,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-35.121688493227424,174.01207857885345</t>
+          <t>-35.12169166162193,174.01207984979396</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-35.121495199129505,174.01294645547188</t>
+          <t>-35.12151712094973,174.01295524913695</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -10289,12 +10335,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-35.12183363993173,174.01213680177244</t>
+          <t>-35.12172711338638,174.01209407059466</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-35.12159384731421,174.01298602700274</t>
+          <t>-35.12153630254177,174.0129629435978</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -10311,12 +10357,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-35.121807864619825,174.01212646246572</t>
+          <t>-35.12176205135508,174.01210808530917</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-35.12153775828756,174.0129635275526</t>
+          <t>-35.12153715886282,174.01296328710063</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -10333,12 +10379,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-35.12157143388354,174.01203162282513</t>
+          <t>-35.121723944992056,174.012092799653</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-35.12142455263319,174.01291811654522</t>
+          <t>-35.121514637618574,174.0129542529793</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -10355,12 +10401,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-35.12172711338638,174.01209407059466</t>
+          <t>-35.12170210876047,174.01208404046338</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-35.12155026057488,174.01296854269447</t>
+          <t>-35.12150419050119,174.01295006224797</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -10377,12 +10423,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-35.12171401164758,174.0120888150799</t>
+          <t>-35.12172051970087,174.01209142566216</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-35.1215739806672,174.01297805772822</t>
+          <t>-35.1215620778051,174.01297328303548</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -10399,12 +10445,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-35.12171863579071,174.01209066996725</t>
+          <t>-35.12171992027493,174.0120911852138</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-35.12147216409102,174.01293721525875</t>
+          <t>-35.12153210656855,174.0129612604342</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -10421,12 +10467,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-35.12167145240262,174.01207174325626</t>
+          <t>-35.12170133806992,174.0120837313156</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-35.121465656050226,174.01293460464188</t>
+          <t>-35.12150393360486,174.01294995919721</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -10443,12 +10489,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-35.12194718830262,174.01218234976153</t>
+          <t>-35.121762822045554,174.01210839445744</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-35.12171073511635,174.01303291527176</t>
+          <t>-35.121555655397394,174.012970706763</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -10465,12 +10511,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-35.1216209293514,174.01205147693</t>
+          <t>-35.12173953006667,174.01209905131287</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-35.121459918698434,174.01293230317734</t>
+          <t>-35.121527139906355,174.01295926811827</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -10487,12 +10533,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-35.12176376400056,174.01210877230528</t>
+          <t>-35.121750833527116,174.01210358548528</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-35.121608576034845,174.01299193526057</t>
+          <t>-35.12156122148408,174.01297293953246</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -10509,12 +10555,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-35.12168977771168,174.0120790940996</t>
+          <t>-35.12169149035737,174.01207978109449</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-35.121483553162214,174.0129417838393</t>
+          <t>-35.121517377846054,174.01295535218773</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -10531,12 +10577,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-35.121798616334885,174.01212275268287</t>
+          <t>-35.12171829326159,174.01209053256818</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-35.12162784325606,174.0129996640895</t>
+          <t>-35.121544951384415,174.01296641297648</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10551,10 +10597,14 @@
           <t>2004-07-06 22:00:24+00:00</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-35.12171829326159,174.01209053256818</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-35.12155779619997,174.01297156552047</t>
+          <t>-35.12154752034754,174.01296744348514</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -10571,12 +10621,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-35.12157751377686,174.01203406164984</t>
+          <t>-35.121690120240835,174.01207923149857</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-35.12154366690284,174.01296589772218</t>
+          <t>-35.12154692092282,174.01296720303313</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -10593,12 +10643,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-35.12171101451776,174.01208761283817</t>
+          <t>-35.12169363116446,174.01208063983813</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-35.12153193530435,174.01296119173364</t>
+          <t>-35.121544780120196,174.01296634427592</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -10615,12 +10665,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-35.12186164168129,174.01214803418304</t>
+          <t>-35.12173370707179,174.01209671552758</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-35.12166509321535,174.0130146065027</t>
+          <t>-35.12157406629931,174.01297809207855</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -10637,12 +10687,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-35.12168660931717,174.01207782315916</t>
+          <t>-35.12172702775409,174.0120940362449</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-35.12154923298963,174.01296813049095</t>
+          <t>-35.12157098354367,174.01297685546734</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -10659,12 +10709,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-35.12167367884207,174.0120726363492</t>
+          <t>-35.12171409727986,174.01208884942966</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-35.12155719677525,174.01297132506838</t>
+          <t>-35.12156456113607,174.01297427919428</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -10681,12 +10731,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-35.12167093860891,174.01207153715788</t>
+          <t>-35.12170870244616,174.01208668539465</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-35.121512496815846,174.0129533942228</t>
+          <t>-35.121558738153105,174.01297194337374</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -10703,12 +10753,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-35.12173559098191,174.01209747122277</t>
+          <t>-35.121711699576004,174.01208788763628</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-35.12158494157598,174.01298245456886</t>
+          <t>-35.12156139274828,174.01297300823308</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -10725,12 +10775,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-35.121640110984906,174.012059171261</t>
+          <t>-35.12170459209664,174.0120850366063</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-35.12146197386922,174.01293312758253</t>
+          <t>-35.12155231574536,174.0129693671015</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -10747,12 +10797,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-35.12174423984188,174.01210094055122</t>
+          <t>-35.121709986930384,174.01208720064108</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-35.12150573187917,174.01295068055254</t>
+          <t>-35.121554370915845,174.01297019150857</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -10769,12 +10819,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-35.12168986334397,174.01207912844933</t>
+          <t>-35.12169911163057,174.01208283822206</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-35.121475332479264,174.0129384862171</t>
+          <t>-35.12153878587284,174.01296393975596</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -10791,12 +10841,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-35.12167607654609,174.01207359814165</t>
+          <t>-35.12168960644712,174.01207902540014</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-35.121512668080065,174.01295346292332</t>
+          <t>-35.121519946809315,174.01295638269565</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -10813,12 +10863,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-35.121643193747374,174.01206040785024</t>
+          <t>-35.121684468510054,174.01207696441568</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-35.12144313480332,174.01292557053682</t>
+          <t>-35.12151138359842,174.01295294766942</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10835,12 +10885,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-35.12165595295855,174.0120655259568</t>
+          <t>-35.121681642644646,174.01207583087435</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-35.12147498995081,174.0129383488162</t>
+          <t>-35.12150778704981,174.01295150495864</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -10857,12 +10907,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-35.12164353627654,174.01206054524908</t>
+          <t>-35.121678131720955,174.01207442253522</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-35.121488434192656,174.0129437418028</t>
+          <t>-35.1215059887755,174.0129507836033</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -10879,12 +10929,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-35.12165441157734,174.01206490766197</t>
+          <t>-35.121675220223224,174.01207325464435</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-35.121457264102816,174.01293123832073</t>
+          <t>-35.121497682460756,174.012947451629</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -10901,12 +10951,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-35.12169457311958,174.01208101768535</t>
+          <t>-35.12167684723666,174.01207390728922</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-35.12156790078803,174.01297561885622</t>
+          <t>-35.1215035054443,174.01294978744596</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -10923,12 +10973,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-35.12166126216043,174.01206765563924</t>
+          <t>-35.12167564838466,174.012073426393</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-35.12147987098131,174.01294030677926</t>
+          <t>-35.121501707169976,174.01294906609067</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -10945,12 +10995,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-35.121742612828626,174.0121002879052</t>
+          <t>-35.12168181390923,174.0120758995738</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-35.12158631168956,174.012983004174</t>
+          <t>-35.12150324854797,174.01294968439518</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -10967,12 +11017,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-35.12172214671419,174.01209207830783</t>
+          <t>-35.12168438287777,174.01207693006592</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-35.1215739806672,174.01297805772822</t>
+          <t>-35.1215059887755,174.0129507836033</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10989,12 +11039,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-35.12169577197154,174.0120814985818</t>
+          <t>-35.12168532483291,174.01207730791307</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-35.121541012307574,174.01296483286333</t>
+          <t>-35.12150890026725,174.01295195151198</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -11011,12 +11061,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-35.121715381764076,174.01208936467611</t>
+          <t>-35.12168763690459,174.01207823535606</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-35.121489461778,174.01294415400568</t>
+          <t>-35.12150735888926,174.01295133320735</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -11033,12 +11083,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-35.12177712263508,174.01211413087609</t>
+          <t>-35.12169020587311,174.01207926584834</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-35.12149374338362,174.01294587151773</t>
+          <t>-35.12150907153147,174.01295202021248</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -11053,10 +11103,14 @@
           <t>2005-09-19 21:59:32+00:00</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-35.12170793175563,174.01208637624683</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-35.12164685358041,174.01300728987104</t>
+          <t>-35.121537415759136,174.01296339015147</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -11073,12 +11127,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-35.12167830298552,174.01207449123467</t>
+          <t>-35.121723602462936,174.0120926622539</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-35.121522687036766,174.0129574819042</t>
+          <t>-35.12153818644809,174.012963699304</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -11095,12 +11149,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-35.121625981656706,174.01205350356148</t>
+          <t>-35.12169380242903,174.0120807085376</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-35.12149048936336,174.01294456620852</t>
+          <t>-35.12153844334442,174.01296380235485</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -11117,12 +11171,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-35.12169311737076,174.01208043373964</t>
+          <t>-35.121665800671686,174.01206947617442</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-35.12146539915389,174.01293450159122</t>
+          <t>-35.121531335879595,174.0129609512817</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -11139,12 +11193,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-35.12176967262741,174.01211114244214</t>
+          <t>-35.12169174725422,174.0120798841437</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-35.1214988813103,174.01294793253246</t>
+          <t>-35.12152482783946,174.01295834066096</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11161,12 +11215,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-35.12157914079058,174.01203471429312</t>
+          <t>-35.12166922596317,174.01207085016335</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-35.12140922448317,174.01291196786352</t>
+          <t>-35.121477302017894,174.01293927627236</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11183,12 +11237,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-35.12167470642951,174.01207304854594</t>
+          <t>-35.12166854090488,174.01207057536558</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-35.12149990889565,174.01294834473546</t>
+          <t>-35.12147276351582,174.0129374557103</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11205,12 +11259,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-35.12168249896751,174.0120761743717</t>
+          <t>-35.12167650470751,174.0120737698903</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-35.1215101847489,174.01295246676582</t>
+          <t>-35.12147952845285,174.01294016937834</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11227,12 +11281,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-35.12170245128959,174.0120841778624</t>
+          <t>-35.121659720779235,174.0120670373443</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-35.1215119830232,174.01295318812126</t>
+          <t>-35.12148278247319,174.01294147468718</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11249,12 +11303,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-35.121498218261905,174.01200225390906</t>
+          <t>-35.121639425926574,174.0120588964634</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-35.12118332689789,174.01282135237113</t>
+          <t>-35.121426350907726,174.0129188378991</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11271,12 +11325,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-35.12168840759515,174.01207854450374</t>
+          <t>-35.121642936850506,174.01206030480114</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-35.1215287669164,174.01295992077345</t>
+          <t>-35.121433544005896,174.0129217233149</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -11293,12 +11347,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-35.12167393573893,174.0120727393984</t>
+          <t>-35.12162015866076,174.01205116778283</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-35.121477302017894,174.01293927627236</t>
+          <t>-35.12139646529658,174.01290684968896</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -11315,12 +11369,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-35.12166674262684,174.01206985402138</t>
+          <t>-35.12167633344294,174.01207370119084</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-35.121521573819365,174.01295703535072</t>
+          <t>-35.12150924279568,174.012952088913</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -11337,12 +11391,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-35.12170981566581,174.01208713194154</t>
+          <t>-35.12168472540691,174.0120770674649</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-35.12153947092967,174.01296421455825</t>
+          <t>-35.1215167784213,174.0129551117359</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11359,12 +11413,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-35.12181154680731,174.01212793950913</t>
+          <t>-35.12171555302863,174.01208943337565</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-35.12160335247699,174.01298983988983</t>
+          <t>-35.1215354462207,174.01296260009502</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -11381,12 +11435,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-35.12170416393525,174.0120848648575</t>
+          <t>-35.12171324095706,174.012088505932</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-35.12156413297555,174.01297410744277</t>
+          <t>-35.12154118357179,174.0129649015639</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -11403,12 +11457,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-35.1216635742322,174.01206858308166</t>
+          <t>-35.121726428328145,174.01209379579646</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-35.121534418635434,174.01296218789167</t>
+          <t>-35.12156730136332,174.01297537840406</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -11425,12 +11479,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-35.12168241333522,174.01207614002197</t>
+          <t>-35.12167299378379,174.01207236155136</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-35.121478586499606,174.0129397915258</t>
+          <t>-35.12150650256817,174.0129509897048</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -11445,10 +11499,14 @@
           <t>2008-08-18 22:00:33+00:00</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-35.12167299378379,174.01207236155136</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-35.12167245757485,174.01301756063663</t>
+          <t>-35.121561820908795,174.01297317998458</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -11465,12 +11523,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-35.12168532483291,174.01207730791307</t>
+          <t>-35.121683869084066,174.0120767239675</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-35.121442449746375,174.01292529573522</t>
+          <t>-35.121531164615384,174.01296088258115</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -11487,12 +11545,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-35.1217812329841,174.01211577966745</t>
+          <t>-35.121716323719156,174.01208974252356</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-35.12162398981188,174.01299811832342</t>
+          <t>-35.121554370915845,174.01297019150857</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -11509,12 +11567,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-35.12157802757068,174.0120342677477</t>
+          <t>-35.12168155701237,174.0120757965246</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-35.12153947092967,174.01296421455825</t>
+          <t>-35.12156961343005,174.01297630586237</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -11531,12 +11589,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-35.121666143200834,174.0120696135733</t>
+          <t>-35.12167770355952,174.01207425078655</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-35.12151712094973,174.01295524913695</t>
+          <t>-35.12155908068151,174.01297208077494</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -11553,12 +11611,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-35.12173387833636,174.01209678422714</t>
+          <t>-35.12168892138884,174.0120787506022</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-35.12154520828072,174.01296651602735</t>
+          <t>-35.12155676861474,174.0129711533169</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -11575,12 +11633,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-35.121762822045554,174.01210839445744</t>
+          <t>-35.121704420832074,174.01208496790676</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-35.1216054076473,174.01299066429794</t>
+          <t>-35.12156627377811,174.0129749662004</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -11597,12 +11655,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-35.12168412598091,174.01207682701673</t>
+          <t>-35.12168498230376,174.0120771705141</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-35.121573466874594,174.01297785162635</t>
+          <t>-35.12155616919002,174.0129709128648</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -11619,10 +11677,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-35.121812317497714,174.01212824865777</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
+          <t>-35.12174826455886,174.01210255499143</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>-35.121574665724005,174.0129783325307</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11637,12 +11699,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>-35.12166597193625,174.01206954487387</t>
+          <t>-35.12173182316168,174.01209595983244</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>-35.12161217258285,174.01299337797502</t>
+          <t>-35.12158408525497,174.01298211106564</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -11659,12 +11721,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-35.12173559098191,174.01209747122277</t>
+          <t>-35.12173216569081,174.01209609723153</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-35.12154974678225,174.0129683365927</t>
+          <t>-35.121585198472275,174.0129825576198</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -11681,12 +11743,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-35.12177275538921,174.01211237903544</t>
+          <t>-35.12173893064073,174.01209881086436</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-35.121630497850944,174.01300072895066</t>
+          <t>-35.12159427547469,174.01298619875442</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -11703,12 +11765,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-35.12169834094003,174.0120825290743</t>
+          <t>-35.121733107645845,174.01209647507912</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-35.12160189673135,174.01298925593406</t>
+          <t>-35.12159555995617,174.01298671400934</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -11725,12 +11787,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-35.12170193749589,174.0120839717639</t>
+          <t>-35.12172445878572,174.01209300575167</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-35.121537929551764,174.01296359625314</t>
+          <t>-35.1215842565192,174.01298217976628</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -11747,12 +11809,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-35.12173516282053,174.01209729947388</t>
+          <t>-35.121731737529416,174.01209592548264</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-35.12159855707958,174.01298791627102</t>
+          <t>-35.12158845249202,174.01298386293212</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11767,10 +11829,14 @@
           <t>2009-12-27 22:02:38+00:00</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>-35.121731737529416,174.01209592548264</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-35.1215744944598,174.0129782638301</t>
+          <t>-35.12158648295377,174.01298307287465</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -11787,12 +11853,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-35.121727199018665,174.01209410494442</t>
+          <t>-35.12171957774581,174.01209104781472</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-35.12157586457341,174.01297881343513</t>
+          <t>-35.12158511284017,174.0129825232695</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11809,12 +11875,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-35.12178294562953,174.0121164666639</t>
+          <t>-35.12173678983379,174.01209795211975</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-35.121558738153105,174.01297194337374</t>
+          <t>-35.121569099637455,174.01297609976052</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11831,12 +11897,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-35.12168558172976,174.0120774109623</t>
+          <t>-35.121726599592705,174.012093864496</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-35.12150795831403,174.01295157365914</t>
+          <t>-35.12155890941731,174.01297201207433</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -11853,12 +11919,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-35.121662375380176,174.01206810218557</t>
+          <t>-35.121715895557756,174.01208957077472</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-35.12132316419246,174.01287744597957</t>
+          <t>-35.121525256000005,174.0129585124123</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -11873,10 +11939,14 @@
           <t>2010-07-07 22:03:37+00:00</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>-35.121714525441256,174.01208902117847</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-35.121621934641624,174.01299729391488</t>
+          <t>-35.12151754911027,174.01295542088823</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -11893,12 +11963,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-35.121683869084066,174.0120767239675</t>
+          <t>-35.12170365014155,174.01208465875897</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-35.12163066911513,174.0130007976514</t>
+          <t>-35.12152851002008,174.01295981772262</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -11915,12 +11985,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-35.12178457264268,174.01211711931057</t>
+          <t>-35.12171983464264,174.012091150864</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-35.12162202027372,174.01299732826527</t>
+          <t>-35.121544095063356,174.0129660694736</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -11937,12 +12007,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-35.121695857603825,174.01208153293155</t>
+          <t>-35.12170245128959,174.0120841778624</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-35.12152491347157,174.0129583750112</t>
+          <t>-35.12153844334442,174.01296380235485</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -11959,12 +12029,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>-35.121624697172315,174.01205298831613</t>
+          <t>-35.121697227720354,174.01208208252754</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-35.12143791124403,174.01292347517477</t>
+          <t>-35.12156747262753,174.01297544710468</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -11981,12 +12051,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-35.12173362143951,174.0120966811778</t>
+          <t>-35.12170450646436,174.01208500225653</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-35.121583571462395,174.0129819049637</t>
+          <t>-35.121559851370435,174.01297238992765</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -12003,12 +12073,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-35.12178251746818,174.01211629491482</t>
+          <t>-35.12171358348618,174.01208864333108</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-35.121556682982636,174.01297111896656</t>
+          <t>-35.121526026688954,174.01295882156472</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -12025,12 +12095,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-35.12183184165419,174.01213608042525</t>
+          <t>-35.12178268873272,174.01211636361447</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-35.121570897911575,174.012976821117</t>
+          <t>-35.12157038411897,174.01297661501516</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -12047,12 +12117,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-35.12170450646436,174.01208500225653</t>
+          <t>-35.12177292665377,174.01211244773506</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-35.121515922100215,174.01295476823324</t>
+          <t>-35.121547862875964,174.01296758088628</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -12069,12 +12139,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-35.1217204340686,174.0120913913124</t>
+          <t>-35.12175982491597,174.01210719221424</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-35.12149048936336,174.01294456620852</t>
+          <t>-35.12153347668226,174.01296181003863</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -12091,12 +12161,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-35.12167933057295,174.01207490343148</t>
+          <t>-35.12174372604823,174.01210073445247</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>-35.121505903143394,174.01295074925304</t>
+          <t>-35.121527996227435,174.012959611621</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -12113,12 +12183,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-35.12168909265342,174.01207881930165</t>
+          <t>-35.12169834094003,174.0120825290743</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-35.12155325769851,174.01296974495475</t>
+          <t>-35.12151643589287,174.01295497433483</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -12135,12 +12205,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-35.1217824318359,174.012116260565</t>
+          <t>-35.12173576224646,174.01209753992234</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>-35.12157278181779,174.01297757682386</t>
+          <t>-35.12156301975822,174.01297366088883</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -12157,12 +12227,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-35.12176410652965,174.01210890970452</t>
+          <t>-35.12174518179692,174.01210131839892</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-35.1215383577123,174.01296376800457</t>
+          <t>-35.12155479907637,174.01297036326005</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -12179,12 +12249,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-35.121905913557896,174.01216579308684</t>
+          <t>-35.12178542896538,174.01211746280885</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-35.12171527361664,174.0130347358447</t>
+          <t>-35.12159487489938,174.0129864392067</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -12223,12 +12293,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-35.12173499155596,174.01209723077432</t>
+          <t>-35.12167873114694,174.01207466298337</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-35.121570897911575,174.012976821117</t>
+          <t>-35.12150667383239,174.01295105840532</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -12245,12 +12315,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-35.121718807055274,174.01209073866679</t>
+          <t>-35.12169208978336,174.01208002154272</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-35.12152439967892,174.0129581689096</t>
+          <t>-35.121512582447956,174.01295342857307</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -12267,12 +12337,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-35.121693716796734,174.01208067418787</t>
+          <t>-35.12169251794478,174.0120801932914</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-35.12153801518387,174.01296363060345</t>
+          <t>-35.12151891922401,174.01295597049247</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -12289,12 +12359,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-35.121674192635794,174.01207284244757</t>
+          <t>-35.12168883575656,174.01207871625243</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-35.12150804394615,174.01295160800942</t>
+          <t>-35.1215167784213,174.0129551117359</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -12311,12 +12381,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-35.12166854090488,174.01207057536558</t>
+          <t>-35.12168541046518,174.0120773422628</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-35.12158656858585,174.01298310722498</t>
+          <t>-35.12152833875586,174.0129597490221</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -12333,12 +12403,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-35.12171255589882,174.0120882311339</t>
+          <t>-35.121689349550266,174.0120789223509</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-35.12158631168956,174.012983004174</t>
+          <t>-35.12153664507018,174.01296308099893</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -12355,12 +12425,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-35.12170202312818,174.01208400611364</t>
+          <t>-35.121700653011665,174.0120834565176</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-35.121527311170574,174.01295933681882</t>
+          <t>-35.121548804829104,174.0129679587395</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -12377,12 +12447,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-35.12180606634221,174.012125741119</t>
+          <t>-35.12171084325318,174.01208754413867</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-35.12157612146972,174.01297891648608</t>
+          <t>-35.121549575518046,174.01296826789212</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -12399,12 +12469,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-35.12182764567325,174.01213439728193</t>
+          <t>-35.12172548637307,174.01209341794893</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-35.121594361106794,174.01298623310473</t>
+          <t>-35.12155514160478,174.01297050066125</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -12421,12 +12491,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-35.12171084325318,174.01208754413867</t>
+          <t>-35.121723859359776,174.01209276530327</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-35.12154520828072,174.01296651602735</t>
+          <t>-35.121554028387436,174.0129700541074</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -12443,12 +12513,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-35.1216944874873,174.0120809833356</t>
+          <t>-35.121731737529416,174.01209592548264</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-35.121538957137055,174.01296400845655</t>
+          <t>-35.12156498929658,174.01297445094582</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -12465,12 +12535,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-35.121670852976614,174.01207150280817</t>
+          <t>-35.12173533408508,174.01209736817344</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-35.1214958841864,174.01294673027382</t>
+          <t>-35.12154632149808,174.0129669625811</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -12487,12 +12557,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-35.121638569603654,174.0120585529664</t>
+          <t>-35.12172471568257,174.01209310880097</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-35.12147815833902,174.01293961977464</t>
+          <t>-35.12153810081598,174.0129636649537</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -12509,12 +12579,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-35.12175982491597,174.01210719221424</t>
+          <t>-35.121729767987006,174.01209513543773</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-35.12152962323747,174.0129602642762</t>
+          <t>-35.12153690196651,174.01296318404977</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -12531,12 +12601,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-35.12176059560643,174.0121075013625</t>
+          <t>-35.12173362143951,174.0120966811778</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-35.12152816749165,174.01295968032156</t>
+          <t>-35.12153578874913,174.01296273749614</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -12553,12 +12623,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-35.12169868346918,174.0120826664733</t>
+          <t>-35.121729767987006,174.01209513543773</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-35.12153287725752,174.01296156958668</t>
+          <t>-35.1215354462207,174.01296260009502</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -12575,12 +12645,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-35.12166348859991,174.01206854873195</t>
+          <t>-35.12172308866926,174.0120924561553</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-35.121539813458085,174.01296435195937</t>
+          <t>-35.12153587438124,174.01296277184642</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -12597,12 +12667,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-35.12177883528051,174.0121148178725</t>
+          <t>-35.12172034843632,174.01209135696263</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-35.12156781515593,174.0129755845059</t>
+          <t>-35.121535103692274,174.0129624626939</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -12619,12 +12689,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-35.121759225490045,174.01210695176565</t>
+          <t>-35.121713840383016,174.01208874638036</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-35.12157175423258,174.0129771646201</t>
+          <t>-35.121531421511705,174.012960985632</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -12641,12 +12711,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-35.121681214483225,174.01207565912566</t>
+          <t>-35.12171058635636,174.01208744108936</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-35.1212851435228,174.01286219454417</t>
+          <t>-35.12150684509661,174.01295112710582</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -12663,12 +12733,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-35.1215509677633,174.01202341326302</t>
+          <t>-35.12169620013296,174.01208167033056</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-35.12152508473579,174.01295844371177</t>
+          <t>-35.12150547498283,174.01295057750175</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -12683,10 +12753,14 @@
           <t>2014-07-26 22:11:19+00:00</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>-35.12170664727141,174.01208586100043</t>
+        </is>
+      </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-35.12157098354367,174.01297685546734</t>
+          <t>-35.1215167784213,174.0129551117359</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -12703,12 +12777,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-35.121854277306916,174.01214508009264</t>
+          <t>-35.121718378893874,174.01209056691795</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-35.12164000301314,174.01300454184124</t>
+          <t>-35.12152910944482,174.01296005817454</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -12725,12 +12799,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-35.12183466751889,174.01213721397087</t>
+          <t>-35.12173182316168,174.01209595983244</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-35.12164719610877,174.01300742727256</t>
+          <t>-35.12154349563862,174.01296582902162</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -12747,12 +12821,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-35.12179878759943,174.01212282138255</t>
+          <t>-35.12174021512487,174.01209932611118</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-35.121678280556715,174.01301989646385</t>
+          <t>-35.1215584812568,174.01297184032285</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -12769,12 +12843,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-35.12175151858533,174.01210386028364</t>
+          <t>-35.121747236971544,174.0121021427939</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-35.12161474154571,174.01299440848544</t>
+          <t>-35.12156661630651,174.0129751036016</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -12791,12 +12865,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-35.1217779789578,174.0121144743743</t>
+          <t>-35.12175109042394,174.01210368853467</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-35.12156901400535,174.01297606541021</t>
+          <t>-35.121566873202816,174.01297520665256</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -12813,12 +12887,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-35.121739701331215,174.01209912001244</t>
+          <t>-35.121792793340596,174.01212041689413</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-35.12151326750483,174.01295370337516</t>
+          <t>-35.12160480822262,174.01299042384557</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -12835,12 +12909,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-35.121620501189916,174.01205130518156</t>
+          <t>-35.12176821687876,174.01211055849535</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-35.121442449746375,174.01292529573522</t>
+          <t>-35.12158451341548,174.01298228281723</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -12857,12 +12931,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-35.121699025998296,174.0120828038723</t>
+          <t>-35.121717779467915,174.01209032646958</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>-35.121542981846,174.0129656229199</t>
+          <t>-35.121536473805975,174.01296301229837</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -12879,12 +12953,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-35.12181257439451,174.01212835170733</t>
+          <t>-35.12171795073248,174.0120903951691</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-35.12171475982416,174.0130345297421</t>
+          <t>-35.12155334333062,174.01296977930502</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -12901,12 +12975,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-35.12178988184343,174.01211924899988</t>
+          <t>-35.12173233695537,174.0120961659311</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-35.121580574338914,174.01298070270252</t>
+          <t>-35.12155882378521,174.01297197772405</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -12923,12 +12997,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-35.121772241595586,174.01211217293655</t>
+          <t>-35.12173901627299,174.01209884521415</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-35.12158802433154,174.0129836911805</t>
+          <t>-35.12156370481504,174.01297393569124</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -12945,12 +13019,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-35.121790909430665,174.01211966119786</t>
+          <t>-35.12174638064878,174.01210179929598</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-35.12161816682949,174.0129957824994</t>
+          <t>-35.121571497336284,174.0129770615692</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -12967,12 +13041,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-35.12166460181966,174.0120689952783</t>
+          <t>-35.121735676614186,174.01209750557257</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-35.121541611732304,174.01296507331534</t>
+          <t>-35.121575522045006,174.01297867603387</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -12989,12 +13063,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-35.121696114500665,174.01208163598082</t>
+          <t>-35.12173070994207,174.0120955132853</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-35.12158442778338,174.01298224846693</t>
+          <t>-35.121576635262315,174.01297912258795</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -13011,12 +13085,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-35.1217093875044,174.01208696019273</t>
+          <t>-35.121728397870555,174.0120945858413</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-35.121588709388334,174.0129839659831</t>
+          <t>-35.121578005375916,174.01297967219298</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -13033,12 +13107,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-35.12171178520828,174.01208792198602</t>
+          <t>-35.12173850247933,174.01209863911544</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-35.12152611232107,174.012958855915</t>
+          <t>-35.12158725364265,174.01298338202758</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -13055,12 +13129,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-35.121664773084234,174.01206906397775</t>
+          <t>-35.12173113810346,174.01209568503418</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>-35.12159718696602,174.01298736666567</t>
+          <t>-35.12158828122782,174.01298379423147</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -13075,10 +13149,14 @@
           <t>2015-08-06 22:11:13+00:00</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>-35.12173113810346,174.01209568503418</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-35.12163966048478,174.01300440443978</t>
+          <t>-35.12159290536114,174.01298564914913</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -13095,12 +13173,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-35.12171546739636,174.01208939902588</t>
+          <t>-35.121729682354726,174.01209510108797</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-35.12154692092282,174.01296720303313</t>
+          <t>-35.12158913754882,174.01298413773472</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -13117,12 +13195,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-35.121747836397475,174.01210238324248</t>
+          <t>-35.12171264153109,174.01208826548367</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-35.1215368163344,174.0129631496995</t>
+          <t>-35.121575522045006,174.01297867603387</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -13139,12 +13217,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-35.12162512533378,174.0120531600646</t>
+          <t>-35.12169577197154,174.0120814985818</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-35.121458206056104,174.0129316161731</t>
+          <t>-35.12155976573834,174.01297235557735</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -13161,12 +13239,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-35.12177506746056,174.01211330648047</t>
+          <t>-35.12170561968402,174.01208544880336</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-35.12161405648894,174.01299413368264</t>
+          <t>-35.12156550308917,174.01297465704764</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -13183,12 +13261,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-35.12169397369359,174.01208077723712</t>
+          <t>-35.121711528311444,174.01208781893675</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-35.12151609336443,174.01295483693377</t>
+          <t>-35.121551973216945,174.01296922970033</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -13205,12 +13283,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-35.12176085250325,174.0121076044119</t>
+          <t>-35.12171974901037,174.01209111651423</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-35.12155008931066,174.01296847399388</t>
+          <t>-35.12153698759861,174.01296321840007</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -13227,12 +13305,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-35.12172034843632,174.01209135696263</t>
+          <t>-35.12172051970087,174.01209142566216</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-35.121589308813014,174.01298420643536</t>
+          <t>-35.121544095063356,174.0129660694736</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -13249,12 +13327,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-35.12172137602367,174.01209176915987</t>
+          <t>-35.12172069096543,174.01209149436173</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-35.12158177318831,174.01298118360697</t>
+          <t>-35.12154948988593,174.01296823354184</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -13271,12 +13349,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-35.12170031048253,174.01208331911857</t>
+          <t>-35.12171812199704,174.01209046386865</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-35.121455208932,174.0129304139157</t>
+          <t>-35.12153767265546,174.0129634932023</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -13293,12 +13371,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-35.12168566736204,174.012077445312</t>
+          <t>-35.121714525441256,174.01208902117847</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-35.1215230295652,174.0129576193053</t>
+          <t>-35.12153604564545,174.01296284054698</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -13315,10 +13393,14 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-35.12184023361599,174.01213944671247</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
+          <t>-35.12172711338638,174.01209407059466</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>-35.12153604564545,174.01296284054698</t>
+        </is>
+      </c>
       <c r="D161" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13333,12 +13415,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-35.12180161346428,174.01212395492723</t>
+          <t>-35.12173242258763,174.0120962002809</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>-35.12155822436049,174.01297173727195</t>
+          <t>-35.12153844334442,174.01296380235485</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -13355,12 +13437,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-35.121654925371075,174.01206511376026</t>
+          <t>-35.1217254007408,174.01209338359917</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-35.121491260052366,174.01294487536072</t>
+          <t>-35.12153373357859,174.01296191308947</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -13375,10 +13457,14 @@
           <t>2016-06-29 22:11:39+00:00</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>-35.121735419717346,174.01209740252324</t>
+        </is>
+      </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>-35.121562591597716,174.0129734891373</t>
+          <t>-35.12154418069546,174.0129661038239</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -13395,12 +13481,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-35.12173250821991,174.01209623463063</t>
+          <t>-35.12173516282053,174.01209729947388</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-35.12160891856323,174.01299207266194</t>
+          <t>-35.12155008931066,174.01296847399388</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -13417,12 +13503,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-35.12186909168783,174.01215102262387</t>
+          <t>-35.12174372604823,174.01210073445247</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>-35.12162047889602,174.01299670995888</t>
+          <t>-35.12155060310329,174.01296868009564</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -13439,12 +13525,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-35.12173113810346,174.01209568503418</t>
+          <t>-35.121747065706984,174.01210207409434</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-35.121588709388334,174.0129839659831</t>
+          <t>-35.12155719677525,174.01297132506838</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -13461,12 +13547,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-35.12165612422313,174.01206559465624</t>
+          <t>-35.12173953006667,174.01209905131287</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-35.12156045079516,174.01297263037975</t>
+          <t>-35.12155753930367,174.01297146246955</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -13483,12 +13569,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-35.12179536230867,174.01212144738912</t>
+          <t>-35.121746723177885,174.01210193669516</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-35.121475075582914,174.01293838316644</t>
+          <t>-35.12154435195968,174.01296617252447</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -13505,12 +13591,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-35.121611338534414,174.01204762976587</t>
+          <t>-35.12173148063258,174.0120958224333</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-35.121497083035976,174.01294721117728</t>
+          <t>-35.12155145942433,174.01296902359857</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -13527,12 +13613,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-35.12168823633058,174.01207847580426</t>
+          <t>-35.121726257063585,174.0120937270969</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>-35.12145375318601,174.01292982996213</t>
+          <t>-35.12154349563862,174.01296582902162</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -13549,12 +13635,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-35.12170373577383,174.01208469310873</t>
+          <t>-35.12169097656367,174.01207957499602</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-35.12147413362966,174.0129380053139</t>
+          <t>-35.12149211637349,174.0129452188631</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -13571,12 +13657,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-35.12179142322428,174.01211986729683</t>
+          <t>-35.12171803636475,174.01209042951888</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-35.12159967029684,174.01298836282533</t>
+          <t>-35.12149990889565,174.01294834473546</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -13593,12 +13679,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-35.121777465164165,174.01211426827535</t>
+          <t>-35.121727884076876,174.01209437974262</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-35.121539813458085,174.01296435195937</t>
+          <t>-35.12150658820028,174.01295102405507</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -13615,12 +13701,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-35.12176230825192,174.01210818835858</t>
+          <t>-35.121732850749034,174.01209637202976</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-35.12152457094314,174.01295823761015</t>
+          <t>-35.12150915716357,174.01295205456273</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -13637,12 +13723,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-35.12164576271609,174.01206143834136</t>
+          <t>-35.12171144267915,174.01208778458698</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-35.121491431316585,174.01294494406116</t>
+          <t>-35.12151146923054,174.0129529820197</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -13659,12 +13745,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-35.121651071918066,174.01206356802325</t>
+          <t>-35.12171718004196,174.0120900860212</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-35.121488605456875,174.01294381050326</t>
+          <t>-35.121510270380995,174.01295250111608</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -13681,12 +13767,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-35.121647903523346,174.01206229708404</t>
+          <t>-35.121708445549324,174.01208658234538</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-35.12149614108275,174.01294683332458</t>
+          <t>-35.1215084721067,174.0129517797607</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -13701,10 +13787,14 @@
           <t>2017-06-24 22:14:03+00:00</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>-35.121708445549324,174.01208658234538</t>
+        </is>
+      </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-35.12159513179567,174.0129865422577</t>
+          <t>-35.12151814853503,174.01295566134007</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -13721,12 +13811,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-35.12167059607977,174.01207139975898</t>
+          <t>-35.121706304742276,174.01208572360142</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-35.12155625482212,174.01297094721508</t>
+          <t>-35.12152953760536,174.01296022992594</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -13743,12 +13833,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-35.12169602886838,174.01208160163105</t>
+          <t>-35.12170510589034,174.0120852427048</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-35.12152174508357,174.01295710405125</t>
+          <t>-35.1215287669164,174.01295992077345</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -13765,12 +13855,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-35.12171803636475,174.01209042951888</t>
+          <t>-35.12170639037457,174.01208575795118</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-35.12148697844674,174.01294315784875</t>
+          <t>-35.12152491347157,174.0129583750112</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -13787,12 +13877,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-35.12173644730468,174.01209781472062</t>
+          <t>-35.121700653011665,174.0120834565176</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-35.121612686375435,174.0129935840771</t>
+          <t>-35.121531335879595,174.0129609512817</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -13809,12 +13899,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-35.12170870244616,174.01208668539465</t>
+          <t>-35.121701423702206,174.01208376566538</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-35.12157278181779,174.01297757682386</t>
+          <t>-35.121535103692274,174.0129624626939</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -13831,12 +13921,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-35.12168686621401,174.01207792620838</t>
+          <t>-35.121702793818734,174.01208431526143</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-35.12161379959266,174.01299403063157</t>
+          <t>-35.12156070769146,174.01297273343064</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -13853,12 +13943,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-35.12169440185502,174.01208094898584</t>
+          <t>-35.12170887371073,174.01208675409416</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-35.12155471344426,174.01297032890977</t>
+          <t>-35.12156815768433,174.01297572190714</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -13875,12 +13965,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-35.121659720779235,174.0120670373443</t>
+          <t>-35.121680358160376,174.0120753156283</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-35.12153356231437,174.01296184438888</t>
+          <t>-35.12156738699541,174.01297541275437</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -13897,12 +13987,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-35.12173850247933,174.01209863911544</t>
+          <t>-35.12169491564871,174.01208115508433</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-35.12151069854156,174.01295267286736</t>
+          <t>-35.12155317206639,174.01296971060444</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -13919,12 +14009,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-35.12190668424818,174.0121661022362</t>
+          <t>-35.121737217995175,174.01209812386867</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-35.12167117309354,174.01301704538068</t>
+          <t>-35.12157680652652,174.01297919128857</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -13941,12 +14031,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-35.12174209903497,174.0121000818065</t>
+          <t>-35.121738074317946,174.0120984673665</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>-35.121666206432494,174.0130150530578</t>
+          <t>-35.12159170651175,174.01298516824454</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -13963,12 +14053,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-35.12170082427623,174.0120835252171</t>
+          <t>-35.12174038638944,174.01209939481072</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-35.121546835290694,174.01296716868282</t>
+          <t>-35.121580574338914,174.01298070270252</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -13985,12 +14075,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-35.12159515403042,174.01204113767852</t>
+          <t>-35.12171966337808,174.0120910821645</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-35.12142455263319,174.01291811654522</t>
+          <t>-35.12155822436049,174.01297173727195</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -14007,12 +14097,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-35.12173002488384,174.01209523848706</t>
+          <t>-35.12172471568257,174.01209310880097</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-35.121488434192656,174.0129437418028</t>
+          <t>-35.121548804829104,174.0129679587395</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -14029,12 +14119,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-35.12173079557435,174.01209554763506</t>
+          <t>-35.12172548637307,174.01209341794893</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-35.121608747299035,174.01299200396124</t>
+          <t>-35.12155625482212,174.01297094721508</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -14051,12 +14141,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-35.121693374267615,174.0120805367889</t>
+          <t>-35.12172188981735,174.01209197525847</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-35.12153184967224,174.01296115738336</t>
+          <t>-35.1215536002269,174.01296988235592</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -14073,12 +14163,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-35.121681899541514,174.01207593392354</t>
+          <t>-35.12171795073248,174.0120903951691</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-35.121581088131514,174.01298090880442</t>
+          <t>-35.12155634045423,174.0129709815654</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -14095,12 +14185,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-35.12172266050787,174.01209228440644</t>
+          <t>-35.121718378893874,174.01209056691795</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-35.12153287725752,174.01296156958668</t>
+          <t>-35.12155419965164,174.01297012280799</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -14117,12 +14207,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-35.1216722230932,174.0120720524038</t>
+          <t>-35.12170519152262,174.01208527705458</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-35.12150239222687,174.01294934089267</t>
+          <t>-35.121540926675465,174.01296479851305</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -14139,12 +14229,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-35.1217071610651,174.01208606709898</t>
+          <t>-35.12170544841946,174.01208538010385</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-35.12149271579826,174.01294545931484</t>
+          <t>-35.1215339904749,174.01296201614028</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -14161,12 +14251,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-35.12164088167551,174.01205948040828</t>
+          <t>-35.12168498230376,174.0120771705141</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-35.12150213533052,174.01294923784192</t>
+          <t>-35.121522258876226,174.01295731015287</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -14183,12 +14273,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>-35.121629235683834,174.01205480884965</t>
+          <t>-35.12167564838466,174.012073426393</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-35.12150384797275,174.01294992484696</t>
+          <t>-35.12151917612033,174.01295607354328</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -14205,12 +14295,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-35.12153307061155,174.01201623419337</t>
+          <t>-35.12165090065349,174.01206349932383</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-35.121355019346275,174.01289022422046</t>
+          <t>-35.12148149799148,174.01294095943368</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -14227,12 +14317,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-35.12169953979198,174.0120830099708</t>
+          <t>-35.12164704720044,174.01206195358697</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-35.121530051398,174.01296043602758</t>
+          <t>-35.12148106983092,174.0129407876825</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -14249,12 +14339,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-35.12156072984585,174.01202732912057</t>
+          <t>-35.12163471615054,174.01205700723003</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-35.121421983669514,174.01291708603972</t>
+          <t>-35.121472592251585,174.01293738700986</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -14269,10 +14359,14 @@
           <t>2019-06-06 22:11:11+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-35.12163471615054,174.01205700723003</t>
+        </is>
+      </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-35.12158417088709,174.01298214541595</t>
+          <t>-35.12148655028618,174.01294298609753</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -14289,12 +14383,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-35.12170544841946,174.01208538010385</t>
+          <t>-35.12164353627654,174.01206054524908</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-35.12150436176541,174.01295013094847</t>
+          <t>-35.12148851982476,174.012943776153</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -14311,10 +14405,14 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-35.12183697959001,174.01213814141732</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>-35.121665029981095,174.0120691670269</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-35.12148851982476,174.012943776153</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14329,12 +14427,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-35.12169345989989,174.01208057113863</t>
+          <t>-35.121662375380176,174.01206810218557</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-35.12152705427426,174.01295923376802</t>
+          <t>-35.12149108878814,174.01294480666022</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -14351,12 +14449,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-35.12171075762092,174.0120875097889</t>
+          <t>-35.12170116680535,174.0120836626161</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-35.12154066977916,174.01296469546222</t>
+          <t>-35.12151806290293,174.01295562698985</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -14373,12 +14471,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-35.12169671392666,174.01208187642905</t>
+          <t>-35.121728654767395,174.01209468889064</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-35.12152585542474,174.0129587528642</t>
+          <t>-35.12153638817388,174.0129629779481</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -14395,12 +14493,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-35.12162623855359,174.01205360661052</t>
+          <t>-35.12171161394372,174.01208785328652</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-35.12147969971708,174.0129402380788</t>
+          <t>-35.121526968642144,174.01295919941774</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -14417,12 +14515,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-35.12171041509178,174.01208737238986</t>
+          <t>-35.121687551272295,174.01207820100632</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>-35.12147490431869,174.01293831446597</t>
+          <t>-35.121509670956236,174.01295226066426</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -14439,12 +14537,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-35.121651756976384,174.0120638428209</t>
+          <t>-35.12168155701237,174.0120757965246</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-35.12151035601312,174.01295253546633</t>
+          <t>-35.12150975658834,174.01295229501451</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -14461,12 +14559,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-35.12158299424404,174.01203626002734</t>
+          <t>-35.12166314607076,174.01206841133305</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-35.121403658395096,174.0129097351026</t>
+          <t>-35.12148920488166,174.01294405095493</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -14483,12 +14581,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-35.12162298452645,174.0120523013224</t>
+          <t>-35.121657408707456,174.01206610990198</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-35.121390984840495,174.0129046512789</t>
+          <t>-35.12147516121504,174.01293841751666</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -14503,10 +14601,14 @@
           <t>2020-02-09 21:50:18+00:00</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr"/>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>-35.121657408707456,174.01206610990198</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-35.121497939357084,174.01294755467976</t>
+          <t>-35.1214779870748,174.0129395510742</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -14521,10 +14623,14 @@
           <t>2020-02-25 21:49:28+00:00</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>-35.121657408707456,174.01206610990198</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-35.12142438136894,174.01291804784483</t>
+          <t>-35.1214720784589,174.01293718090852</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -14541,12 +14647,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-35.12168506793603,174.01207720486383</t>
+          <t>-35.121653726519035,174.01206463286428</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-35.121519775545096,174.01295631399512</t>
+          <t>-35.12146976639179,174.01293625345247</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -14563,12 +14669,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-35.12163069143281,174.0120553927944</t>
+          <t>-35.1216508150212,174.01206346497412</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-35.121396379664446,174.0129068153388</t>
+          <t>-35.12146240202982,174.0129332993336</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -14585,12 +14691,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-35.1216263241859,174.0120536409602</t>
+          <t>-35.12164816042021,174.01206240013315</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-35.121474733054455,174.0129382457655</t>
+          <t>-35.12146351524732,174.01293374588641</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -14607,12 +14713,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-35.12175896859322,174.01210684871623</t>
+          <t>-35.12165860755949,174.01206659079799</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-35.121523628989955,174.01295785975717</t>
+          <t>-35.12146163134077,174.01293299018167</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -14629,12 +14735,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-35.12159609598569,174.0120415155248</t>
+          <t>-35.12164439259944,174.0120608887461</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-35.12143174573137,174.01292100196088</t>
+          <t>-35.12145734973493,174.01293127267095</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -14651,12 +14757,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-35.12157554423396,174.01203327160798</t>
+          <t>-35.12163668569325,174.01205779727303</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-35.12150907153147,174.01295202021248</t>
+          <t>-35.121462059501354,174.01293316193272</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -14673,12 +14779,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-35.12164285121822,174.01206027045143</t>
+          <t>-35.12164233742447,174.01206006435322</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-35.1215035054443,174.01294978744596</t>
+          <t>-35.121467197428316,174.01293522294583</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -14695,12 +14801,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-35.12177575251874,174.012113581279</t>
+          <t>-35.121661433425004,174.01206772433866</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-35.1215584812568,174.01297184032285</t>
+          <t>-35.121483981322775,174.01294195559046</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -14717,12 +14823,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-35.121700139217964,174.01208325041907</t>
+          <t>-35.12166571503939,174.0120694418247</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-35.121554028387436,174.0129700541074</t>
+          <t>-35.121496826139634,174.01294710812653</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -14739,12 +14845,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-35.12177892091278,174.0121148522223</t>
+          <t>-35.12167701850123,174.0120739759887</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-35.12155137379222,174.01296898924826</t>
+          <t>-35.12150230659474,174.01294930654245</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -14761,12 +14867,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-35.121716409351436,174.01208977687332</t>
+          <t>-35.121680186895794,174.01207524692882</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-35.12158596916115,174.01298286677272</t>
+          <t>-35.12150890026725,174.01295195151198</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -14783,12 +14889,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-35.1217204340686,174.0120913913124</t>
+          <t>-35.12172899729649,174.01209482628974</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-35.121522858300985,174.01295755060477</t>
+          <t>-35.1215536002269,174.01296988235592</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -14805,12 +14911,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-35.12165090065349,174.01206349932383</t>
+          <t>-35.12171332658934,174.01208854028178</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-35.12147627443252,174.0129388640696</t>
+          <t>-35.12153810081598,174.0129636649537</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -14827,12 +14933,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-35.121652955828424,174.01206432371686</t>
+          <t>-35.121703307612414,174.01208452135995</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-35.12146933823121,174.01293608170138</t>
+          <t>-35.12152662611371,174.01295906201662</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -14849,12 +14955,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-35.121707674858776,174.01208627319755</t>
+          <t>-35.121683012761196,174.01207638047012</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-35.12151241118374,174.01295335987254</t>
+          <t>-35.121495199129505,174.01294645547188</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -14871,12 +14977,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-35.12171332658934,174.01208854028178</t>
+          <t>-35.12168909265342,174.01207881930165</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-35.12156361918295,174.01297390134096</t>
+          <t>-35.12150890026725,174.01295195151198</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -14893,12 +14999,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-35.12165698054601,174.0120659381534</t>
+          <t>-35.12168369781949,174.01207665526803</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-35.1215094140599,174.0129521576135</t>
+          <t>-35.12150898589936,174.0129519858622</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -14915,10 +15021,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-35.12160200461417,174.01204388565168</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
+          <t>-35.12167205182863,174.01207198370435</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-35.12150898589936,174.0129519858622</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14933,12 +15043,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-35.121817455433685,174.01213030964885</t>
+          <t>-35.12169020587311,174.01207926584834</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-35.12159667317344,174.01298716056368</t>
+          <t>-35.12152148818726,174.01295700100044</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -14955,12 +15065,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-35.12167667597208,174.01207383858977</t>
+          <t>-35.12168875012428,174.0120786819027</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-35.1215354462207,174.01296260009502</t>
+          <t>-35.12152328646152,174.0129577223561</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -14977,12 +15087,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-35.121674363900375,174.01207291114702</t>
+          <t>-35.12168729437545,174.01207809795707</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>-35.12158896628462,174.01298406903408</t>
+          <t>-35.121530565190646,174.01296064212923</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -14997,10 +15107,14 @@
           <t>2021-07-13 22:11:19+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-35.12168729437545,174.01207809795707</t>
+        </is>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-35.12152388588627,174.01295796280797</t>
+          <t>-35.121529880133785,174.012960367327</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -15017,12 +15131,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-35.121650472492036,174.01206332757528</t>
+          <t>-35.121687380007735,174.01207813230684</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>-35.12145675031012,174.01293103221948</t>
+          <t>-35.12153587438124,174.01296277184642</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -15039,12 +15153,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-35.12166657136227,174.01206978532193</t>
+          <t>-35.121677789191814,174.0120742851363</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>-35.12146094628384,174.01293271537992</t>
+          <t>-35.12152457094314,174.01295823761015</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -15061,12 +15175,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-35.1216923466802,174.01208012459193</t>
+          <t>-35.12168284149664,174.01207631177064</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>-35.12153604564545,174.01296284054698</t>
+          <t>-35.121528424387975,174.01295978337237</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -15083,12 +15197,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-35.12168695184631,174.01207796055814</t>
+          <t>-35.12169500128099,174.01208118943407</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>-35.12151891922401,174.01295597049247</t>
+          <t>-35.12152722553847,174.01295930246854</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -15105,12 +15219,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-35.1216056868029,174.01204536268745</t>
+          <t>-35.12166468745194,174.01206902962804</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>-35.12142575148288,174.0129185974478</t>
+          <t>-35.121505817511284,174.01295071490276</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -15127,12 +15241,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>-35.12171075762092,174.0120875097889</t>
+          <t>-35.12166879780174,174.01207067841474</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>-35.121524742207356,174.01295830631068</t>
+          <t>-35.12149245890194,174.01294535626408</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -15149,12 +15263,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-35.12170724669738,174.01208610144874</t>
+          <t>-35.12167427826808,174.0120728767973</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>-35.12149254453404,174.01294539061433</t>
+          <t>-35.12148792039997,174.01294353570137</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -15171,12 +15285,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-35.12166554377481,174.01206937312526</t>
+          <t>-35.12167316504836,174.0120724302508</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>-35.12150042268831,174.01294855083694</t>
+          <t>-35.121489547410114,174.01294418835587</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -15193,12 +15307,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-35.12174372604823,174.01210073445247</t>
+          <t>-35.12168104321866,174.01207559042618</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>-35.121552487009566,174.01296943580206</t>
+          <t>-35.12149648361119,174.01294697072555</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -15215,12 +15329,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-35.121645505819224,174.01206133529226</t>
+          <t>-35.12167744666266,174.01207414773734</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>-35.121469252599105,174.01293604735116</t>
+          <t>-35.12149374338362,174.01294587151773</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -15237,12 +15351,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-35.121652613299275,174.012064186318</t>
+          <t>-35.1216789024115,174.01207473168282</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>-35.12153244909698,174.0129613978353</t>
+          <t>-35.121505817511284,174.01295071490276</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -15259,12 +15373,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-35.12172668522498,174.0120938988458</t>
+          <t>-35.12168369781949,174.01207665526803</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>-35.121530222662216,174.0129605047281</t>
+          <t>-35.121508300842486,174.01295171106017</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -15281,12 +15395,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-35.12166485871652,174.01206909832746</t>
+          <t>-35.12168960644712,174.01207902540014</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>-35.121521060026716,174.01295682924913</t>
+          <t>-35.12151540830756,174.01295456213165</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -15303,12 +15417,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-35.121673250680644,174.01207246460055</t>
+          <t>-35.121687808169156,174.01207830405554</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>-35.12153664507018,174.01296308099893</t>
+          <t>-35.1215177203745,174.0129554895888</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -15325,10 +15439,14 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-35.12176145192917,174.01210784486054</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr"/>
+          <t>-35.12169517254556,174.01208125813358</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>-35.1215177203745,174.0129554895888</t>
+        </is>
+      </c>
       <c r="D254" t="inlineStr">
         <is>
           <t>L7</t>
@@ -15343,12 +15461,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>-35.12169560070698,174.01208142988233</t>
+          <t>-35.12169217541564,174.01208005589245</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>-35.1216146559136,174.01299437413508</t>
+          <t>-35.12153219220067,174.01296129478447</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -15365,12 +15483,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>-35.12171195647285,174.01208799068556</t>
+          <t>-35.12169731335264,174.0120821168773</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>-35.12153698759861,174.01296321840007</t>
+          <t>-35.1215367307023,174.01296311534924</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -15387,12 +15505,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-35.12174929214616,174.01210296718898</t>
+          <t>-35.1217093875044,174.01208696019273</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>-35.12154889046121,174.0129679930898</t>
+          <t>-35.12155163068854,174.01296909229913</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -15409,12 +15527,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-35.121737560524295,174.0120982612678</t>
+          <t>-35.12171341222162,174.01208857463152</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>-35.12152928070904,174.0129601268751</t>
+          <t>-35.12154794850806,174.0129676152366</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -15431,12 +15549,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-35.12182464854398,174.01213319503677</t>
+          <t>-35.121743811680496,174.01210076880227</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>-35.121634693823474,174.01300241211845</t>
+          <t>-35.12157286744989,174.01297761117416</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -15453,12 +15571,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-35.121736019143285,174.0120976429717</t>
+          <t>-35.121751861114426,174.01210399768283</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>-35.12151146923054,174.0129529820197</t>
+          <t>-35.12155223011326,174.0129693327512</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -15475,12 +15593,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>-35.12161707589816,174.0120499311943</t>
+          <t>-35.12172942545789,174.0120949980386</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>-35.121522858300985,174.01295755060477</t>
+          <t>-35.12154734908333,174.01296737478458</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -15497,12 +15615,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-35.12174638064878,174.01210179929598</t>
+          <t>-35.12173516282053,174.01209729947388</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>-35.121521060026716,174.01295682924913</t>
+          <t>-35.12154469448809,174.01296630992562</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -15519,12 +15637,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>-35.121669568492315,174.01207098756228</t>
+          <t>-35.121725828902186,174.01209355534803</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>-35.12152551289631,174.0129586154631</t>
+          <t>-35.12154195426073,174.01296521071646</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -15541,12 +15659,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-35.12173627604013,174.01209774602106</t>
+          <t>-35.12172711338638,174.01209407059466</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>-35.12158314330188,174.0129817332121</t>
+          <t>-35.121547092187015,174.01296727173371</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -15563,12 +15681,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>-35.12168498230376,174.0120771705141</t>
+          <t>-35.12171906395212,174.0120908417161</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>-35.1215558266616,174.0129707754636</t>
+          <t>-35.12154794850806,174.0129676152366</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -15583,10 +15701,14 @@
           <t>2023-05-24 22:10:53+00:00</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr"/>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>-35.12171906395212,174.0120908417161</t>
+        </is>
+      </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>-35.12154383816704,174.01296596642274</t>
+          <t>-35.12154752034754,174.01296744348514</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -15603,12 +15725,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-35.121755029508606,174.01210526862536</t>
+          <t>-35.12172129039139,174.0120917348101</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>-35.121590336398185,174.01298461863928</t>
+          <t>-35.12155428528375,174.0129701571583</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -15625,12 +15747,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-35.12179501977959,174.0121213099898</t>
+          <t>-35.12172942545789,174.0120949980386</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>-35.12159204904015,174.01298530564586</t>
+          <t>-35.12155805309628,174.01297166857137</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -15647,12 +15769,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-35.12167247999005,174.01207215545298</t>
+          <t>-35.12172377372749,174.01209273095347</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>-35.12152928070904,174.0129601268751</t>
+          <t>-35.12155548413318,174.01297063806243</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -15669,12 +15791,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-35.12172557200535,174.0120934522987</t>
+          <t>-35.121713840383016,174.01208874638036</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>-35.12161225821495,174.01299341232536</t>
+          <t>-35.1215534289627,174.01296981365533</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -15691,12 +15813,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>-35.121662803541604,174.01206827393418</t>
+          <t>-35.12170921623986,174.01208689149323</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>-35.121505303718614,174.01295050880125</t>
+          <t>-35.121549404253834,174.01296819919153</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -15711,10 +15833,14 @@
           <t>2023-08-20 22:11:23+00:00</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr"/>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>-35.12170647600685,174.01208579230095</t>
+        </is>
+      </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>-35.121563533550834,174.01297386699062</t>
+          <t>-35.12155377149112,174.0129699510565</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -15731,12 +15857,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-35.12167496332637,174.01207315159516</t>
+          <t>-35.12171229900198,174.01208812808463</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>-35.121563533550834,174.01297386699062</t>
+          <t>-35.12155711114315,174.01297129071807</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -15753,12 +15879,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-35.12181548589157,174.01212951960224</t>
+          <t>-35.12172325993382,174.01209252485484</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>-35.121590165133995,174.01298454993864</t>
+          <t>-35.12156464676816,174.0129743135446</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -15775,12 +15901,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-35.1217081030202,174.01208644494633</t>
+          <t>-35.12172163292051,174.01209187220917</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>-35.12153184967224,174.01296115738336</t>
+          <t>-35.12156164964459,174.01297311128397</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -15797,12 +15923,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-35.12177489619602,174.01211323778082</t>
+          <t>-35.12172694212182,174.0120940018951</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>-35.1216536185155,174.01301000355096</t>
+          <t>-35.121569270901645,174.01297616846114</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -15819,12 +15945,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-35.121637370751586,174.01205807207063</t>
+          <t>-35.12170895934301,174.01208678844392</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>-35.12146694053198,174.01293511989516</t>
+          <t>-35.12155736803947,174.01297139376896</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -15841,10 +15967,14 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>-35.12166819837573,174.01207043796666</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr"/>
+          <t>-35.121704420832074,174.01208496790676</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>-35.12155736803947,174.01297139376896</t>
+        </is>
+      </c>
       <c r="D278" t="inlineStr">
         <is>
           <t>L9</t>
@@ -15859,12 +15989,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>-35.12177815022234,174.01211454307392</t>
+          <t>-35.121716152454596,174.012089673824</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>-35.12157612146972,174.01297891648608</t>
+          <t>-35.121562591597716,174.0129734891373</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -15881,12 +16011,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-35.12164978743371,174.0120630527776</t>
+          <t>-35.12171332658934,174.01208854028178</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>-35.12145383881811,174.01292986431235</t>
+          <t>-35.121549918046455,174.0129684052933</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -15903,12 +16033,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-35.12162889315466,174.0120546714509</t>
+          <t>-35.12167247999005,174.01207215545298</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>-35.121482611208954,174.01294140598674</t>
+          <t>-35.121494856601075,174.0129463180709</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -15925,12 +16055,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-35.12164867421396,174.0120626062314</t>
+          <t>-35.12166854090488,174.01207057536558</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>-35.12151909048823,174.012956039193</t>
+          <t>-35.12149973763143,174.01294827603493</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -15947,12 +16077,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>-35.12160131955579,174.01204361085436</t>
+          <t>-35.12165895008865,174.01206672819683</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>-35.12146308708675,174.01293357413533</t>
+          <t>-35.12149357211939,174.01294580281726</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -15969,12 +16099,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-35.121657922501186,174.01206631600027</t>
+          <t>-35.12166186158644,174.01206789608725</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>-35.12146462846484,174.01293419243925</t>
+          <t>-35.12149322959094,174.01294566541628</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -15991,12 +16121,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>-35.12169123346051,174.01207967804524</t>
+          <t>-35.12166511561339,174.01206920137665</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>-35.12150855773881,174.01295181411095</t>
+          <t>-35.121495456025855,174.0129465585226</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -16013,12 +16143,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-35.12173927316983,174.0120989482635</t>
+          <t>-35.12166126216043,174.01206765563924</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>-35.12149254453404,174.01294539061433</t>
+          <t>-35.121488434192656,174.0129437418028</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -16035,12 +16165,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>-35.12169911163057,174.01208283822206</t>
+          <t>-35.12169688519122,174.01208194512853</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>-35.121497168668085,174.0129472455275</t>
+          <t>-35.12149074625969,174.01294466925927</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -16057,12 +16187,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-35.121611509799,174.0120476984652</t>
+          <t>-35.12168523920062,174.0120772735633</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>-35.121427121596824,174.01291914705075</t>
+          <t>-35.121481326727256,174.0129408907332</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -16079,12 +16209,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-35.12155302293859,174.01202423765403</t>
+          <t>-35.12165072938891,174.0120634306244</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>-35.12139406759706,174.0129058878845</t>
+          <t>-35.12145272560059,174.0129294177596</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -16101,12 +16231,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-35.12166220411561,174.01206803348612</t>
+          <t>-35.12165304146072,174.01206435806657</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>-35.12151164049477,174.01295305072023</t>
+          <t>-35.12146454283273,174.01293415808902</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -16123,12 +16253,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-35.121657408707456,174.01206610990198</t>
+          <t>-35.121653726519035,174.01206463286428</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>-35.12149348648728,174.012945768467</t>
+          <t>-35.12146933823121,174.01293608170138</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -16145,12 +16275,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-35.1216508150212,174.01206346497412</t>
+          <t>-35.121653298357586,174.01206446111573</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>-35.121433372741656,174.01292165461453</t>
+          <t>-35.12146420030425,174.01293402068814</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -16167,12 +16297,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-35.1216247828046,174.0120530226658</t>
+          <t>-35.12164978743371,174.0120630527776</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>-35.121448015834076,174.0129275284983</t>
+          <t>-35.121462145133464,174.01293319628294</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -16189,12 +16319,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-35.12169757024949,174.01208221992653</t>
+          <t>-35.121655096635656,174.01206518245968</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>-35.12148595086137,174.0129427456459</t>
+          <t>-35.121464799729075,174.0129342611397</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -16211,12 +16341,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-35.121639768455736,174.0120590338622</t>
+          <t>-35.12164405007029,174.0120607513473</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>-35.12145683594222,174.0129310665697</t>
+          <t>-35.12146086065172,174.01293268102972</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -16233,12 +16363,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-35.12182327842775,174.01213264543904</t>
+          <t>-35.121661947218726,174.01206793043696</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>-35.12162527429328,174.01299863357877</t>
+          <t>-35.121477302017894,174.01293927627236</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -16255,12 +16385,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-35.12181951060806,174.01213113404535</t>
+          <t>-35.12167624781066,174.01207366684113</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>-35.121688556406916,174.0130240185127</t>
+          <t>-35.12149648361119,174.01294697072555</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -16277,12 +16407,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-35.12171829326159,174.01209053256818</t>
+          <t>-35.12167975873437,174.01207507518018</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>-35.121545893337554,174.01296679082964</t>
+          <t>-35.12150059395253,174.01294861953744</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -16299,12 +16429,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>-35.12165680928143,174.01206586945398</t>
+          <t>-35.12167804608866,174.01207438818548</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>-35.12153458989965,174.01296225659223</t>
+          <t>-35.12150324854797,174.01294968439518</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -16321,12 +16451,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-35.12169166162193,174.01207984979396</t>
+          <t>-35.12167744666266,174.01207414773734</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>-35.12158656858585,174.01298310722498</t>
+          <t>-35.12151009911678,174.01295243241555</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -16343,12 +16473,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-35.12169114782824,174.0120796436955</t>
+          <t>-35.1216783886178,174.0120745255844</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>-35.121635464512295,174.01300272127176</t>
+          <t>-35.12151909048823,174.012956039193</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -16363,10 +16493,14 @@
           <t>2025-08-01 22:11:18+00:00</t>
         </is>
       </c>
-      <c r="B302" t="inlineStr"/>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>-35.12170133806992,174.0120837313156</t>
+        </is>
+      </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>-35.12158614042537,174.01298293547336</t>
+          <t>-35.121547862875964,174.01296758088628</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -16381,10 +16515,14 @@
           <t>2025-08-09 22:11:25+00:00</t>
         </is>
       </c>
-      <c r="B303" t="inlineStr"/>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>-35.12170133806992,174.0120837313156</t>
+        </is>
+      </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>-35.12163075474724,174.01300083200175</t>
+          <t>-35.12155479907637,174.01297036326005</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -16401,12 +16539,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-35.12170587658087,174.01208555185264</t>
+          <t>-35.12170690416825,174.01208596404973</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>-35.121566102513896,174.0129748974998</t>
+          <t>-35.121565845617596,174.01297479444887</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -16423,12 +16561,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-35.1217071610651,174.01208606709898</t>
+          <t>-35.12171709440968,174.01209005167144</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>-35.12157954675372,174.0129802904987</t>
+          <t>-35.12158502720808,174.01298248891916</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -16445,12 +16583,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-35.12176513411693,174.01210932190222</t>
+          <t>-35.12170519152262,174.01208527705458</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>-35.12158759617105,174.01298351942887</t>
+          <t>-35.1215836570945,174.01298193931402</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
